--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D804D2-A572-46CE-BE73-C410635194D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAECF61B-4293-4B83-8DE1-8B3D967A04C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="631">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -4755,10 +4755,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1740" topLeftCell="A23" activePane="bottomLeft"/>
-      <selection activeCell="AO2" sqref="AO2"/>
-      <selection pane="bottomLeft" activeCell="AX42" sqref="AX42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1755" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5049,9 +5049,6 @@
       </c>
       <c r="R3" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="AF3" s="11" t="s">
         <v>72</v>
@@ -11361,18 +11358,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11490,24 +11487,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAECF61B-4293-4B83-8DE1-8B3D967A04C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF31313-CBA6-40CD-9077-19FE509F9EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="629">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3483,9 +3483,6 @@
     <t>Tukey-Kramer test _ anova _ Primer _ ANOSIM _ SIMPER</t>
   </si>
   <si>
-    <t>Other _ Serpulids</t>
-  </si>
-  <si>
     <t>Serpulidae</t>
   </si>
   <si>
@@ -3877,9 +3874,6 @@
   </si>
   <si>
     <t>Benthic_epifauna</t>
-  </si>
-  <si>
-    <t>all epibenthos</t>
   </si>
   <si>
     <t>none specified</t>
@@ -4755,10 +4749,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1755" topLeftCell="A3" activePane="bottomLeft"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1755" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="AB2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7293,9 +7287,6 @@
       <c r="AH22" t="s">
         <v>104</v>
       </c>
-      <c r="AI22" t="s">
-        <v>347</v>
-      </c>
       <c r="AK22" t="s">
         <v>216</v>
       </c>
@@ -7415,14 +7406,11 @@
       <c r="AI23" t="s">
         <v>105</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>360</v>
-      </c>
       <c r="AK23" t="s">
         <v>216</v>
       </c>
       <c r="AL23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM23" t="s">
         <v>342</v>
@@ -7443,30 +7431,30 @@
         <v>344</v>
       </c>
       <c r="AU23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AV23" t="s">
         <v>111</v>
       </c>
       <c r="AW23" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX23" t="s">
         <v>363</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" t="s">
         <v>366</v>
-      </c>
-      <c r="D24" t="s">
-        <v>367</v>
       </c>
       <c r="E24">
         <v>2000</v>
@@ -7475,31 +7463,31 @@
         <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H24" t="s">
         <v>293</v>
       </c>
       <c r="I24" t="s">
+        <v>368</v>
+      </c>
+      <c r="J24" t="s">
         <v>369</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>370</v>
-      </c>
-      <c r="K24" t="s">
-        <v>371</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
       </c>
       <c r="O24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P24" t="s">
         <v>208</v>
@@ -7517,16 +7505,16 @@
         <v>299</v>
       </c>
       <c r="W24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X24" t="s">
         <v>99</v>
       </c>
       <c r="Y24" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z24" t="s">
         <v>375</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>376</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7550,10 +7538,10 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL24" t="s">
         <v>377</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>378</v>
       </c>
       <c r="AM24" t="s">
         <v>342</v>
@@ -7577,54 +7565,54 @@
         <v>345</v>
       </c>
       <c r="AV24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AW24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX24" t="s">
         <v>363</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
         <v>381</v>
-      </c>
-      <c r="D25" t="s">
-        <v>382</v>
       </c>
       <c r="E25">
         <v>2002</v>
       </c>
       <c r="F25" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" t="s">
         <v>383</v>
-      </c>
-      <c r="G25" t="s">
-        <v>384</v>
       </c>
       <c r="H25" t="s">
         <v>147</v>
       </c>
       <c r="I25" t="s">
+        <v>384</v>
+      </c>
+      <c r="J25" t="s">
         <v>385</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>386</v>
-      </c>
-      <c r="K25" t="s">
-        <v>387</v>
       </c>
       <c r="L25" t="s">
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -7657,10 +7645,10 @@
         <v>128</v>
       </c>
       <c r="Y25" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z25" t="s">
         <v>389</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>390</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7684,13 +7672,13 @@
         <v>212</v>
       </c>
       <c r="AL25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM25" t="s">
         <v>135</v>
       </c>
       <c r="AN25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO25" t="s">
         <v>84</v>
@@ -7699,10 +7687,10 @@
         <v>171</v>
       </c>
       <c r="AU25" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV25" t="s">
         <v>393</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>394</v>
       </c>
       <c r="AW25" t="s">
         <v>139</v>
@@ -7713,43 +7701,43 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" t="s">
         <v>396</v>
-      </c>
-      <c r="D26" t="s">
-        <v>397</v>
       </c>
       <c r="E26">
         <v>2004</v>
       </c>
       <c r="F26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" t="s">
         <v>398</v>
-      </c>
-      <c r="G26" t="s">
-        <v>399</v>
       </c>
       <c r="H26" t="s">
         <v>332</v>
       </c>
       <c r="I26" t="s">
+        <v>399</v>
+      </c>
+      <c r="J26" t="s">
         <v>400</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>401</v>
-      </c>
-      <c r="K26" t="s">
-        <v>402</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7770,22 +7758,22 @@
         <v>95</v>
       </c>
       <c r="U26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V26" t="s">
         <v>187</v>
       </c>
       <c r="W26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X26" t="s">
         <v>163</v>
       </c>
       <c r="Y26" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z26" t="s">
         <v>405</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>406</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7809,7 +7797,7 @@
         <v>250</v>
       </c>
       <c r="AL26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM26" t="s">
         <v>135</v>
@@ -7824,7 +7812,7 @@
         <v>171</v>
       </c>
       <c r="AU26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AV26" t="s">
         <v>138</v>
@@ -7836,21 +7824,21 @@
         <v>112</v>
       </c>
       <c r="AY26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" t="s">
         <v>411</v>
-      </c>
-      <c r="D27" t="s">
-        <v>412</v>
       </c>
       <c r="E27">
         <v>2004</v>
@@ -7859,25 +7847,25 @@
         <v>180</v>
       </c>
       <c r="G27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H27" t="s">
         <v>413</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>414</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>415</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>416</v>
-      </c>
-      <c r="K27" t="s">
-        <v>417</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7904,16 +7892,16 @@
         <v>319</v>
       </c>
       <c r="W27" t="s">
+        <v>418</v>
+      </c>
+      <c r="X27" t="s">
         <v>419</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>420</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>421</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>422</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7937,10 +7925,10 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM27" t="s">
         <v>342</v>
@@ -7967,48 +7955,48 @@
         <v>139</v>
       </c>
       <c r="AX27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" t="s">
         <v>426</v>
-      </c>
-      <c r="D28" t="s">
-        <v>427</v>
       </c>
       <c r="E28">
         <v>2005</v>
       </c>
       <c r="F28" t="s">
+        <v>427</v>
+      </c>
+      <c r="G28" t="s">
         <v>428</v>
-      </c>
-      <c r="G28" t="s">
-        <v>429</v>
       </c>
       <c r="H28" t="s">
         <v>293</v>
       </c>
       <c r="I28" t="s">
+        <v>429</v>
+      </c>
+      <c r="J28" t="s">
         <v>430</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>431</v>
-      </c>
-      <c r="K28" t="s">
-        <v>432</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
@@ -8038,13 +8026,13 @@
         <v>96</v>
       </c>
       <c r="X28" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y28" t="s">
         <v>434</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>435</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>436</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8068,16 +8056,16 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM28" t="s">
         <v>342</v>
       </c>
       <c r="AN28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO28" t="s">
         <v>343</v>
@@ -8089,30 +8077,30 @@
         <v>137</v>
       </c>
       <c r="AU28" t="s">
+        <v>438</v>
+      </c>
+      <c r="AV28" t="s">
         <v>439</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>440</v>
       </c>
       <c r="AW28" t="s">
         <v>139</v>
       </c>
       <c r="AX28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D29" t="s">
         <v>443</v>
-      </c>
-      <c r="D29" t="s">
-        <v>444</v>
       </c>
       <c r="E29">
         <v>2006</v>
@@ -8121,25 +8109,25 @@
         <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H29" t="s">
         <v>293</v>
       </c>
       <c r="I29" t="s">
+        <v>445</v>
+      </c>
+      <c r="J29" t="s">
         <v>446</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>447</v>
-      </c>
-      <c r="K29" t="s">
-        <v>448</v>
       </c>
       <c r="L29" t="s">
         <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -8160,16 +8148,16 @@
         <v>187</v>
       </c>
       <c r="W29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X29" t="s">
         <v>163</v>
       </c>
       <c r="Y29" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z29" t="s">
         <v>450</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>451</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8196,7 +8184,7 @@
         <v>216</v>
       </c>
       <c r="AL29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM29" t="s">
         <v>342</v>
@@ -8226,48 +8214,48 @@
         <v>139</v>
       </c>
       <c r="AX29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" t="s">
         <v>455</v>
-      </c>
-      <c r="D30" t="s">
-        <v>456</v>
       </c>
       <c r="E30">
         <v>2010</v>
       </c>
       <c r="F30" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" t="s">
         <v>457</v>
-      </c>
-      <c r="G30" t="s">
-        <v>458</v>
       </c>
       <c r="H30" t="s">
         <v>203</v>
       </c>
       <c r="I30" t="s">
+        <v>458</v>
+      </c>
+      <c r="J30" t="s">
         <v>459</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>460</v>
-      </c>
-      <c r="K30" t="s">
-        <v>461</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -8291,13 +8279,13 @@
         <v>96</v>
       </c>
       <c r="X30" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y30" t="s">
         <v>463</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>464</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>465</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8321,7 +8309,7 @@
         <v>250</v>
       </c>
       <c r="AL30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM30" t="s">
         <v>135</v>
@@ -8339,7 +8327,7 @@
         <v>267</v>
       </c>
       <c r="AU30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AV30" t="s">
         <v>235</v>
@@ -8348,51 +8336,51 @@
         <v>112</v>
       </c>
       <c r="AX30" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY30" t="s">
         <v>467</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" t="s">
         <v>455</v>
-      </c>
-      <c r="D31" t="s">
-        <v>456</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
+        <v>456</v>
+      </c>
+      <c r="G31" t="s">
         <v>457</v>
-      </c>
-      <c r="G31" t="s">
-        <v>458</v>
       </c>
       <c r="H31" t="s">
         <v>203</v>
       </c>
       <c r="I31" t="s">
+        <v>458</v>
+      </c>
+      <c r="J31" t="s">
         <v>459</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>460</v>
-      </c>
-      <c r="K31" t="s">
-        <v>461</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8416,13 +8404,13 @@
         <v>96</v>
       </c>
       <c r="X31" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y31" t="s">
         <v>463</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>464</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>465</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8446,7 +8434,7 @@
         <v>250</v>
       </c>
       <c r="AL31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM31" t="s">
         <v>135</v>
@@ -8461,10 +8449,10 @@
         <v>171</v>
       </c>
       <c r="AR31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AU31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AV31" t="s">
         <v>235</v>
@@ -8473,30 +8461,30 @@
         <v>112</v>
       </c>
       <c r="AX31" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY31" t="s">
         <v>467</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" t="s">
         <v>470</v>
-      </c>
-      <c r="D32" t="s">
-        <v>471</v>
       </c>
       <c r="E32">
         <v>2010</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G32" t="s">
         <v>313</v>
@@ -8505,19 +8493,19 @@
         <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J32" t="s">
         <v>181</v>
       </c>
       <c r="K32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L32" t="s">
         <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
@@ -8544,10 +8532,10 @@
         <v>99</v>
       </c>
       <c r="Y32" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z32" t="s">
         <v>476</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>477</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8562,7 +8550,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH32" t="s">
         <v>168</v>
@@ -8571,7 +8559,7 @@
         <v>190</v>
       </c>
       <c r="AL32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM32" t="s">
         <v>135</v>
@@ -8589,10 +8577,10 @@
         <v>137</v>
       </c>
       <c r="AT32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AV32" t="s">
         <v>235</v>
@@ -8604,21 +8592,21 @@
         <v>112</v>
       </c>
       <c r="AY32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>482</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>483</v>
       </c>
       <c r="E33" s="16">
         <v>2012</v>
@@ -8627,25 +8615,25 @@
         <v>240</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="I33" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="J33" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="K33" s="16" t="s">
         <v>486</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>487</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>66</v>
@@ -8672,10 +8660,10 @@
         <v>99</v>
       </c>
       <c r="Y33" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z33" s="16" t="s">
         <v>489</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>490</v>
       </c>
       <c r="AA33" s="16">
         <v>2</v>
@@ -8696,13 +8684,10 @@
         <v>104</v>
       </c>
       <c r="AI33" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL33" s="16" t="s">
         <v>491</v>
-      </c>
-      <c r="AJ33" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL33" s="16" t="s">
-        <v>493</v>
       </c>
       <c r="AM33" s="16" t="s">
         <v>342</v>
@@ -8732,51 +8717,51 @@
         <v>139</v>
       </c>
       <c r="AX33" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY33" s="16" t="s">
         <v>467</v>
-      </c>
-      <c r="AY33" s="16" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E34" s="16">
         <v>2013</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>203</v>
       </c>
       <c r="I34" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>501</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>66</v>
@@ -8803,10 +8788,10 @@
         <v>99</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AA34" s="16">
         <v>2</v>
@@ -8827,10 +8812,10 @@
         <v>168</v>
       </c>
       <c r="AI34" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AL34" s="16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AM34" s="16" t="s">
         <v>135</v>
@@ -8839,69 +8824,69 @@
         <v>136</v>
       </c>
       <c r="AO34" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AQ34" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="AR34" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="AS34" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AU34" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="AQ34" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="AR34" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="AS34" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AU34" s="16" t="s">
-        <v>622</v>
-      </c>
       <c r="AV34" s="16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW34" s="16" t="s">
         <v>236</v>
       </c>
       <c r="AX34" s="16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E35" s="16">
         <v>2013</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>203</v>
       </c>
       <c r="I35" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>501</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N35" s="16" t="s">
         <v>66</v>
@@ -8928,10 +8913,10 @@
         <v>99</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AA35" s="16">
         <v>2</v>
@@ -8955,7 +8940,7 @@
         <v>212</v>
       </c>
       <c r="AL35" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AM35" s="16" t="s">
         <v>135</v>
@@ -8964,69 +8949,69 @@
         <v>136</v>
       </c>
       <c r="AO35" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AQ35" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="AR35" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="AS35" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AU35" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="AQ35" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="AR35" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="AS35" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AU35" s="16" t="s">
-        <v>622</v>
-      </c>
       <c r="AV35" s="16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW35" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AX35" s="16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E36" s="16">
         <v>2013</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>203</v>
       </c>
       <c r="I36" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>501</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N36" s="16" t="s">
         <v>66</v>
@@ -9053,10 +9038,10 @@
         <v>99</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AA36" s="16">
         <v>2</v>
@@ -9083,7 +9068,7 @@
         <v>170</v>
       </c>
       <c r="AO36" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AQ36" s="16" t="s">
         <v>171</v>
@@ -9092,10 +9077,10 @@
         <v>267</v>
       </c>
       <c r="AS36" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AU36" s="16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AV36" s="16" t="s">
         <v>346</v>
@@ -9104,48 +9089,48 @@
         <v>236</v>
       </c>
       <c r="AX36" s="16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E37" s="16">
         <v>2013</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>203</v>
       </c>
       <c r="I37" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="K37" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>501</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N37" s="16" t="s">
         <v>66</v>
@@ -9172,10 +9157,10 @@
         <v>99</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AA37" s="16">
         <v>2</v>
@@ -9202,7 +9187,7 @@
         <v>170</v>
       </c>
       <c r="AO37" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AQ37" s="16" t="s">
         <v>171</v>
@@ -9211,60 +9196,60 @@
         <v>267</v>
       </c>
       <c r="AS37" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AU37" s="16" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AV37" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AW37" s="16" t="s">
         <v>236</v>
       </c>
       <c r="AX37" s="16" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G38" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
       </c>
       <c r="I38" t="s">
+        <v>508</v>
+      </c>
+      <c r="J38" t="s">
+        <v>509</v>
+      </c>
+      <c r="K38" t="s">
         <v>510</v>
-      </c>
-      <c r="J38" t="s">
-        <v>511</v>
-      </c>
-      <c r="K38" t="s">
-        <v>512</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -9285,16 +9270,16 @@
         <v>127</v>
       </c>
       <c r="W38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X38" t="s">
         <v>99</v>
       </c>
       <c r="Y38" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Z38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9315,10 +9300,10 @@
         <v>104</v>
       </c>
       <c r="AI38" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AL38" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM38" t="s">
         <v>135</v>
@@ -9351,7 +9336,7 @@
         <v>112</v>
       </c>
       <c r="AY38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -9611,22 +9596,22 @@
         <v>69</v>
       </c>
       <c r="R3" t="s">
+        <v>516</v>
+      </c>
+      <c r="S3" t="s">
+        <v>517</v>
+      </c>
+      <c r="T3" t="s">
         <v>518</v>
       </c>
-      <c r="S3" t="s">
-        <v>519</v>
-      </c>
-      <c r="T3" t="s">
-        <v>520</v>
-      </c>
       <c r="U3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X3" t="s">
         <v>128</v>
@@ -9645,16 +9630,16 @@
         <v>302</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AK3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AV3" t="s">
         <v>111</v>
@@ -9668,22 +9653,22 @@
         <v>318</v>
       </c>
       <c r="R4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="S4" t="s">
         <v>186</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X4" t="s">
         <v>99</v>
@@ -9699,13 +9684,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -9714,7 +9699,7 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AW4" t="s">
         <v>139</v>
@@ -9722,7 +9707,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S5" t="s">
         <v>226</v>
@@ -9731,7 +9716,7 @@
         <v>299</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>299</v>
@@ -9760,7 +9745,7 @@
         <v>229</v>
       </c>
       <c r="AK5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM5" t="s">
         <v>135</v>
@@ -9769,10 +9754,10 @@
         <v>171</v>
       </c>
       <c r="AV5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AW5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AX5" s="8"/>
     </row>
@@ -9784,16 +9769,16 @@
         <v>125</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="X6" t="s">
         <v>163</v>
@@ -9812,7 +9797,7 @@
         <v>192</v>
       </c>
       <c r="AQ6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AV6" t="s">
         <v>326</v>
@@ -9823,35 +9808,35 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
+        <v>532</v>
+      </c>
+      <c r="S7" t="s">
+        <v>533</v>
+      </c>
+      <c r="T7" t="s">
         <v>534</v>
-      </c>
-      <c r="S7" t="s">
-        <v>535</v>
-      </c>
-      <c r="T7" t="s">
-        <v>536</v>
       </c>
       <c r="U7" t="s">
         <v>98</v>
       </c>
       <c r="V7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="X7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AH7" t="s">
         <v>168</v>
       </c>
       <c r="AK7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AM7" t="s">
         <v>107</v>
@@ -9860,21 +9845,21 @@
         <v>109</v>
       </c>
       <c r="AV7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="T8" t="s">
         <v>319</v>
       </c>
       <c r="U8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V8" t="s">
         <v>319</v>
@@ -9886,7 +9871,7 @@
         <v>300</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AH8" t="s">
         <v>132</v>
@@ -9895,7 +9880,7 @@
         <v>342</v>
       </c>
       <c r="AQ8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AV8" t="s">
         <v>173</v>
@@ -9906,7 +9891,7 @@
         <v>153</v>
       </c>
       <c r="S9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T9" t="s">
         <v>127</v>
@@ -9918,22 +9903,22 @@
         <v>127</v>
       </c>
       <c r="W9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM9" t="s">
         <v>544</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AV9" t="s">
         <v>545</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>546</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
@@ -9953,16 +9938,16 @@
         <v>227</v>
       </c>
       <c r="X10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AH10" t="s">
         <v>249</v>
       </c>
       <c r="AM10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AV10" t="s">
         <v>346</v>
@@ -9985,19 +9970,19 @@
         <v>337</v>
       </c>
       <c r="X11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AH11" t="s">
         <v>104</v>
       </c>
       <c r="AM11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AQ11" s="6" t="s">
         <v>171</v>
       </c>
       <c r="AR11" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AV11" t="s">
         <v>306</v>
@@ -10005,7 +9990,7 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T12" t="s">
         <v>187</v>
@@ -10020,7 +10005,7 @@
         <v>96</v>
       </c>
       <c r="X12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AH12" t="s">
         <v>347</v>
@@ -10029,15 +10014,15 @@
         <v>137</v>
       </c>
       <c r="AR12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AV12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="T13" t="s">
         <v>95</v>
@@ -10052,19 +10037,19 @@
         <v>210</v>
       </c>
       <c r="X13" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>558</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AR13" t="s">
         <v>559</v>
-      </c>
-      <c r="AM13" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>560</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>561</v>
       </c>
       <c r="AV13" t="s">
         <v>195</v>
@@ -10075,22 +10060,22 @@
         <v>94</v>
       </c>
       <c r="U14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W14" t="s">
         <v>246</v>
       </c>
       <c r="X14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AH14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AM14" s="6" t="s">
         <v>135</v>
       </c>
       <c r="AQ14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AR14" t="s">
         <v>267</v>
@@ -10107,36 +10092,36 @@
         <v>126</v>
       </c>
       <c r="W15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="X15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AH15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AM15" t="s">
         <v>170</v>
       </c>
       <c r="AQ15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AR15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AV15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W16" t="s">
         <v>126</v>
       </c>
       <c r="X16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AM16" t="s">
         <v>136</v>
@@ -10145,7 +10130,7 @@
         <v>267</v>
       </c>
       <c r="AR16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="34:48" x14ac:dyDescent="0.3">
@@ -10153,22 +10138,22 @@
         <v>214</v>
       </c>
       <c r="AQ17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="34:48" x14ac:dyDescent="0.3">
@@ -10179,13 +10164,13 @@
         <v>303</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>249</v>
@@ -10194,16 +10179,16 @@
         <v>104</v>
       </c>
       <c r="AO23" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP23" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AQ23" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AR23" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="34:48" x14ac:dyDescent="0.3">
@@ -10214,7 +10199,7 @@
         <v>190</v>
       </c>
       <c r="AK24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AM24" t="s">
         <v>250</v>
@@ -10223,18 +10208,18 @@
         <v>105</v>
       </c>
       <c r="AO24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AP24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AQ24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AJ25" t="s">
         <v>282</v>
@@ -10243,16 +10228,16 @@
         <v>133</v>
       </c>
       <c r="AN25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AO25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AP25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AQ25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="34:48" x14ac:dyDescent="0.3">
@@ -10263,15 +10248,15 @@
         <v>141</v>
       </c>
       <c r="AO26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AK27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AO27" t="s">
         <v>216</v>
@@ -10279,38 +10264,38 @@
     </row>
     <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AO28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="AR30" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="AQ30" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="AR30" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="AS30" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AT30" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="AU30" s="6" t="s">
         <v>267</v>
       </c>
       <c r="AV30" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="34:48" x14ac:dyDescent="0.3">
@@ -10318,7 +10303,7 @@
         <v>230</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AQ31" t="s">
         <v>324</v>
@@ -10327,42 +10312,42 @@
         <v>324</v>
       </c>
       <c r="AS31" t="s">
+        <v>586</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>587</v>
+      </c>
+      <c r="AU31" t="s">
         <v>588</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AV31" t="s">
         <v>589</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>590</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AI32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AQ32" t="s">
         <v>344</v>
       </c>
       <c r="AR32" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AT32" t="s">
         <v>594</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AU32" t="s">
         <v>595</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AV32" t="s">
         <v>596</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>597</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="33" spans="34:51" x14ac:dyDescent="0.3">
@@ -10370,56 +10355,56 @@
         <v>231</v>
       </c>
       <c r="AI33" t="s">
+        <v>597</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>598</v>
+      </c>
+      <c r="AT33" t="s">
         <v>599</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AU33" t="s">
         <v>600</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AV33" t="s">
         <v>601</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="34" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>603</v>
+      </c>
+      <c r="AU34" t="s">
         <v>604</v>
       </c>
-      <c r="AT34" t="s">
+      <c r="AV34" t="s">
         <v>605</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>606</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>607</v>
       </c>
       <c r="AY34" s="7"/>
     </row>
     <row r="35" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AT35" t="s">
+        <v>606</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>607</v>
+      </c>
+      <c r="AV35" t="s">
         <v>608</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>609</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="36" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AV36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="34:51" x14ac:dyDescent="0.3">
@@ -10634,22 +10619,22 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" t="s">
         <v>518</v>
       </c>
-      <c r="B3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C3" t="s">
-        <v>520</v>
-      </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G3" t="s">
         <v>128</v>
@@ -10668,13 +10653,13 @@
         <v>302</v>
       </c>
       <c r="Q3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R3" t="s">
         <v>230</v>
       </c>
       <c r="S3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V3" t="s">
         <v>135</v>
@@ -10686,7 +10671,7 @@
         <v>171</v>
       </c>
       <c r="AA3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AB3" t="s">
         <v>324</v>
@@ -10700,22 +10685,22 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G4" t="s">
         <v>99</v>
@@ -10731,10 +10716,10 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="W4" t="s">
         <v>136</v>
@@ -10743,7 +10728,7 @@
         <v>344</v>
       </c>
       <c r="AE4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF4" t="s">
         <v>139</v>
@@ -10751,7 +10736,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
         <v>226</v>
@@ -10760,7 +10745,7 @@
         <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>299</v>
@@ -10785,22 +10770,22 @@
         <v>167</v>
       </c>
       <c r="R5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="W5" t="s">
         <v>214</v>
       </c>
       <c r="AA5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AB5" t="s">
         <v>324</v>
       </c>
       <c r="AE5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -10811,16 +10796,16 @@
         <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G6" t="s">
         <v>163</v>
@@ -10836,7 +10821,7 @@
         <v>192</v>
       </c>
       <c r="AB6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AE6" t="s">
         <v>326</v>
@@ -10847,32 +10832,32 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" t="s">
         <v>534</v>
-      </c>
-      <c r="B7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C7" t="s">
-        <v>536</v>
       </c>
       <c r="D7" t="s">
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="R7" t="s">
         <v>190</v>
@@ -10881,27 +10866,27 @@
         <v>107</v>
       </c>
       <c r="AA7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AB7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AE7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C8" t="s">
         <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
         <v>319</v>
@@ -10913,7 +10898,7 @@
         <v>300</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R8" t="s">
         <v>282</v>
@@ -10922,7 +10907,7 @@
         <v>342</v>
       </c>
       <c r="AB8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AE8" t="s">
         <v>173</v>
@@ -10933,7 +10918,7 @@
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9" t="s">
         <v>127</v>
@@ -10945,25 +10930,25 @@
         <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R9" t="s">
         <v>212</v>
       </c>
       <c r="V9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AB9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AE9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -10983,19 +10968,19 @@
         <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="R10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="V10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AA10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AB10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AE10" t="s">
         <v>346</v>
@@ -11018,16 +11003,16 @@
         <v>337</v>
       </c>
       <c r="G11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="V11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AB11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AE11" t="s">
         <v>306</v>
@@ -11035,7 +11020,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C12" t="s">
         <v>187</v>
@@ -11050,24 +11035,24 @@
         <v>96</v>
       </c>
       <c r="G12" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="R12" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE12" t="s">
         <v>554</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="R12" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>601</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
@@ -11082,13 +11067,13 @@
         <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="R13" t="s">
         <v>133</v>
       </c>
       <c r="AB13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AE13" t="s">
         <v>195</v>
@@ -11099,19 +11084,19 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F14" t="s">
         <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R14" t="s">
         <v>141</v>
       </c>
       <c r="AB14" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AE14" t="s">
         <v>235</v>
@@ -11125,39 +11110,39 @@
         <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="R15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AA15" t="s">
         <v>267</v>
       </c>
       <c r="AB15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AE15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F16" t="s">
         <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AB16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="17:28" x14ac:dyDescent="0.3">
@@ -11168,7 +11153,7 @@
         <v>250</v>
       </c>
       <c r="AB17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="17:28" x14ac:dyDescent="0.3">
@@ -11176,90 +11161,90 @@
         <v>104</v>
       </c>
       <c r="R18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="S19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AB19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="T20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AA20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="T21" t="s">
         <v>216</v>
       </c>
       <c r="AA21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AB21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="T22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AB22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="R23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AB24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AB25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="17:28" x14ac:dyDescent="0.3">
@@ -11267,70 +11252,70 @@
         <v>216</v>
       </c>
       <c r="AA26" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AB27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
+        <v>557</v>
+      </c>
+      <c r="R28" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA28" t="s">
         <v>559</v>
-      </c>
-      <c r="R28" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AA29" t="s">
         <v>267</v>
       </c>
       <c r="AB29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="R30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AB30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AA31" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AA32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.3">
@@ -11340,7 +11325,7 @@
     </row>
     <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -11489,12 +11474,12 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF31313-CBA6-40CD-9077-19FE509F9EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288C3423-0C39-4886-8D53-8745D4D5F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$2</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="612">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -2645,33 +2645,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>SW4_0280</t>
-  </si>
-  <si>
-    <t>Galimany E., Marco-Herrero E., Soto S., Recasens L., Lombarte A., Lleonart J., Abelló P., Ramón M.</t>
-  </si>
-  <si>
-    <t>Benthic marine litter in shallow fishing grounds in the NW Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Waste Management</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>10.1016/j.wasman.2019.07.004</t>
-  </si>
-  <si>
-    <t>Fisheries are one of the main economic sectors affected by marine litter, which can damage gear, reduce catch, and require time to repair or clean nets. This study aims to evaluate the type and density of marine litter in two shallow fishing grounds in the NW Mediterranean Sea, both belonging to the Natura 2000 network. Moreover, it quantifies the fraction of marine litter within the total catch to help understand the potential influence of marine litter on fisheries. Two study areas were selected, one in the vicinity of urban populated areas and high navigational traffic and one in a rural site off an agricultural area. The urban area had more benthic marine litter (393 to 198 kg km-2) including clinker (residue from coal-burning steamships), fabric, plastics, and processed wood and accounting for up to 38% of the total catch. The rural area had far less marine litter (34–56 kg km-2), accounting for only 5% of the total catch. Marine litter may have potential negative effects on fisheries; thus we propose that government credit trading programs could be promoted to help recover litter from fishing catches, to reduce fishing costs and hazards to marine ecosystems. © 2019</t>
-  </si>
-  <si>
     <t>Mediterranean - non CS</t>
   </si>
   <si>
@@ -2690,15 +2663,6 @@
     <t>Irregular Fisheries Independent Survey</t>
   </si>
   <si>
-    <t>ANOVA _ Primer</t>
-  </si>
-  <si>
-    <t>The presence of marine litter within the catch had a southward latitudinal trend, being high in the northern areas but progressively decreasing in the southern ones.</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>Fisheries independent survey</t>
   </si>
   <si>
@@ -2708,9 +2672,6 @@
     <t>Benthic_infauna</t>
   </si>
   <si>
-    <t>Anthropogenic litter</t>
-  </si>
-  <si>
     <t>Input of litter</t>
   </si>
   <si>
@@ -2720,24 +2681,12 @@
     <t>Scientific</t>
   </si>
   <si>
-    <t>Density of marine litter in catch</t>
-  </si>
-  <si>
     <t>Abundance/biomass/density</t>
   </si>
   <si>
     <t>Multiple</t>
   </si>
   <si>
-    <t xml:space="preserve">Significant </t>
-  </si>
-  <si>
-    <t>In the analysis of the fraction of catch types (% density) in each area, significant differences were identified in all cases. The
-commercial catch showed a trend from north to south, with the lowest fraction in NVL
-213 (21%) and the highest in SED (61%). . In the analysis of mean density (kg
-km-2 205 ) of each catch category across the areas of study, the one-way ANOVA showed significant differences. revealed that NVL had the highest density of marine litter, followed by SVL, with both southern areas having the lowest value.</t>
-  </si>
-  <si>
     <t>SW4_0323</t>
   </si>
   <si>
@@ -2780,18 +2729,6 @@
     <t>Regular Fisheries Independent Survey</t>
   </si>
   <si>
-    <t>GAM</t>
-  </si>
-  <si>
-    <t>This longitudinal gradient in the species richness of chondrichthyans has been suggested by several authors. This confirms the known structural
-depletion of the demersal community in terms of diversity during the last few decades. From our results, the most frequent and abundant species
-all around the basin are S. canicula, G. melastomus and E. spinax among sharks and R. clavata and R. miraletus among batoids, partly confirming the findings of Bertrand et al. (2000) and other previous data present in literature for the western. To parameterize fishing pressure is a big issue, particularly
-in terms of spatial distribution and at a large scale (Russo et al. 2017). In fact, although a spatial index of fishing pressure was recently developed at a regional scale in the Mediterranean (Kavadas et al. 2015), the only maps of the geographical distribution of trawling fishing pressure along the whole basin were drawn up by Sbrana et al. (2013). The comparison between these maps and our results shows that the areas under higher fishing pressure, such as the Adriatic and
-the Spanish coast (with the exception of the Balearic Islands) show low abundance of chondrichthyans, but other areas with a high level of fishing pressure, such
-as southwestern Sicily, show a high abundance of these species. This finding suggests that other environmental drivers work together with fishing pressure to shape their distribution.
-their distribution.</t>
-  </si>
-  <si>
     <t>4.2</t>
   </si>
   <si>
@@ -2799,9 +2736,6 @@
   </si>
   <si>
     <t>Rays</t>
-  </si>
-  <si>
-    <t>Batoid rays _ skates</t>
   </si>
   <si>
     <t>Catch_and_bycatch</t>
@@ -2974,25 +2908,10 @@
     <t>Flatfish</t>
   </si>
   <si>
-    <t>Pleuronectes platessa</t>
-  </si>
-  <si>
     <t>Discarding</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Discard survival</t>
-  </si>
-  <si>
     <t>Survival</t>
-  </si>
-  <si>
-    <t>operational vessel characteristics</t>
-  </si>
-  <si>
-    <t>Strong</t>
   </si>
   <si>
     <t>SW4_0534</t>
@@ -3318,18 +3237,9 @@
     <t>Larus  audouinii</t>
   </si>
   <si>
-    <t>Foraging trip length</t>
-  </si>
-  <si>
     <t>Behaviour</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixed </t>
-  </si>
-  <si>
-    <t>Sexual dimorphism in behaviour</t>
-  </si>
-  <si>
     <t>SW4_2015</t>
   </si>
   <si>
@@ -3576,9 +3486,6 @@
     <t>Most demersal fish teleost and alsmobranch</t>
   </si>
   <si>
-    <t>Target &amp; non-target</t>
-  </si>
-  <si>
     <t>trophic level</t>
   </si>
   <si>
@@ -3945,9 +3852,6 @@
     <t>PERMANOVA _ PRIMER</t>
   </si>
   <si>
-    <t>Benthic_epifauna_infauna</t>
-  </si>
-  <si>
     <t>trait based benthic communities</t>
   </si>
   <si>
@@ -4288,6 +4192,42 @@
   </si>
   <si>
     <t>For Coris julis but not Serranus cabrilla there wasan overall effect of protection on size composition. For terminal phase males of C.julis larger individuals tended to be observed inside the reserve.</t>
+  </si>
+  <si>
+    <t>Foraging behaviour</t>
+  </si>
+  <si>
+    <t>Sexual dimorphism in behaviour: Females were highly consistent in that they foraged at sea throughout the week even though discarding stops at weekends. In contrast, males switched from foraging at sea during the week (when discards are produced) to an increased use of rice field habitats at weekends (when fishermen do not work). This sex-specific foraging behavior couldbe related to specific nutritional requirements associated with previous egg pro-duction, an energetically demanding period for females. However, on a broadertime scale integrated by the SIA, both sexes showed a high degree of individualspecialization in their trophic ecology.</t>
+  </si>
+  <si>
+    <t>SW4_0280</t>
+  </si>
+  <si>
+    <t>Galimany E., Marco-Herrero E., Soto S., Recasens L., Lombarte A., Lleonart J., Abelló P., Ramón M.</t>
+  </si>
+  <si>
+    <t>Benthic marine litter in shallow fishing grounds in the NW Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>10.1016/j.wasman.2019.07.004</t>
+  </si>
+  <si>
+    <t>Fisheries are one of the main economic sectors affected by marine litter, which can damage gear, reduce catch, and require time to repair or clean nets. This study aims to evaluate the type and density of marine litter in two shallow fishing grounds in the NW Mediterranean Sea, both belonging to the Natura 2000 network. Moreover, it quantifies the fraction of marine litter within the total catch to help understand the potential influence of marine litter on fisheries. Two study areas were selected, one in the vicinity of urban populated areas and high navigational traffic and one in a rural site off an agricultural area. The urban area had more benthic marine litter (393 to 198 kg km-2) including clinker (residue from coal-burning steamships), fabric, plastics, and processed wood and accounting for up to 38% of the total catch. The rural area had far less marine litter (34–56 kg km-2), accounting for only 5% of the total catch. Marine litter may have potential negative effects on fisheries; thus we propose that government credit trading programs could be promoted to help recover litter from fishing catches, to reduce fishing costs and hazards to marine ecosystems. © 2019</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
@@ -4413,7 +4353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4462,6 +4402,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4749,29 +4690,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1755" topLeftCell="A5" activePane="bottomLeft"/>
-      <selection activeCell="AB2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="AJ24" sqref="AJ24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1460" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="AY5" sqref="AY5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.5546875" customWidth="1"/>
-    <col min="34" max="35" width="17.5546875" customWidth="1"/>
-    <col min="36" max="36" width="18.5546875" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.5546875" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.5546875" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.54296875" customWidth="1"/>
+    <col min="34" max="35" width="17.54296875" customWidth="1"/>
+    <col min="36" max="36" width="18.54296875" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.54296875" customWidth="1"/>
+    <col min="39" max="39" width="14.453125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.54296875" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4837,7 +4778,7 @@
       <c r="AW1" s="18"/>
       <c r="AX1" s="18"/>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +4930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +4989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
@@ -5107,143 +5048,77 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:51" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="C5" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E5" s="24">
         <v>2019</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="I5" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X5" s="14" t="s">
+      <c r="R5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI5" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV5" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY5" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E6" s="11">
         <v>2019</v>
@@ -5252,25 +5127,25 @@
         <v>76</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>66</v>
@@ -5279,299 +5154,231 @@
         <v>67</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD6" s="13"/>
       <c r="AF6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV6" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E7" s="11">
         <v>2019</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>67</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="R7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD7" s="12"/>
       <c r="AF7" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI7" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM7" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E8" s="11">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="AD8" s="12"/>
-      <c r="AF8" s="11" t="s">
-        <v>84</v>
+      <c r="AU8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY8" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E9" s="11">
         <v>2017</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>63</v>
@@ -5580,46 +5387,46 @@
         <v>63</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AA9" s="11">
         <v>2</v>
@@ -5631,215 +5438,148 @@
         <v>2</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AQ9" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AU9" s="11" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="AV9" s="11" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="AW9" s="11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="AX9" s="11" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AY9" s="11" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E10" s="11">
         <v>2017</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="R10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD10" s="13"/>
       <c r="AF10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV10" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AW10" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX10"/>
+    </row>
+    <row r="11" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="AY10" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" s="11">
         <v>2017</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>66</v>
@@ -5848,250 +5588,248 @@
         <v>67</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="V11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="U11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="AA11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="13"/>
       <c r="AF11" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="AH11" s="11" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AI11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN11" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="AL11" s="11" t="s">
+      <c r="AO11" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AM11" s="11" t="s">
+      <c r="AQ11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX11" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU11" s="11" t="s">
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="AV11" s="11" t="s">
+      <c r="D12" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="AW11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>140</v>
+      <c r="E12" s="14">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="15"/>
+      <c r="AF12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI12" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL12" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO12" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR12" s="11"/>
+      <c r="AU12" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV12" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW12" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX12" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2017</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="13"/>
-      <c r="AF12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E13" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>66</v>
@@ -6100,31 +5838,34 @@
         <v>67</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>163</v>
+        <v>90</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AA13" s="11">
         <v>2</v>
@@ -6135,219 +5876,228 @@
       <c r="AC13" s="11">
         <v>3</v>
       </c>
-      <c r="AD13" s="13"/>
+      <c r="AD13" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="AF13" s="11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="AI13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO13" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU13" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV13" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW13" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="AL13" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV13" s="11" t="s">
+      <c r="AX13" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AW13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>216</v>
+      <c r="W14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL14" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN14" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO14" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU14" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY14" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="15"/>
-      <c r="AF14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH14" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI14" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ14" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM14" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN14" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO14" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ14" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR14" s="11"/>
-      <c r="AU14" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV14" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW14" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX14" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E15" s="11">
         <v>2016</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>63</v>
@@ -6356,641 +6106,623 @@
         <v>69</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="V15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AW15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX15" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY15" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E16" s="11">
         <v>2016</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO16" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AA16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="13" t="s">
+      <c r="AQ16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU16" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX16" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY16" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="AF16" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH16" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ16" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR16" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AU16" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV16" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW16" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX16" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AY16" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="W17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AV17" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="11">
+      <c r="AX17" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18">
+        <v>2010</v>
+      </c>
+      <c r="F18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>291</v>
+      </c>
+      <c r="S18" t="s">
+        <v>109</v>
+      </c>
+      <c r="T18" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="s">
+        <v>292</v>
+      </c>
+      <c r="W18" t="s">
+        <v>203</v>
+      </c>
+      <c r="X18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA18">
         <v>2</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV17" s="11" t="s">
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>296</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19">
+        <v>1996</v>
+      </c>
+      <c r="F19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J19" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" t="s">
+        <v>308</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>309</v>
+      </c>
+      <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" t="s">
+        <v>202</v>
+      </c>
+      <c r="T19" t="s">
         <v>111</v>
       </c>
-      <c r="AW17" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY17" s="11" t="s">
-        <v>286</v>
+      <c r="U19" t="s">
+        <v>222</v>
+      </c>
+      <c r="V19" t="s">
+        <v>275</v>
+      </c>
+      <c r="W19" t="s">
+        <v>310</v>
+      </c>
+      <c r="X19" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AF19">
+        <v>4.3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH18" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN18" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO18" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU18" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW18" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX18" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY18" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="X19" s="11" t="s">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>300</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="AG19" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH19" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO19" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX19" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AY19" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>309</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E20">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G20" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J20" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L20" t="s">
         <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
@@ -6998,32 +6730,29 @@
       <c r="O20" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" t="s">
-        <v>318</v>
-      </c>
       <c r="S20" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="T20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="U20" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="V20" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="W20" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="X20" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="Y20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Z20" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7035,84 +6764,84 @@
         <v>3</v>
       </c>
       <c r="AF20">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG20" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AH20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV20" t="s">
         <v>322</v>
       </c>
-      <c r="AM20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO20" t="s">
+      <c r="AW20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>323</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>325</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>327</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21">
+        <v>1999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="s">
         <v>328</v>
       </c>
-      <c r="D21" t="s">
+      <c r="J21" t="s">
         <v>329</v>
       </c>
-      <c r="E21">
-        <v>1996</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="K21" t="s">
         <v>330</v>
-      </c>
-      <c r="G21" t="s">
-        <v>331</v>
-      </c>
-      <c r="H21" t="s">
-        <v>332</v>
-      </c>
-      <c r="I21" t="s">
-        <v>333</v>
-      </c>
-      <c r="J21" t="s">
-        <v>334</v>
-      </c>
-      <c r="K21" t="s">
-        <v>335</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N21" t="s">
         <v>66</v>
@@ -7121,28 +6850,25 @@
         <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="T21" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="U21" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="V21" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="W21" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="X21" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>339</v>
+        <v>90</v>
       </c>
       <c r="Z21" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7157,117 +6883,123 @@
         <v>4.3</v>
       </c>
       <c r="AG21" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AH21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AM21" t="s">
-        <v>342</v>
+        <v>315</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>117</v>
       </c>
       <c r="AO21" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ21" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR21" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AT21" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="AU21" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AV21" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="AW21" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="AX21" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E22">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="I22" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J22" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K22" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L22" t="s">
         <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>345</v>
+      </c>
+      <c r="P22" t="s">
+        <v>184</v>
       </c>
       <c r="S22" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="U22" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="V22" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="W22" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="X22" t="s">
-        <v>338</v>
+        <v>90</v>
       </c>
       <c r="Y22" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Z22" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7282,81 +7014,90 @@
         <v>4.3</v>
       </c>
       <c r="AG22" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AH22" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>93</v>
       </c>
       <c r="AK22" t="s">
-        <v>216</v>
+        <v>349</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>350</v>
       </c>
       <c r="AM22" t="s">
-        <v>342</v>
+        <v>315</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>117</v>
       </c>
       <c r="AO22" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ22" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR22" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AT22" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="AU22" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="AV22" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AW22" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="AX22" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E23">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N23" t="s">
         <v>66</v>
@@ -7364,255 +7105,249 @@
       <c r="O23" t="s">
         <v>67</v>
       </c>
+      <c r="P23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>69</v>
+      </c>
       <c r="S23" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="T23" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="U23" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="V23" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="W23" t="s">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="X23" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>361</v>
       </c>
       <c r="Z23" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AA23">
         <v>2</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC23">
         <v>3</v>
       </c>
       <c r="AF23">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG23" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AI23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM23" t="s">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="AN23" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AO23" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="AQ23" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
       <c r="AU23" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AV23" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="AW23" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="AX23" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D24" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E24">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="G24" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="H24" t="s">
-        <v>293</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J24" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K24" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
       </c>
       <c r="O24" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>63</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>69</v>
       </c>
       <c r="S24" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="T24" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="V24" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="W24" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
       <c r="X24" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Y24" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="Z24" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AA24">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24">
         <v>3</v>
       </c>
       <c r="AF24">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG24" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AI24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="AM24" t="s">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="AN24" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AO24" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="AQ24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="AU24" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="AV24" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="AW24" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="AX24" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D25" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E25">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F25" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G25" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="I25" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="J25" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="K25" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="L25" t="s">
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -7627,117 +7362,120 @@
         <v>69</v>
       </c>
       <c r="S25" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="T25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="V25" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="W25" t="s">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="X25" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Y25" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Z25" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AA25">
         <v>2</v>
       </c>
       <c r="AB25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF25">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG25" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="AI25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AM25" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN25" t="s">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="AO25" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="AQ25" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AU25" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AV25" t="s">
-        <v>393</v>
+        <v>119</v>
       </c>
       <c r="AW25" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AX25" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E26">
         <v>2004</v>
       </c>
       <c r="F26" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="I26" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J26" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="K26" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7746,34 +7484,34 @@
         <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="Q26" t="s">
         <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="T26" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="U26" t="s">
-        <v>403</v>
+        <v>89</v>
       </c>
       <c r="V26" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="W26" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="X26" t="s">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="Y26" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Z26" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7782,90 +7520,93 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG26" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="AH26" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s">
-        <v>250</v>
+        <v>93</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>349</v>
       </c>
       <c r="AL26" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AM26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="AO26" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ26" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>297</v>
       </c>
       <c r="AU26" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="AV26" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="AW26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AX26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E27">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>399</v>
       </c>
       <c r="G27" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="I27" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J27" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="K27" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7874,34 +7615,34 @@
         <v>67</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="Q27" t="s">
         <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="T27" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="U27" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="V27" t="s">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="W27" t="s">
-        <v>418</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="Y27" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="Z27" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7916,87 +7657,87 @@
         <v>4.3</v>
       </c>
       <c r="AG27" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AH27" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="AL27" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AM27" t="s">
-        <v>342</v>
+        <v>315</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>409</v>
       </c>
       <c r="AO27" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ27" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="AU27" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="AV27" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="AW27" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="AX27" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E28">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F28" t="s">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H28" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="J28" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K28" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
@@ -8004,35 +7745,29 @@
       <c r="O28" t="s">
         <v>67</v>
       </c>
-      <c r="P28" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>69</v>
-      </c>
       <c r="S28" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="T28" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="U28" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="V28" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="W28" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="X28" t="s">
-        <v>433</v>
+        <v>144</v>
       </c>
       <c r="Y28" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="Z28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8047,87 +7782,90 @@
         <v>4.3</v>
       </c>
       <c r="AG28" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="AH28" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="AL28" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="AM28" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="AN28" t="s">
-        <v>437</v>
+        <v>117</v>
       </c>
       <c r="AO28" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ28" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR28" t="s">
-        <v>137</v>
+        <v>118</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>317</v>
       </c>
       <c r="AU28" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="AV28" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="AW28" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="AX28" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E29">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="G29" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="H29" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J29" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K29" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="L29" t="s">
         <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -8136,126 +7874,123 @@
         <v>67</v>
       </c>
       <c r="S29" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="T29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U29" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="V29" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="W29" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
       <c r="X29" t="s">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="Y29" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="Z29" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="AA29">
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG29" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="AI29" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="AM29" t="s">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="AN29" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ29" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="AU29" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="AV29" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="AW29" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AX29" t="s">
-        <v>452</v>
+        <v>438</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="D30" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="E30">
         <v>2010</v>
       </c>
       <c r="F30" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="G30" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="I30" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="J30" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="K30" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -8264,28 +7999,28 @@
         <v>67</v>
       </c>
       <c r="S30" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T30" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="V30" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="X30" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="Y30" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="Z30" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8300,87 +8035,87 @@
         <v>4.2</v>
       </c>
       <c r="AG30" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AI30" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="AL30" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="AM30" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN30" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AO30" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ30" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR30" t="s">
-        <v>267</v>
+        <v>524</v>
       </c>
       <c r="AU30" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AV30" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AW30" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AX30" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="AY30" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D31" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G31" t="s">
-        <v>457</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="J31" t="s">
-        <v>459</v>
+        <v>162</v>
       </c>
       <c r="K31" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8389,251 +8124,254 @@
         <v>67</v>
       </c>
       <c r="S31" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="T31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="V31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="W31" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>462</v>
+        <v>90</v>
       </c>
       <c r="Y31" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="Z31" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AA31">
         <v>2</v>
       </c>
       <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AF31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>450</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2012</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="16">
         <v>1</v>
       </c>
-      <c r="AC31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>4.2</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>406</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>343</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>553</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>465</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>466</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>467</v>
+      <c r="AC32" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL32" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM32" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO32" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ32" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR32" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT32" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU32" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV32" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW32" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX32" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="AY32" s="16" t="s">
+        <v>439</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>468</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>469</v>
-      </c>
-      <c r="D32" t="s">
-        <v>470</v>
-      </c>
-      <c r="E32">
-        <v>2010</v>
-      </c>
-      <c r="F32" t="s">
-        <v>471</v>
-      </c>
-      <c r="G32" t="s">
-        <v>313</v>
-      </c>
-      <c r="H32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" t="s">
-        <v>472</v>
-      </c>
-      <c r="J32" t="s">
-        <v>181</v>
-      </c>
-      <c r="K32" t="s">
-        <v>473</v>
-      </c>
-      <c r="L32" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" t="s">
-        <v>474</v>
-      </c>
-      <c r="N32" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" t="s">
-        <v>67</v>
-      </c>
-      <c r="S32" t="s">
-        <v>186</v>
-      </c>
-      <c r="T32" t="s">
-        <v>95</v>
-      </c>
-      <c r="U32" t="s">
-        <v>126</v>
-      </c>
-      <c r="V32" t="s">
-        <v>95</v>
-      </c>
-      <c r="W32" t="s">
-        <v>96</v>
-      </c>
-      <c r="X32" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA32">
-        <v>2</v>
-      </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <v>2</v>
-      </c>
-      <c r="AF32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>477</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>478</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>343</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>407</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E33" s="16">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>66</v>
@@ -8642,28 +8380,28 @@
         <v>67</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>488</v>
+        <v>594</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AA33" s="16">
         <v>2</v>
@@ -8678,90 +8416,87 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG33" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="AL33" s="16" t="s">
-        <v>491</v>
+        <v>588</v>
       </c>
       <c r="AM33" s="16" t="s">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="AN33" s="16" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AO33" s="16" t="s">
-        <v>343</v>
+        <v>589</v>
       </c>
       <c r="AQ33" s="16" t="s">
-        <v>171</v>
+        <v>502</v>
       </c>
       <c r="AR33" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT33" s="16" t="s">
-        <v>324</v>
+        <v>524</v>
+      </c>
+      <c r="AS33" s="16" t="s">
+        <v>581</v>
       </c>
       <c r="AU33" s="16" t="s">
-        <v>345</v>
+        <v>591</v>
       </c>
       <c r="AV33" s="16" t="s">
-        <v>346</v>
+        <v>495</v>
       </c>
       <c r="AW33" s="16" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="AX33" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="AY33" s="16" t="s">
-        <v>467</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="E34" s="16">
         <v>2013</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>66</v>
@@ -8770,28 +8505,28 @@
         <v>67</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V34" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="X34" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="AA34" s="16">
         <v>2</v>
@@ -8806,87 +8541,87 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG34" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH34" s="16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AI34" s="16" t="s">
-        <v>580</v>
+        <v>188</v>
       </c>
       <c r="AL34" s="16" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="AM34" s="16" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN34" s="16" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AO34" s="16" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="AQ34" s="16" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="AR34" s="16" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="AS34" s="16" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="AU34" s="16" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="AV34" s="16" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="AW34" s="16" t="s">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="AX34" s="16" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="E35" s="16">
         <v>2013</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="N35" s="16" t="s">
         <v>66</v>
@@ -8895,28 +8630,28 @@
         <v>67</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T35" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="AA35" s="16">
         <v>2</v>
@@ -8931,87 +8666,81 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG35" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH35" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI35" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM35" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN35" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO35" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ35" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR35" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS35" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU35" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="AV35" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW35" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="AL35" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM35" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN35" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO35" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="AQ35" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="AR35" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="AS35" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="AU35" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="AV35" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="AW35" s="16" t="s">
-        <v>362</v>
-      </c>
       <c r="AX35" s="16" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="E36" s="16">
         <v>2013</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="N36" s="16" t="s">
         <v>66</v>
@@ -9020,28 +8749,28 @@
         <v>67</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="AA36" s="16">
         <v>2</v>
@@ -9056,200 +8785,209 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG36" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH36" s="16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AM36" s="16" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN36" s="16" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AO36" s="16" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="AQ36" s="16" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR36" s="16" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="AS36" s="16" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="AU36" s="16" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="AV36" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="AW36" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX36" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D37" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37">
+        <v>2015</v>
+      </c>
+      <c r="F37" t="s">
+        <v>478</v>
+      </c>
+      <c r="G37" t="s">
+        <v>479</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>480</v>
+      </c>
+      <c r="J37" t="s">
+        <v>481</v>
+      </c>
+      <c r="K37" t="s">
+        <v>482</v>
+      </c>
+      <c r="L37" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" t="s">
+        <v>483</v>
+      </c>
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" t="s">
+        <v>109</v>
+      </c>
+      <c r="T37" t="s">
+        <v>86</v>
+      </c>
+      <c r="U37" t="s">
+        <v>222</v>
+      </c>
+      <c r="V37" t="s">
+        <v>111</v>
+      </c>
+      <c r="W37" t="s">
         <v>346</v>
       </c>
-      <c r="AW36" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX36" s="16" t="s">
-        <v>626</v>
+      <c r="X37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+      <c r="AF37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>439</v>
       </c>
     </row>
-    <row r="37" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="E37" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA37" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB37" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="16">
-        <v>2</v>
-      </c>
-      <c r="AF37" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG37" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH37" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM37" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN37" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO37" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="AQ37" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR37" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS37" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="AU37" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="AV37" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="AW37" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX37" s="16" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="G38" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="J38" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="K38" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -9258,28 +8996,28 @@
         <v>67</v>
       </c>
       <c r="S38" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="T38" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="V38" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="W38" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="Z38" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9294,49 +9032,49 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="AL38" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="AM38" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN38" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AO38" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AQ38" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AR38" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AT38" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="AU38" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AV38" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="AW38" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AX38" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AY38" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -9359,21 +9097,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AW4" sqref="AW4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" customWidth="1"/>
-    <col min="33" max="33" width="26.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" customWidth="1"/>
+    <col min="33" max="33" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9439,7 +9177,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -9591,30 +9329,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>69</v>
       </c>
       <c r="R3" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="S3" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="T3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="U3" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="V3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="W3" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="X3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -9627,51 +9365,51 @@
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="4" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="AK3" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="AV3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AW3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="R4" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="S4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="W4" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="X4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -9684,13 +9422,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -9699,33 +9437,33 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="AW4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="S5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="AA5">
@@ -9739,678 +9477,678 @@
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="AH5" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AK5" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="AM5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AQ5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AV5" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="AW5" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>70</v>
       </c>
       <c r="S6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="X6" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AK6" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AM6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AQ6" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="AV6" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="AW6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="S7" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="T7" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="U7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V7" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="X7" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="AH7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AK7" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="AM7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AQ7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AV7" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="S8" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="T8" t="s">
+        <v>292</v>
+      </c>
+      <c r="U8" t="s">
+        <v>375</v>
+      </c>
+      <c r="V8" t="s">
+        <v>292</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" t="s">
+        <v>512</v>
+      </c>
+      <c r="T9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U9" t="s">
+        <v>203</v>
+      </c>
+      <c r="V9" t="s">
+        <v>111</v>
+      </c>
+      <c r="W9" t="s">
+        <v>375</v>
+      </c>
+      <c r="X9" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>515</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>238</v>
+      </c>
+      <c r="T10" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" t="s">
+        <v>310</v>
+      </c>
+      <c r="V10" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10" t="s">
+        <v>203</v>
+      </c>
+      <c r="X10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="AV10" t="s">
         <v>319</v>
       </c>
-      <c r="U8" t="s">
-        <v>403</v>
-      </c>
-      <c r="V8" t="s">
-        <v>319</v>
-      </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>537</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="R9" t="s">
-        <v>153</v>
-      </c>
-      <c r="S9" t="s">
-        <v>541</v>
-      </c>
-      <c r="T9" t="s">
-        <v>127</v>
-      </c>
-      <c r="U9" t="s">
-        <v>227</v>
-      </c>
-      <c r="V9" t="s">
-        <v>127</v>
-      </c>
-      <c r="W9" t="s">
-        <v>403</v>
-      </c>
-      <c r="X9" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>543</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>544</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S10" t="s">
-        <v>262</v>
-      </c>
-      <c r="T10" t="s">
-        <v>162</v>
-      </c>
-      <c r="U10" t="s">
-        <v>337</v>
-      </c>
-      <c r="V10" t="s">
-        <v>162</v>
-      </c>
-      <c r="W10" t="s">
-        <v>227</v>
-      </c>
-      <c r="X10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>249</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>547</v>
-      </c>
-      <c r="AQ10" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="X11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>522</v>
+      </c>
+      <c r="T12" t="s">
+        <v>168</v>
+      </c>
+      <c r="U12" t="s">
+        <v>186</v>
+      </c>
+      <c r="V12" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>524</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>526</v>
+      </c>
+      <c r="T13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" t="s">
+        <v>222</v>
+      </c>
+      <c r="V13" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" t="s">
+        <v>186</v>
+      </c>
+      <c r="X13" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>529</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>530</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" t="s">
+        <v>531</v>
+      </c>
+      <c r="W14" t="s">
+        <v>222</v>
+      </c>
+      <c r="X14" t="s">
+        <v>405</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>533</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>185</v>
+      </c>
+      <c r="U15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W15" t="s">
+        <v>531</v>
+      </c>
+      <c r="X15" t="s">
+        <v>534</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>474</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>535</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>536</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>537</v>
+      </c>
+      <c r="W16" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AM17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AQ18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AQ19" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH22" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="AR23" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>349</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>544</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH25" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>462</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>547</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AJ26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AJ27" t="s">
         <v>549</v>
       </c>
-      <c r="AH11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AK27" t="s">
         <v>550</v>
       </c>
-      <c r="AQ11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>306</v>
+      <c r="AO27" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S12" t="s">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AJ28" t="s">
         <v>551</v>
       </c>
-      <c r="T12" t="s">
-        <v>187</v>
-      </c>
-      <c r="U12" t="s">
-        <v>210</v>
-      </c>
-      <c r="V12" t="s">
-        <v>187</v>
-      </c>
-      <c r="W12" t="s">
-        <v>96</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="AO28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AQ29" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="AH12" t="s">
-        <v>347</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR12" t="s">
+    </row>
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH30" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AR30" s="6" t="s">
         <v>554</v>
       </c>
+      <c r="AS30" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV30" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S13" t="s">
-        <v>555</v>
-      </c>
-      <c r="T13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" t="s">
-        <v>246</v>
-      </c>
-      <c r="V13" t="s">
-        <v>95</v>
-      </c>
-      <c r="W13" t="s">
-        <v>210</v>
-      </c>
-      <c r="X13" t="s">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH31" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI31" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AQ31" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS31" t="s">
         <v>557</v>
       </c>
-      <c r="AM13" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AT31" t="s">
         <v>558</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AU31" t="s">
         <v>559</v>
       </c>
-      <c r="AV13" t="s">
-        <v>195</v>
+      <c r="AV31" t="s">
+        <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S14" t="s">
-        <v>94</v>
-      </c>
-      <c r="U14" t="s">
-        <v>560</v>
-      </c>
-      <c r="W14" t="s">
-        <v>246</v>
-      </c>
-      <c r="X14" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH14" t="s">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH32" t="s">
         <v>561</v>
       </c>
-      <c r="AM14" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ14" t="s">
+      <c r="AI32" t="s">
         <v>562</v>
       </c>
-      <c r="AR14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>235</v>
+      <c r="AQ32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>563</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>564</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>565</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>566</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>567</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S15" t="s">
-        <v>209</v>
-      </c>
-      <c r="U15" t="s">
-        <v>126</v>
-      </c>
-      <c r="W15" t="s">
-        <v>560</v>
-      </c>
-      <c r="X15" t="s">
-        <v>563</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>564</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>565</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>542</v>
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+      <c r="AH33" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>568</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>569</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>570</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>571</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S16" t="s">
-        <v>566</v>
-      </c>
-      <c r="W16" t="s">
-        <v>126</v>
-      </c>
-      <c r="X16" t="s">
-        <v>542</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AM17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AQ18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AQ19" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH22" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH23" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="AL23" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO23" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>572</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>376</v>
-      </c>
-      <c r="AP24" t="s">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+      <c r="AI34" t="s">
         <v>573</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AT34" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH25" t="s">
+      <c r="AU34" t="s">
         <v>575</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>523</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AV34" t="s">
         <v>576</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AJ26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AJ27" t="s">
-        <v>578</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>579</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AJ28" t="s">
-        <v>580</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AQ29" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH30" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="AR30" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="AS30" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH31" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI31" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>324</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>586</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>587</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>588</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH32" t="s">
-        <v>590</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>591</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>344</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>592</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>593</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>595</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
-      <c r="AH33" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>597</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>598</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>599</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>600</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
-      <c r="AI34" t="s">
-        <v>602</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>603</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>604</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>605</v>
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="AT35" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="AU35" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="AV35" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="AV36" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10434,42 +10172,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" customWidth="1"/>
-    <col min="31" max="31" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -10516,7 +10254,7 @@
       <c r="AF1" s="18"/>
       <c r="AG1" s="18"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -10617,27 +10355,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -10650,60 +10388,60 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="Q3" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="R3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="S3" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="V3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="W3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Z3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AA3" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="AB3" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -10716,45 +10454,45 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="S4" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="W4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="AE4" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="AF4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -10767,565 +10505,565 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="W5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="AB5" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="AE5" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="AF5" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="V6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AB6" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="AE6" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="AF6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="G7" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="Q7" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="R7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="V7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="AB7" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="AE7" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>276</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="R8" t="s">
+        <v>258</v>
+      </c>
+      <c r="V8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>564</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" t="s">
+        <v>434</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="R9" t="s">
+        <v>188</v>
+      </c>
+      <c r="V9" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" t="s">
+        <v>517</v>
+      </c>
+      <c r="R10" t="s">
+        <v>549</v>
+      </c>
+      <c r="V10" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>558</v>
+      </c>
+      <c r="AE10" t="s">
         <v>319</v>
       </c>
-      <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E8" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>300</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="R8" t="s">
-        <v>282</v>
-      </c>
-      <c r="V8" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>593</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" t="s">
-        <v>403</v>
-      </c>
-      <c r="G9" t="s">
-        <v>462</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="R9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V9" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>598</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" t="s">
-        <v>546</v>
-      </c>
-      <c r="R10" t="s">
-        <v>578</v>
-      </c>
-      <c r="V10" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>564</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>587</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>520</v>
+      </c>
+      <c r="R11" t="s">
+        <v>551</v>
+      </c>
+      <c r="V11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="R12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
+        <v>527</v>
+      </c>
+      <c r="R13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" t="s">
+        <v>405</v>
+      </c>
+      <c r="R14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>531</v>
+      </c>
+      <c r="G15" t="s">
+        <v>534</v>
+      </c>
+      <c r="R15" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>537</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>225</v>
+      </c>
+      <c r="R17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" t="s">
+        <v>585</v>
+      </c>
+      <c r="T18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>556</v>
+      </c>
+      <c r="S19" t="s">
+        <v>562</v>
+      </c>
+      <c r="T19" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>568</v>
+      </c>
+      <c r="T20" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>586</v>
+      </c>
+      <c r="T21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="S22" t="s">
+        <v>513</v>
+      </c>
+      <c r="T22" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q23" t="s">
+        <v>541</v>
+      </c>
+      <c r="R23" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R25" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R27" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q28" t="s">
+        <v>528</v>
+      </c>
+      <c r="R28" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R29" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q30" t="s">
+        <v>532</v>
+      </c>
+      <c r="R30" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q32" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+      <c r="Z33" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G11" t="s">
-        <v>549</v>
-      </c>
-      <c r="R11" t="s">
-        <v>580</v>
-      </c>
-      <c r="V11" t="s">
-        <v>550</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>306</v>
-      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>551</v>
-      </c>
-      <c r="C12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="R12" t="s">
-        <v>572</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>599</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>555</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" t="s">
-        <v>556</v>
-      </c>
-      <c r="R13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>603</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>560</v>
-      </c>
-      <c r="F14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" t="s">
-        <v>433</v>
-      </c>
-      <c r="R14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>606</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G15" t="s">
-        <v>563</v>
-      </c>
-      <c r="R15" t="s">
-        <v>579</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>588</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>566</v>
-      </c>
-      <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q17" t="s">
-        <v>249</v>
-      </c>
-      <c r="R17" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q18" t="s">
-        <v>104</v>
-      </c>
-      <c r="R18" t="s">
-        <v>614</v>
-      </c>
-      <c r="T18" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R19" t="s">
-        <v>585</v>
-      </c>
-      <c r="S19" t="s">
-        <v>591</v>
-      </c>
-      <c r="T19" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="S20" t="s">
-        <v>597</v>
-      </c>
-      <c r="T20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="S21" t="s">
-        <v>615</v>
-      </c>
-      <c r="T21" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="S22" t="s">
-        <v>542</v>
-      </c>
-      <c r="T22" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q23" t="s">
-        <v>570</v>
-      </c>
-      <c r="R23" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R24" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R25" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R27" t="s">
-        <v>537</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q28" t="s">
-        <v>557</v>
-      </c>
-      <c r="R28" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R29" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q30" t="s">
-        <v>561</v>
-      </c>
-      <c r="R30" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R31" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q32" t="s">
-        <v>571</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
-      <c r="Z33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -11343,12 +11081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11357,7 +11089,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11471,22 +11203,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -11494,7 +11217,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11508,4 +11231,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288C3423-0C39-4886-8D53-8745D4D5F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1AD407-A26D-459F-8120-357F74D031B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$39</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="613">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -4228,6 +4228,9 @@
   </si>
   <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
   </si>
 </sst>
 </file>
@@ -4381,6 +4384,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4402,7 +4406,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4688,12 +4691,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1460" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="1455" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="AY5" sqref="AY5"/>
+      <selection pane="bottomLeft" activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4713,70 +4716,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="20" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="18" t="s">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
     </row>
     <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5048,62 +5051,62 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="17">
         <v>2019</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="17" t="s">
         <v>69</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AF5" s="17" t="s">
         <v>611</v>
       </c>
     </row>
@@ -7439,43 +7442,43 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E26">
         <v>2004</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="H26" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="I26" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J26" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K26" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7484,34 +7487,34 @@
         <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="Q26" t="s">
         <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="U26" t="s">
-        <v>89</v>
+        <v>375</v>
       </c>
       <c r="V26" t="s">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="W26" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="X26" t="s">
-        <v>391</v>
+        <v>144</v>
       </c>
       <c r="Y26" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="Z26" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7520,28 +7523,28 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG26" t="s">
-        <v>278</v>
+        <v>612</v>
       </c>
       <c r="AH26" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="AI26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AM26" t="s">
-        <v>315</v>
+        <v>116</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>190</v>
       </c>
       <c r="AO26" t="s">
         <v>316</v>
@@ -7549,64 +7552,61 @@
       <c r="AQ26" t="s">
         <v>152</v>
       </c>
-      <c r="AR26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>297</v>
-      </c>
       <c r="AU26" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="AV26" t="s">
-        <v>319</v>
+        <v>119</v>
       </c>
       <c r="AW26" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX26" t="s">
-        <v>395</v>
+        <v>98</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E27">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F27" t="s">
-        <v>399</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>385</v>
       </c>
       <c r="I27" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K27" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7621,28 +7621,28 @@
         <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="T27" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="U27" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="V27" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>390</v>
       </c>
       <c r="X27" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="Y27" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="Z27" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7669,14 +7669,11 @@
         <v>349</v>
       </c>
       <c r="AL27" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM27" t="s">
         <v>315</v>
       </c>
-      <c r="AN27" t="s">
-        <v>409</v>
-      </c>
       <c r="AO27" t="s">
         <v>316</v>
       </c>
@@ -7686,58 +7683,61 @@
       <c r="AR27" t="s">
         <v>118</v>
       </c>
+      <c r="AT27" t="s">
+        <v>297</v>
+      </c>
       <c r="AU27" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="AV27" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="AW27" t="s">
         <v>120</v>
       </c>
       <c r="AX27" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D28" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E28">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>399</v>
       </c>
       <c r="G28" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
         <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="J28" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="K28" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
@@ -7745,29 +7745,35 @@
       <c r="O28" t="s">
         <v>67</v>
       </c>
+      <c r="P28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>69</v>
+      </c>
       <c r="S28" t="s">
         <v>167</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U28" t="s">
+        <v>186</v>
+      </c>
+      <c r="V28" t="s">
+        <v>111</v>
+      </c>
+      <c r="W28" t="s">
         <v>87</v>
       </c>
-      <c r="V28" t="s">
-        <v>168</v>
-      </c>
-      <c r="W28" t="s">
-        <v>346</v>
-      </c>
       <c r="X28" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="Y28" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Z28" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7782,7 +7788,7 @@
         <v>4.3</v>
       </c>
       <c r="AG28" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="AH28" t="s">
         <v>92</v>
@@ -7791,16 +7797,16 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="AL28" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="AM28" t="s">
         <v>315</v>
       </c>
       <c r="AN28" t="s">
-        <v>117</v>
+        <v>409</v>
       </c>
       <c r="AO28" t="s">
         <v>316</v>
@@ -7811,61 +7817,58 @@
       <c r="AR28" t="s">
         <v>118</v>
       </c>
-      <c r="AT28" t="s">
-        <v>317</v>
-      </c>
       <c r="AU28" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="AV28" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="AW28" t="s">
         <v>120</v>
       </c>
       <c r="AX28" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E29">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="F29" t="s">
-        <v>428</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="I29" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="J29" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="K29" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L29" t="s">
         <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -7874,55 +7877,58 @@
         <v>67</v>
       </c>
       <c r="S29" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="T29" t="s">
         <v>86</v>
       </c>
       <c r="U29" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="W29" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="X29" t="s">
-        <v>434</v>
+        <v>144</v>
       </c>
       <c r="Y29" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="Z29" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="AA29">
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF29">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG29" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="AH29" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s">
-        <v>226</v>
+        <v>93</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>192</v>
       </c>
       <c r="AL29" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="AM29" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="AN29" t="s">
         <v>117</v>
@@ -7934,22 +7940,22 @@
         <v>152</v>
       </c>
       <c r="AR29" t="s">
-        <v>243</v>
+        <v>118</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>317</v>
       </c>
       <c r="AU29" t="s">
-        <v>437</v>
+        <v>318</v>
       </c>
       <c r="AV29" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="AW29" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AX29" t="s">
-        <v>438</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
@@ -8059,7 +8065,7 @@
         <v>152</v>
       </c>
       <c r="AR30" t="s">
-        <v>524</v>
+        <v>243</v>
       </c>
       <c r="AU30" t="s">
         <v>437</v>
@@ -8079,43 +8085,43 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D31" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G31" t="s">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="K31" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8124,52 +8130,52 @@
         <v>67</v>
       </c>
       <c r="S31" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="T31" t="s">
         <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="V31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W31" t="s">
         <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>90</v>
+        <v>434</v>
       </c>
       <c r="Y31" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="Z31" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="AA31">
         <v>2</v>
       </c>
       <c r="AB31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG31" t="s">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="AI31" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="AL31" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AM31" t="s">
         <v>116</v>
@@ -8184,13 +8190,10 @@
         <v>152</v>
       </c>
       <c r="AR31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="AU31" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="AV31" t="s">
         <v>211</v>
@@ -8199,179 +8202,179 @@
         <v>98</v>
       </c>
       <c r="AX31" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="AY31" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="32" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B32" s="16" t="s">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32" s="16">
-        <v>2012</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="H32" s="16" t="s">
+      <c r="C32" t="s">
+        <v>441</v>
+      </c>
+      <c r="D32" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32">
+        <v>2010</v>
+      </c>
+      <c r="F32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32" t="s">
+        <v>286</v>
+      </c>
+      <c r="H32" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="L32" s="16" t="s">
+      <c r="I32" t="s">
+        <v>444</v>
+      </c>
+      <c r="J32" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" t="s">
+        <v>445</v>
+      </c>
+      <c r="L32" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="N32" s="16" t="s">
+      <c r="M32" t="s">
+        <v>446</v>
+      </c>
+      <c r="N32" t="s">
         <v>66</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="O32" t="s">
         <v>67</v>
       </c>
-      <c r="S32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T32" s="16" t="s">
+      <c r="S32" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" t="s">
         <v>86</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W32" s="16" t="s">
+      <c r="U32" t="s">
+        <v>110</v>
+      </c>
+      <c r="V32" t="s">
+        <v>86</v>
+      </c>
+      <c r="W32" t="s">
         <v>87</v>
       </c>
-      <c r="X32" s="16" t="s">
+      <c r="X32" t="s">
         <v>90</v>
       </c>
-      <c r="Y32" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z32" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA32" s="16">
+      <c r="Y32" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA32">
         <v>2</v>
       </c>
-      <c r="AB32" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="16">
+      <c r="AB32">
         <v>2</v>
       </c>
-      <c r="AF32" s="16">
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG32" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH32" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI32" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL32" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="AM32" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN32" s="16" t="s">
+      <c r="AG32" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>450</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN32" t="s">
         <v>117</v>
       </c>
-      <c r="AO32" s="16" t="s">
+      <c r="AO32" t="s">
         <v>316</v>
       </c>
-      <c r="AQ32" s="16" t="s">
+      <c r="AQ32" t="s">
         <v>152</v>
       </c>
-      <c r="AR32" s="16" t="s">
+      <c r="AR32" t="s">
         <v>118</v>
       </c>
-      <c r="AT32" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU32" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV32" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW32" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX32" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="AY32" s="16" t="s">
+      <c r="AT32" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY32" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E33" s="16">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>467</v>
+        <v>216</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>66</v>
@@ -8383,25 +8386,25 @@
         <v>85</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="V33" s="16" t="s">
         <v>111</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="X33" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>594</v>
+        <v>460</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="AA33" s="16">
         <v>2</v>
@@ -8419,43 +8422,46 @@
         <v>91</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>551</v>
+        <v>462</v>
       </c>
       <c r="AL33" s="16" t="s">
-        <v>588</v>
+        <v>463</v>
       </c>
       <c r="AM33" s="16" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="AN33" s="16" t="s">
         <v>117</v>
       </c>
       <c r="AO33" s="16" t="s">
-        <v>589</v>
+        <v>316</v>
       </c>
       <c r="AQ33" s="16" t="s">
-        <v>502</v>
+        <v>152</v>
       </c>
       <c r="AR33" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS33" s="16" t="s">
-        <v>581</v>
+        <v>118</v>
+      </c>
+      <c r="AT33" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="AU33" s="16" t="s">
-        <v>591</v>
+        <v>318</v>
       </c>
       <c r="AV33" s="16" t="s">
-        <v>495</v>
+        <v>319</v>
       </c>
       <c r="AW33" s="16" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="AX33" s="16" t="s">
-        <v>599</v>
+        <v>438</v>
+      </c>
+      <c r="AY33" s="16" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8547,10 +8553,10 @@
         <v>149</v>
       </c>
       <c r="AI34" s="16" t="s">
-        <v>188</v>
+        <v>551</v>
       </c>
       <c r="AL34" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AM34" s="16" t="s">
         <v>116</v>
@@ -8577,10 +8583,10 @@
         <v>495</v>
       </c>
       <c r="AW34" s="16" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="AX34" s="16" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8648,7 +8654,7 @@
         <v>90</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z35" s="16" t="s">
         <v>473</v>
@@ -8671,35 +8677,41 @@
       <c r="AH35" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="AI35" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL35" s="16" t="s">
+        <v>590</v>
+      </c>
       <c r="AM35" s="16" t="s">
         <v>116</v>
       </c>
       <c r="AN35" s="16" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="AO35" s="16" t="s">
         <v>589</v>
       </c>
       <c r="AQ35" s="16" t="s">
-        <v>152</v>
+        <v>502</v>
       </c>
       <c r="AR35" s="16" t="s">
-        <v>243</v>
+        <v>524</v>
       </c>
       <c r="AS35" s="16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AU35" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AV35" s="16" t="s">
-        <v>319</v>
+        <v>495</v>
       </c>
       <c r="AW35" s="16" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="AX35" s="16" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8809,144 +8821,135 @@
         <v>575</v>
       </c>
       <c r="AU36" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AV36" s="16" t="s">
-        <v>516</v>
+        <v>319</v>
       </c>
       <c r="AW36" s="16" t="s">
         <v>212</v>
       </c>
       <c r="AX36" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E37" s="16">
+        <v>2013</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="V37" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN37" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO37" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ37" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR37" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS37" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU37" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="AV37" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="AW37" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX37" s="16" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>475</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D37" t="s">
-        <v>477</v>
-      </c>
-      <c r="E37">
-        <v>2015</v>
-      </c>
-      <c r="F37" t="s">
-        <v>478</v>
-      </c>
-      <c r="G37" t="s">
-        <v>479</v>
-      </c>
-      <c r="H37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" t="s">
-        <v>480</v>
-      </c>
-      <c r="J37" t="s">
-        <v>481</v>
-      </c>
-      <c r="K37" t="s">
-        <v>482</v>
-      </c>
-      <c r="L37" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" t="s">
-        <v>483</v>
-      </c>
-      <c r="N37" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" t="s">
-        <v>67</v>
-      </c>
-      <c r="S37" t="s">
-        <v>109</v>
-      </c>
-      <c r="T37" t="s">
-        <v>86</v>
-      </c>
-      <c r="U37" t="s">
-        <v>222</v>
-      </c>
-      <c r="V37" t="s">
-        <v>111</v>
-      </c>
-      <c r="W37" t="s">
-        <v>346</v>
-      </c>
-      <c r="X37" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37">
-        <v>2</v>
-      </c>
-      <c r="AF37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>486</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.35">
@@ -9038,7 +9041,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s">
-        <v>462</v>
+        <v>93</v>
       </c>
       <c r="AL38" t="s">
         <v>486</v>
@@ -9074,6 +9077,134 @@
         <v>98</v>
       </c>
       <c r="AY38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>476</v>
+      </c>
+      <c r="D39" t="s">
+        <v>477</v>
+      </c>
+      <c r="E39">
+        <v>2015</v>
+      </c>
+      <c r="F39" t="s">
+        <v>478</v>
+      </c>
+      <c r="G39" t="s">
+        <v>479</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>480</v>
+      </c>
+      <c r="J39" t="s">
+        <v>481</v>
+      </c>
+      <c r="K39" t="s">
+        <v>482</v>
+      </c>
+      <c r="L39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" t="s">
+        <v>483</v>
+      </c>
+      <c r="N39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="S39" t="s">
+        <v>109</v>
+      </c>
+      <c r="T39" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" t="s">
+        <v>222</v>
+      </c>
+      <c r="V39" t="s">
+        <v>111</v>
+      </c>
+      <c r="W39" t="s">
+        <v>346</v>
+      </c>
+      <c r="X39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY39" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9090,6 +9221,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{53AA1CBD-8D0F-4D00-AE8D-6D877A9FA0B1}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9097,8 +9240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9112,64 +9255,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="20" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
       <c r="AM1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
       <c r="AU1" s="9" t="s">
         <v>6</v>
       </c>
@@ -9677,6 +9820,9 @@
       </c>
       <c r="X10" t="s">
         <v>517</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>612</v>
       </c>
       <c r="AH10" t="s">
         <v>225</v>
@@ -10208,51 +10354,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
       <c r="V1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="18" t="s">
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -11090,6 +11236,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11203,12 +11355,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -11218,6 +11364,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11231,19 +11392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1AD407-A26D-459F-8120-357F74D031B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C38CDF-BE11-4E0D-B4FE-12F6AE0E63B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$38</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="606">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3161,32 +3161,10 @@
     <t>The deep-sea red shrimp Aristeus antennatus is one of the most valuable demersal resources for bottom trawl fishery in the Mediterranean Sea. Nevertheless, this fishery lacks specific management at Mediterranean level, data availability is sparse and official records are often unreliable. In particular, misreporting of trawlers engine power is a widespread issue, complicating the process of fish stock assessments. In Catalonia (Northeast Spain), the red shrimp is particularly important and the stock has been traditionally exploited. The aim of this study was to investigate the long-term effects of intense fishing activities on this resource. For this purpose, we built a reliable series of fishing effort and catch per unit of effort (CPUE), integrating official data with information obtained by interviews to fishermen. Stock assessment at two different time periods, 1984-1989 and 2008-2010, was performed. In this study, we provide the first evidence of the remarkable increase of fishing effort in the Northwest Mediterranean Sea in the last decades. Overfishing of the red shrimp was detected at all years studied. A decrease in the yield per recruit and mean individual length over the two time periods considered was also detected. In addition, the CPUE presented a marked decreasing trend, indicating a possible reduction in the resource abundance. Our results show that an appropriate fishery management for this resource is needed, and should aim at reducing fishing mortality and increasing yield per recruit. These objectives could be achieved by reducing fishing effort and increasing size at first capture. © 2016 Taylor &amp; Francis.</t>
   </si>
   <si>
-    <t xml:space="preserve">ANOVA  </t>
-  </si>
-  <si>
-    <t>The fact that in this study we found that diversity of species at the canyon head, the most embedded area of the canyon, was reduced compared 
-with diversity at the canyon wall might be an indicator of fishing impact in this highly productive and heav ily trawled area.</t>
-  </si>
-  <si>
     <t>Roundfish</t>
   </si>
   <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Discard ratio</t>
-  </si>
-  <si>
     <t>Significant effect</t>
-  </si>
-  <si>
-    <t>The biomass of discards per km2 showed a significant decrease in summer compared with the other seasons of the year</t>
-  </si>
-  <si>
-    <t>fishing ground</t>
-  </si>
-  <si>
-    <t>The number of species in the discards ranged be_x0002_tween 2 and 24 and was significantly higher in the canyon wall than in the other fishing ground.</t>
   </si>
   <si>
     <t>SW4_0717</t>
@@ -4691,12 +4669,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1455" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="1455" topLeftCell="A2" activePane="bottomLeft"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="AG43" sqref="AG43"/>
+      <selection pane="bottomLeft" activeCell="AW57" sqref="AW57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5053,43 +5031,43 @@
     </row>
     <row r="5" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E5" s="17">
         <v>2019</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>63</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>66</v>
@@ -5107,7 +5085,7 @@
         <v>70</v>
       </c>
       <c r="AF5" s="17" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6108,133 +6086,62 @@
       <c r="Q15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="13" t="s">
-        <v>257</v>
-      </c>
+      <c r="R15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD15" s="13"/>
       <c r="AF15" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AY15" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E16" s="11">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>69</v>
@@ -6243,58 +6150,52 @@
         <v>109</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="AA16" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF16" s="11" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>4.2</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="AH16" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AL16" s="11" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>152</v>
@@ -6303,182 +6204,179 @@
         <v>118</v>
       </c>
       <c r="AU16" s="11" t="s">
-        <v>260</v>
+        <v>593</v>
       </c>
       <c r="AV16" s="11" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AW16" s="11" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX16" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AY16" s="11" t="s">
-        <v>264</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="C17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17">
+        <v>2010</v>
+      </c>
+      <c r="F17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>284</v>
+      </c>
+      <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" t="s">
+        <v>285</v>
+      </c>
+      <c r="W17" t="s">
+        <v>203</v>
+      </c>
+      <c r="X17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG17" t="s">
         <v>271</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH17" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
+      <c r="AH17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>152</v>
       </c>
-      <c r="AR17" s="11" t="s">
+      <c r="AR17" t="s">
         <v>118</v>
       </c>
-      <c r="AU17" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="AW17" s="11" t="s">
+      <c r="AT17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW17" t="s">
         <v>98</v>
       </c>
-      <c r="AX17" s="11" t="s">
-        <v>601</v>
+      <c r="AX17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E18">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G18" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="I18" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="J18" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="L18" t="s">
         <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
@@ -6486,32 +6384,29 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" t="s">
-        <v>291</v>
-      </c>
       <c r="S18" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="V18" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="W18" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="Y18" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z18" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6523,22 +6418,28 @@
         <v>3</v>
       </c>
       <c r="AF18">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG18" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AH18" t="s">
-        <v>149</v>
+        <v>92</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>192</v>
       </c>
       <c r="AL18" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AM18" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="AO18" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AQ18" t="s">
         <v>152</v>
@@ -6547,60 +6448,60 @@
         <v>118</v>
       </c>
       <c r="AT18" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AU18" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="AV18" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AW18" t="s">
         <v>98</v>
       </c>
       <c r="AX18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E19">
         <v>1996</v>
       </c>
       <c r="F19" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H19" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J19" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K19" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L19" t="s">
         <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N19" t="s">
         <v>66</v>
@@ -6618,19 +6519,19 @@
         <v>222</v>
       </c>
       <c r="V19" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="W19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="X19" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Y19" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Z19" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6645,25 +6546,19 @@
         <v>4.3</v>
       </c>
       <c r="AG19" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AH19" t="s">
         <v>92</v>
       </c>
-      <c r="AI19" t="s">
-        <v>93</v>
-      </c>
       <c r="AK19" t="s">
         <v>192</v>
       </c>
-      <c r="AL19" t="s">
-        <v>314</v>
-      </c>
       <c r="AM19" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AO19" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ19" t="s">
         <v>152</v>
@@ -6672,60 +6567,60 @@
         <v>118</v>
       </c>
       <c r="AT19" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AU19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AV19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AW19" t="s">
         <v>98</v>
       </c>
       <c r="AX19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="E20">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="H20" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="I20" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K20" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L20" t="s">
         <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
@@ -6740,22 +6635,19 @@
         <v>111</v>
       </c>
       <c r="U20" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="V20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="W20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="X20" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="Z20" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6770,19 +6662,28 @@
         <v>4.3</v>
       </c>
       <c r="AG20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AH20" t="s">
         <v>92</v>
       </c>
+      <c r="AI20" t="s">
+        <v>93</v>
+      </c>
       <c r="AK20" t="s">
         <v>192</v>
       </c>
+      <c r="AL20" t="s">
+        <v>326</v>
+      </c>
       <c r="AM20" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>117</v>
       </c>
       <c r="AO20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ20" t="s">
         <v>152</v>
@@ -6791,87 +6692,93 @@
         <v>118</v>
       </c>
       <c r="AT20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AU20" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AV20" t="s">
-        <v>322</v>
+        <v>97</v>
       </c>
       <c r="AW20" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="AX20" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E21">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J21" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K21" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N21" t="s">
         <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>338</v>
+      </c>
+      <c r="P21" t="s">
+        <v>184</v>
       </c>
       <c r="S21" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="T21" t="s">
         <v>111</v>
       </c>
       <c r="U21" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="W21" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="X21" t="s">
         <v>90</v>
       </c>
+      <c r="Y21" t="s">
+        <v>340</v>
+      </c>
       <c r="Z21" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6886,7 +6793,7 @@
         <v>4.3</v>
       </c>
       <c r="AG21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AH21" t="s">
         <v>92</v>
@@ -6895,19 +6802,19 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="AL21" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AM21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN21" t="s">
         <v>117</v>
       </c>
       <c r="AO21" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ21" t="s">
         <v>152</v>
@@ -6916,191 +6823,185 @@
         <v>118</v>
       </c>
       <c r="AT21" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="AU21" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="AV21" t="s">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="AW21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AX21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E22">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="G22" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H22" t="s">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="J22" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K22" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L22" t="s">
         <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>345</v>
+        <v>67</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>63</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>69</v>
       </c>
       <c r="S22" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="T22" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="U22" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="V22" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="W22" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="X22" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Y22" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Z22" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AA22">
         <v>2</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22">
         <v>3</v>
       </c>
       <c r="AF22">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG22" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AI22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AM22" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="AN22" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AO22" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="AQ22" t="s">
         <v>152</v>
       </c>
-      <c r="AR22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>297</v>
-      </c>
       <c r="AU22" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="AV22" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AW22" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="AX22" t="s">
-        <v>336</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E23">
         <v>2002</v>
       </c>
       <c r="F23" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H23" t="s">
         <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J23" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K23" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="N23" t="s">
         <v>66</v>
@@ -7133,10 +7034,10 @@
         <v>112</v>
       </c>
       <c r="Y23" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Z23" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7160,13 +7061,13 @@
         <v>188</v>
       </c>
       <c r="AL23" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AM23" t="s">
         <v>116</v>
       </c>
       <c r="AN23" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="AO23" t="s">
         <v>84</v>
@@ -7175,10 +7076,10 @@
         <v>152</v>
       </c>
       <c r="AU23" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AV23" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AW23" t="s">
         <v>120</v>
@@ -7189,43 +7090,43 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E24">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F24" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G24" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="I24" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="J24" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K24" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
@@ -7240,117 +7141,120 @@
         <v>69</v>
       </c>
       <c r="S24" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="T24" t="s">
         <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="V24" t="s">
         <v>168</v>
       </c>
       <c r="W24" t="s">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="X24" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="Y24" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Z24" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AA24">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG24" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AH24" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="AI24" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AM24" t="s">
         <v>116</v>
       </c>
       <c r="AN24" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="AO24" t="s">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="AQ24" t="s">
         <v>152</v>
       </c>
       <c r="AU24" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AV24" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="AW24" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX24" t="s">
         <v>98</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>2004</v>
       </c>
       <c r="F25" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G25" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H25" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I25" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J25" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K25" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L25" t="s">
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -7371,22 +7275,22 @@
         <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="V25" t="s">
         <v>168</v>
       </c>
       <c r="W25" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="X25" t="s">
         <v>144</v>
       </c>
       <c r="Y25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Z25" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7401,7 +7305,7 @@
         <v>4.2</v>
       </c>
       <c r="AG25" t="s">
-        <v>144</v>
+        <v>605</v>
       </c>
       <c r="AH25" t="s">
         <v>225</v>
@@ -7410,7 +7314,7 @@
         <v>226</v>
       </c>
       <c r="AL25" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AM25" t="s">
         <v>116</v>
@@ -7419,13 +7323,13 @@
         <v>190</v>
       </c>
       <c r="AO25" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ25" t="s">
         <v>152</v>
       </c>
       <c r="AU25" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AV25" t="s">
         <v>119</v>
@@ -7437,48 +7341,48 @@
         <v>98</v>
       </c>
       <c r="AY25" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E26">
         <v>2004</v>
       </c>
       <c r="F26" t="s">
-        <v>369</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H26" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="I26" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J26" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K26" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7487,34 +7391,34 @@
         <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="Q26" t="s">
         <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="T26" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="U26" t="s">
-        <v>375</v>
+        <v>89</v>
       </c>
       <c r="V26" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="W26" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="X26" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="Y26" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Z26" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7523,90 +7427,93 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG26" t="s">
-        <v>612</v>
+        <v>271</v>
       </c>
       <c r="AH26" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s">
-        <v>226</v>
+        <v>93</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>342</v>
       </c>
       <c r="AL26" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AM26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="AO26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ26" t="s">
         <v>152</v>
       </c>
+      <c r="AR26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>290</v>
+      </c>
       <c r="AU26" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="AV26" t="s">
-        <v>119</v>
+        <v>312</v>
       </c>
       <c r="AW26" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AX26" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E27">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
       <c r="I27" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J27" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K27" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7621,28 +7528,28 @@
         <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="T27" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" t="s">
+        <v>186</v>
+      </c>
+      <c r="V27" t="s">
         <v>111</v>
       </c>
-      <c r="U27" t="s">
-        <v>89</v>
-      </c>
-      <c r="V27" t="s">
-        <v>292</v>
-      </c>
       <c r="W27" t="s">
-        <v>390</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Y27" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Z27" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7657,7 +7564,7 @@
         <v>4.3</v>
       </c>
       <c r="AG27" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AH27" t="s">
         <v>92</v>
@@ -7666,16 +7573,19 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AL27" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AM27" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>402</v>
       </c>
       <c r="AO27" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ27" t="s">
         <v>152</v>
@@ -7683,61 +7593,58 @@
       <c r="AR27" t="s">
         <v>118</v>
       </c>
-      <c r="AT27" t="s">
-        <v>297</v>
-      </c>
       <c r="AU27" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="AV27" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="AW27" t="s">
         <v>120</v>
       </c>
       <c r="AX27" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E28">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I28" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="J28" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K28" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
@@ -7745,35 +7652,29 @@
       <c r="O28" t="s">
         <v>67</v>
       </c>
-      <c r="P28" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>69</v>
-      </c>
       <c r="S28" t="s">
         <v>167</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U28" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="V28" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="W28" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="X28" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="Y28" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Z28" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7788,7 +7689,7 @@
         <v>4.3</v>
       </c>
       <c r="AG28" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="AH28" t="s">
         <v>92</v>
@@ -7797,19 +7698,19 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="AL28" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AM28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AN28" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="AO28" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ28" t="s">
         <v>152</v>
@@ -7817,58 +7718,61 @@
       <c r="AR28" t="s">
         <v>118</v>
       </c>
+      <c r="AT28" t="s">
+        <v>310</v>
+      </c>
       <c r="AU28" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="AV28" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="AW28" t="s">
         <v>120</v>
       </c>
       <c r="AX28" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D29" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E29">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="G29" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H29" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="J29" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K29" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L29" t="s">
         <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -7877,126 +7781,123 @@
         <v>67</v>
       </c>
       <c r="S29" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="T29" t="s">
         <v>86</v>
       </c>
       <c r="U29" t="s">
+        <v>222</v>
+      </c>
+      <c r="V29" t="s">
+        <v>88</v>
+      </c>
+      <c r="W29" t="s">
         <v>87</v>
       </c>
-      <c r="V29" t="s">
-        <v>168</v>
-      </c>
-      <c r="W29" t="s">
-        <v>346</v>
-      </c>
       <c r="X29" t="s">
-        <v>144</v>
+        <v>427</v>
       </c>
       <c r="Y29" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Z29" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AA29">
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG29" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="AI29" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="AM29" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="AN29" t="s">
         <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ29" t="s">
         <v>152</v>
       </c>
       <c r="AR29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="AU29" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="AV29" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AW29" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX29" t="s">
-        <v>424</v>
+        <v>431</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E30">
         <v>2010</v>
       </c>
       <c r="F30" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G30" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H30" t="s">
         <v>179</v>
       </c>
       <c r="I30" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J30" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K30" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -8020,13 +7921,13 @@
         <v>87</v>
       </c>
       <c r="X30" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Y30" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Z30" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8050,7 +7951,7 @@
         <v>226</v>
       </c>
       <c r="AL30" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AM30" t="s">
         <v>116</v>
@@ -8059,16 +7960,16 @@
         <v>117</v>
       </c>
       <c r="AO30" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ30" t="s">
         <v>152</v>
       </c>
       <c r="AR30" t="s">
-        <v>243</v>
+        <v>517</v>
       </c>
       <c r="AU30" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AV30" t="s">
         <v>211</v>
@@ -8077,51 +7978,51 @@
         <v>98</v>
       </c>
       <c r="AX30" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AY30" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D31" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G31" t="s">
-        <v>429</v>
+        <v>279</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="J31" t="s">
-        <v>431</v>
+        <v>162</v>
       </c>
       <c r="K31" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8130,52 +8031,52 @@
         <v>67</v>
       </c>
       <c r="S31" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="T31" t="s">
         <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="V31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W31" t="s">
         <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>434</v>
+        <v>90</v>
       </c>
       <c r="Y31" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Z31" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AA31">
         <v>2</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF31">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG31" t="s">
-        <v>91</v>
+        <v>442</v>
       </c>
       <c r="AH31" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="AI31" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="AL31" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="AM31" t="s">
         <v>116</v>
@@ -8184,16 +8085,19 @@
         <v>117</v>
       </c>
       <c r="AO31" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ31" t="s">
         <v>152</v>
       </c>
       <c r="AR31" t="s">
-        <v>524</v>
+        <v>118</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>444</v>
       </c>
       <c r="AU31" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
       <c r="AV31" t="s">
         <v>211</v>
@@ -8202,179 +8106,179 @@
         <v>98</v>
       </c>
       <c r="AX31" t="s">
-        <v>438</v>
+        <v>98</v>
       </c>
       <c r="AY31" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>440</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>441</v>
-      </c>
-      <c r="D32" t="s">
-        <v>442</v>
-      </c>
-      <c r="E32">
-        <v>2010</v>
-      </c>
-      <c r="F32" t="s">
-        <v>443</v>
-      </c>
-      <c r="G32" t="s">
-        <v>286</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="C32" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2012</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I32" t="s">
-        <v>444</v>
-      </c>
-      <c r="J32" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" t="s">
-        <v>445</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="I32" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="L32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M32" t="s">
-        <v>446</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="M32" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="N32" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="S32" t="s">
-        <v>167</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="S32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="U32" t="s">
-        <v>110</v>
-      </c>
-      <c r="V32" t="s">
-        <v>86</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="U32" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Y32" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA32">
+      <c r="Y32" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA32" s="16">
         <v>2</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="16">
         <v>2</v>
       </c>
-      <c r="AC32">
-        <v>2</v>
-      </c>
-      <c r="AF32">
+      <c r="AF32" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG32" t="s">
-        <v>449</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>450</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN32" t="s">
+      <c r="AG32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL32" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="AM32" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN32" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AO32" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ32" t="s">
+      <c r="AO32" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ32" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AR32" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="AT32" t="s">
-        <v>451</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>379</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>439</v>
+      <c r="AT32" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU32" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV32" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW32" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX32" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="AY32" s="16" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E33" s="16">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>216</v>
+        <v>460</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>66</v>
@@ -8386,25 +8290,25 @@
         <v>85</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="V33" s="16" t="s">
         <v>111</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="X33" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>460</v>
+        <v>587</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AA33" s="16">
         <v>2</v>
@@ -8422,87 +8326,84 @@
         <v>91</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="AL33" s="16" t="s">
-        <v>463</v>
+        <v>581</v>
       </c>
       <c r="AM33" s="16" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="AN33" s="16" t="s">
         <v>117</v>
       </c>
       <c r="AO33" s="16" t="s">
-        <v>316</v>
+        <v>582</v>
       </c>
       <c r="AQ33" s="16" t="s">
-        <v>152</v>
+        <v>495</v>
       </c>
       <c r="AR33" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT33" s="16" t="s">
-        <v>297</v>
+        <v>517</v>
+      </c>
+      <c r="AS33" s="16" t="s">
+        <v>574</v>
       </c>
       <c r="AU33" s="16" t="s">
-        <v>318</v>
+        <v>584</v>
       </c>
       <c r="AV33" s="16" t="s">
-        <v>319</v>
+        <v>488</v>
       </c>
       <c r="AW33" s="16" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="AX33" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="AY33" s="16" t="s">
-        <v>439</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E34" s="16">
         <v>2013</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>179</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>66</v>
@@ -8523,16 +8424,16 @@
         <v>111</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="X34" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AA34" s="16">
         <v>2</v>
@@ -8553,10 +8454,10 @@
         <v>149</v>
       </c>
       <c r="AI34" s="16" t="s">
-        <v>551</v>
+        <v>188</v>
       </c>
       <c r="AL34" s="16" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AM34" s="16" t="s">
         <v>116</v>
@@ -8565,69 +8466,69 @@
         <v>117</v>
       </c>
       <c r="AO34" s="16" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AQ34" s="16" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AR34" s="16" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AS34" s="16" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AU34" s="16" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="AV34" s="16" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AW34" s="16" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="AX34" s="16" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E35" s="16">
         <v>2013</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>179</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="N35" s="16" t="s">
         <v>66</v>
@@ -8648,16 +8549,16 @@
         <v>111</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="X35" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AA35" s="16">
         <v>2</v>
@@ -8677,82 +8578,76 @@
       <c r="AH35" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AI35" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL35" s="16" t="s">
-        <v>590</v>
-      </c>
       <c r="AM35" s="16" t="s">
         <v>116</v>
       </c>
       <c r="AN35" s="16" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AO35" s="16" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AQ35" s="16" t="s">
-        <v>502</v>
+        <v>152</v>
       </c>
       <c r="AR35" s="16" t="s">
-        <v>524</v>
+        <v>243</v>
       </c>
       <c r="AS35" s="16" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="AU35" s="16" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AV35" s="16" t="s">
-        <v>495</v>
+        <v>312</v>
       </c>
       <c r="AW35" s="16" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="AX35" s="16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E36" s="16">
         <v>2013</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>179</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="N36" s="16" t="s">
         <v>66</v>
@@ -8773,16 +8668,16 @@
         <v>111</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="X36" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AA36" s="16">
         <v>2</v>
@@ -8809,7 +8704,7 @@
         <v>151</v>
       </c>
       <c r="AO36" s="16" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AQ36" s="16" t="s">
         <v>152</v>
@@ -8818,179 +8713,188 @@
         <v>243</v>
       </c>
       <c r="AS36" s="16" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AU36" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AV36" s="16" t="s">
-        <v>319</v>
+        <v>509</v>
       </c>
       <c r="AW36" s="16" t="s">
         <v>212</v>
       </c>
       <c r="AX36" s="16" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="B37" s="16" t="s">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E37" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="16" t="s">
+      <c r="C37" t="s">
         <v>469</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="D37" t="s">
         <v>470</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="E37">
+        <v>2015</v>
+      </c>
+      <c r="F37" t="s">
         <v>471</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="G37" t="s">
+        <v>472</v>
+      </c>
+      <c r="H37" t="s">
         <v>63</v>
       </c>
-      <c r="M37" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="N37" s="16" t="s">
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K37" t="s">
+        <v>475</v>
+      </c>
+      <c r="L37" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" t="s">
+        <v>476</v>
+      </c>
+      <c r="N37" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="16" t="s">
+      <c r="O37" t="s">
         <v>67</v>
       </c>
-      <c r="S37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V37" s="16" t="s">
+      <c r="S37" t="s">
+        <v>109</v>
+      </c>
+      <c r="T37" t="s">
+        <v>86</v>
+      </c>
+      <c r="U37" t="s">
+        <v>222</v>
+      </c>
+      <c r="V37" t="s">
         <v>111</v>
       </c>
-      <c r="W37" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="X37" s="16" t="s">
+      <c r="W37" t="s">
+        <v>339</v>
+      </c>
+      <c r="X37" t="s">
         <v>90</v>
       </c>
-      <c r="Y37" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA37" s="16">
+      <c r="Y37" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA37">
         <v>2</v>
       </c>
-      <c r="AB37" s="16">
+      <c r="AB37">
         <v>1</v>
       </c>
-      <c r="AC37" s="16">
+      <c r="AC37">
         <v>2</v>
       </c>
-      <c r="AF37" s="16">
+      <c r="AF37">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG37" s="16" t="s">
+      <c r="AG37" t="s">
         <v>91</v>
       </c>
-      <c r="AH37" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM37" s="16" t="s">
+      <c r="AH37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM37" t="s">
         <v>116</v>
       </c>
-      <c r="AN37" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO37" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AQ37" s="16" t="s">
+      <c r="AN37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ37" t="s">
         <v>152</v>
       </c>
-      <c r="AR37" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS37" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="AU37" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="AV37" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="AW37" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX37" s="16" t="s">
-        <v>598</v>
+      <c r="AR37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D38" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G38" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J38" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -9011,16 +8915,16 @@
         <v>111</v>
       </c>
       <c r="W38" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
         <v>90</v>
       </c>
       <c r="Y38" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Z38" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9041,10 +8945,10 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s">
-        <v>93</v>
+        <v>455</v>
       </c>
       <c r="AL38" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AM38" t="s">
         <v>116</v>
@@ -9053,7 +8957,7 @@
         <v>117</v>
       </c>
       <c r="AO38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ38" t="s">
         <v>152</v>
@@ -9062,13 +8966,13 @@
         <v>118</v>
       </c>
       <c r="AT38" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AU38" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AV38" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AW38" t="s">
         <v>98</v>
@@ -9077,135 +8981,7 @@
         <v>98</v>
       </c>
       <c r="AY38" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>475</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>476</v>
-      </c>
-      <c r="D39" t="s">
-        <v>477</v>
-      </c>
-      <c r="E39">
-        <v>2015</v>
-      </c>
-      <c r="F39" t="s">
-        <v>478</v>
-      </c>
-      <c r="G39" t="s">
-        <v>479</v>
-      </c>
-      <c r="H39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" t="s">
-        <v>480</v>
-      </c>
-      <c r="J39" t="s">
-        <v>481</v>
-      </c>
-      <c r="K39" t="s">
-        <v>482</v>
-      </c>
-      <c r="L39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" t="s">
-        <v>483</v>
-      </c>
-      <c r="N39" t="s">
-        <v>66</v>
-      </c>
-      <c r="O39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S39" t="s">
-        <v>109</v>
-      </c>
-      <c r="T39" t="s">
-        <v>86</v>
-      </c>
-      <c r="U39" t="s">
-        <v>222</v>
-      </c>
-      <c r="V39" t="s">
-        <v>111</v>
-      </c>
-      <c r="W39" t="s">
-        <v>346</v>
-      </c>
-      <c r="X39" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA39">
-        <v>2</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AC39">
-        <v>2</v>
-      </c>
-      <c r="AF39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>486</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +9004,7 @@
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AG26</xm:sqref>
+          <xm:sqref>AG25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9477,22 +9253,22 @@
         <v>69</v>
       </c>
       <c r="R3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="S3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="T3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="U3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="V3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="W3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="X3" t="s">
         <v>112</v>
@@ -9508,19 +9284,19 @@
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AK3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AV3" t="s">
         <v>97</v>
@@ -9531,25 +9307,25 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="R4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="S4" t="s">
         <v>167</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>169</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="W4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="X4" t="s">
         <v>90</v>
@@ -9565,13 +9341,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -9580,7 +9356,7 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AW4" t="s">
         <v>120</v>
@@ -9588,25 +9364,25 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="S5" t="s">
         <v>202</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>169</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="AA5">
@@ -9626,7 +9402,7 @@
         <v>205</v>
       </c>
       <c r="AK5" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AM5" t="s">
         <v>116</v>
@@ -9635,10 +9411,10 @@
         <v>152</v>
       </c>
       <c r="AV5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AW5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AX5" s="8"/>
     </row>
@@ -9650,16 +9426,16 @@
         <v>109</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="X6" t="s">
         <v>144</v>
@@ -9669,7 +9445,7 @@
         <v>91</v>
       </c>
       <c r="AH6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AK6" t="s">
         <v>192</v>
@@ -9678,10 +9454,10 @@
         <v>172</v>
       </c>
       <c r="AQ6" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AV6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AW6" t="s">
         <v>98</v>
@@ -9689,35 +9465,35 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="S7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="T7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="U7" t="s">
         <v>89</v>
       </c>
       <c r="V7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="X7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AH7" t="s">
         <v>149</v>
       </c>
       <c r="AK7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AM7" t="s">
         <v>94</v>
@@ -9726,42 +9502,42 @@
         <v>96</v>
       </c>
       <c r="AV7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="S8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="T8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="U8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="V8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="W8" t="s">
         <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AH8" t="s">
         <v>114</v>
       </c>
       <c r="AM8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AQ8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AV8" t="s">
         <v>154</v>
@@ -9772,7 +9548,7 @@
         <v>134</v>
       </c>
       <c r="S9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="T9" t="s">
         <v>111</v>
@@ -9784,22 +9560,22 @@
         <v>111</v>
       </c>
       <c r="W9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="X9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AH9" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AM9" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AV9" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -9810,7 +9586,7 @@
         <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="V10" t="s">
         <v>143</v>
@@ -9819,22 +9595,22 @@
         <v>203</v>
       </c>
       <c r="X10" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AG10" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="AH10" t="s">
         <v>225</v>
       </c>
       <c r="AM10" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AV10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -9851,30 +9627,30 @@
         <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="X11" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AH11" t="s">
         <v>92</v>
       </c>
       <c r="AM11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AQ11" s="6" t="s">
         <v>152</v>
       </c>
       <c r="AR11" s="6" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AV11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="T12" t="s">
         <v>168</v>
@@ -9889,24 +9665,24 @@
         <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AH12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AQ12" t="s">
         <v>118</v>
       </c>
       <c r="AR12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AV12" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
@@ -9921,19 +9697,19 @@
         <v>186</v>
       </c>
       <c r="X13" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AH13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AQ13" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AR13" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AV13" t="s">
         <v>173</v>
@@ -9944,22 +9720,22 @@
         <v>85</v>
       </c>
       <c r="U14" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="W14" t="s">
         <v>222</v>
       </c>
       <c r="X14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AH14" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AM14" s="6" t="s">
         <v>116</v>
       </c>
       <c r="AQ14" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AR14" t="s">
         <v>243</v>
@@ -9976,36 +9752,36 @@
         <v>110</v>
       </c>
       <c r="W15" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="X15" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AH15" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AM15" t="s">
         <v>151</v>
       </c>
       <c r="AQ15" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AR15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="W16" t="s">
         <v>110</v>
       </c>
       <c r="X16" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AM16" t="s">
         <v>117</v>
@@ -10014,7 +9790,7 @@
         <v>243</v>
       </c>
       <c r="AR16" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="34:48" x14ac:dyDescent="0.35">
@@ -10022,22 +9798,22 @@
         <v>190</v>
       </c>
       <c r="AQ17" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="34:48" x14ac:dyDescent="0.35">
@@ -10045,16 +9821,16 @@
         <v>205</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>225</v>
@@ -10063,16 +9839,16 @@
         <v>92</v>
       </c>
       <c r="AO23" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AP23" s="6" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AQ23" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AR23" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="34:48" x14ac:dyDescent="0.35">
@@ -10083,7 +9859,7 @@
         <v>171</v>
       </c>
       <c r="AK24" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AM24" t="s">
         <v>226</v>
@@ -10092,36 +9868,36 @@
         <v>93</v>
       </c>
       <c r="AO24" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AP24" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AQ24" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AJ25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK25" t="s">
         <v>115</v>
       </c>
       <c r="AN25" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AO25" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AP25" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AQ25" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="34:48" x14ac:dyDescent="0.35">
@@ -10132,15 +9908,15 @@
         <v>122</v>
       </c>
       <c r="AO26" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AK27" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AO27" t="s">
         <v>192</v>
@@ -10148,38 +9924,38 @@
     </row>
     <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AO28" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AQ30" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AR30" s="6" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AT30" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AU30" s="6" t="s">
         <v>243</v>
       </c>
       <c r="AV30" s="6" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="34:48" x14ac:dyDescent="0.35">
@@ -10187,51 +9963,51 @@
         <v>206</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AQ31" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AR31" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AS31" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AT31" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AU31" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AV31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AI32" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AQ32" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AR32" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AS32" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AT32" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AU32" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AV32" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="34:51" x14ac:dyDescent="0.35">
@@ -10239,56 +10015,56 @@
         <v>207</v>
       </c>
       <c r="AI33" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AS33" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AT33" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AU33" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AV33" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AT34" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AU34" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AV34" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AY34" s="7"/>
     </row>
     <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AT35" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AU35" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AV35" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AV36" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="34:51" x14ac:dyDescent="0.35">
@@ -10503,22 +10279,22 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G3" t="s">
         <v>112</v>
@@ -10534,16 +10310,16 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="R3" t="s">
         <v>206</v>
       </c>
       <c r="S3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="V3" t="s">
         <v>116</v>
@@ -10555,10 +10331,10 @@
         <v>152</v>
       </c>
       <c r="AA3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AB3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AE3" t="s">
         <v>97</v>
@@ -10569,22 +10345,22 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
         <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
@@ -10600,19 +10376,19 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="S4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="W4" t="s">
         <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AE4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AF4" t="s">
         <v>120</v>
@@ -10620,25 +10396,25 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -10654,22 +10430,22 @@
         <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="W5" t="s">
         <v>190</v>
       </c>
       <c r="AA5" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AB5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AE5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AF5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -10680,16 +10456,16 @@
         <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -10699,16 +10475,16 @@
         <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="V6" t="s">
         <v>172</v>
       </c>
       <c r="AB6" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AE6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF6" t="s">
         <v>98</v>
@@ -10716,32 +10492,32 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="R7" t="s">
         <v>171</v>
@@ -10750,48 +10526,48 @@
         <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AB7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AE7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="R8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AB8" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AE8" t="s">
         <v>154</v>
@@ -10802,7 +10578,7 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -10814,25 +10590,25 @@
         <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="R9" t="s">
         <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AB9" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AE9" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
@@ -10843,7 +10619,7 @@
         <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
         <v>143</v>
@@ -10852,22 +10628,22 @@
         <v>203</v>
       </c>
       <c r="G10" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="R10" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="V10" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AA10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AB10" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AE10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
@@ -10884,27 +10660,27 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="R11" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="V11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AB11" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AE11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C12" t="s">
         <v>168</v>
@@ -10919,24 +10695,24 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="R12" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AB12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AE12" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -10951,13 +10727,13 @@
         <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="R13" t="s">
         <v>115</v>
       </c>
       <c r="AB13" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AE13" t="s">
         <v>173</v>
@@ -10968,19 +10744,19 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F14" t="s">
         <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R14" t="s">
         <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AE14" t="s">
         <v>211</v>
@@ -10994,39 +10770,39 @@
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="G15" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="R15" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AA15" t="s">
         <v>243</v>
       </c>
       <c r="AB15" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AE15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q16" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AB16" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="17:28" x14ac:dyDescent="0.35">
@@ -11037,7 +10813,7 @@
         <v>226</v>
       </c>
       <c r="AB17" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="17:28" x14ac:dyDescent="0.35">
@@ -11045,90 +10821,90 @@
         <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="T18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AB18" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="S19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="T19" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AB19" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="T20" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AA20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="T21" t="s">
         <v>192</v>
       </c>
       <c r="AA21" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AB21" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="T22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AB22" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="R23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AB23" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AB24" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AB25" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="17:28" x14ac:dyDescent="0.35">
@@ -11136,70 +10912,70 @@
         <v>192</v>
       </c>
       <c r="AA26" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Z27" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AA27" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AB27" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="R28" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AA28" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AA29" t="s">
         <v>243</v>
       </c>
       <c r="AB29" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="R30" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AB30" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AA31" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AA32" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.35">
@@ -11209,7 +10985,7 @@
     </row>
     <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -11236,14 +11012,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -11355,6 +11125,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -11364,22 +11140,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A639B1-0D3D-41B3-BFF7-00E0F6972EBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11392,4 +11153,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C38CDF-BE11-4E0D-B4FE-12F6AE0E63B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAC359-40A3-4DF7-B945-8A67F26F8B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AY$39</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="608">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -2965,9 +2965,6 @@
     <t>Bycatch</t>
   </si>
   <si>
-    <t>gear type</t>
-  </si>
-  <si>
     <t>Mixed</t>
   </si>
   <si>
@@ -4209,6 +4206,15 @@
   </si>
   <si>
     <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>Analyses of the 1982–2000 time-series showed that there was a slow but progressive decline in the trophic level of the demersal community, while there was no trend in the trophic level of the combined pelagic and demersal community. Analyses of the longer time-series suggested that there was no trend in the trophic level of the demersal community. While the size-based metrics of community structure showed long-term trends that were consistent with the effects of increased fishery exploitation, these trends were only correlated with trophic level for the demersal community. Our analysis suggests that the effects of fishing on the trophic structure of fish communities can be much more complex than previously assumed. For the North Sea fish community, changes in size structure due to the differential effects of fishing on species and populations with different life histories are a stronger and more universal indicator of fishing effects than changes in mean trophic level.</t>
+  </si>
+  <si>
+    <t>Not directly studied but performed in a known heavily fished ecosystem</t>
+  </si>
+  <si>
+    <t>In total, out of 109 tons of total catch obtained in 132 sampling operations, 41 tons are classifies as bycatch (37%) in different fishing gears. All figures indicate that there is rather high impact of fishing gears on exploited stocks causing growth and recruitment overfishing.</t>
   </si>
 </sst>
 </file>
@@ -4669,12 +4675,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1455" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="AW57" sqref="AW57"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1450" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomLeft" activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5031,43 +5037,43 @@
     </row>
     <row r="5" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>596</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>597</v>
       </c>
       <c r="E5" s="17">
         <v>2019</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>598</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>601</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>602</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>63</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>66</v>
@@ -5085,7 +5091,7 @@
         <v>70</v>
       </c>
       <c r="AF5" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5602,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="AC11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="13"/>
       <c r="AF11" s="11" t="s">
@@ -5614,9 +5620,6 @@
       <c r="AH11" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="AL11" s="11" t="s">
         <v>189</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>190</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>152</v>
@@ -5639,306 +5642,298 @@
         <v>97</v>
       </c>
       <c r="AW11" s="11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AX11" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="13"/>
+      <c r="AF12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E13" s="14">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="J13" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="N13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="Q13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" s="14" t="s">
+      <c r="T13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="W13" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="W12" s="14" t="s">
+      <c r="X13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="X12" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z12" s="14" t="s">
+      <c r="AA13" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="15"/>
+      <c r="AF13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AA12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="15"/>
-      <c r="AF12" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH12" s="14" t="s">
+      <c r="AI13" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="AI12" s="14" t="s">
+      <c r="AJ13" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AJ12" s="14" t="s">
+      <c r="AL13" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AL12" s="11" t="s">
+      <c r="AM13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO13" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="AM12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN12" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO12" s="14" t="s">
+      <c r="AQ13" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR13" s="11"/>
+      <c r="AU13" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="AQ12" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR12" s="11"/>
-      <c r="AU12" s="14" t="s">
+      <c r="AV13" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="AV12" s="14" t="s">
+      <c r="AW13" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="AW12" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX12" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>121</v>
+      <c r="AX13" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E14" s="11">
         <v>2016</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>66</v>
@@ -5947,31 +5942,34 @@
         <v>67</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>86</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="W14" s="11" t="s">
         <v>169</v>
       </c>
       <c r="X14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" s="11" t="s">
         <v>144</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AA14" s="11">
         <v>2</v>
@@ -5982,26 +5980,20 @@
       <c r="AC14" s="11">
         <v>3</v>
       </c>
-      <c r="AD14" s="13" t="s">
-        <v>240</v>
+      <c r="AD14" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="AF14" s="11" t="s">
         <v>113</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ14" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>116</v>
@@ -6010,373 +6002,382 @@
         <v>190</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>152</v>
       </c>
       <c r="AR14" s="11" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="AU14" s="11" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AV14" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW14" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="AW14" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="AX14" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="AY14" s="11" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E15" s="11">
         <v>2016</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD15" s="13"/>
+      <c r="S15" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="AF15" s="11" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV15" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX15" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY15" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E16" s="11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="R16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="13"/>
+      <c r="AF16" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="U16" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="V16" s="11" t="s">
+      <c r="U17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="W16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X16" s="11" t="s">
+      <c r="Z17" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="Z16" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AF17" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AG17" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="AF16" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AH17" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="AH16" s="11" t="s">
+      <c r="AL17" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AL16" s="11" t="s">
+      <c r="AM17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="AV17" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AM16" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU16" s="11" t="s">
+      <c r="AW17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX17" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="AV16" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX16" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17">
-        <v>2010</v>
-      </c>
-      <c r="F17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G17" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" t="s">
-        <v>280</v>
-      </c>
-      <c r="J17" t="s">
-        <v>281</v>
-      </c>
-      <c r="K17" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" t="s">
-        <v>283</v>
-      </c>
-      <c r="N17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>284</v>
-      </c>
-      <c r="S17" t="s">
-        <v>109</v>
-      </c>
-      <c r="T17" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" t="s">
-        <v>87</v>
-      </c>
-      <c r="V17" t="s">
-        <v>285</v>
-      </c>
-      <c r="W17" t="s">
-        <v>203</v>
-      </c>
-      <c r="X17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA17">
-        <v>2</v>
-      </c>
-      <c r="AB17">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>3</v>
-      </c>
-      <c r="AF17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E18">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G18" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="H18" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="J18" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="L18" t="s">
         <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
@@ -6384,29 +6385,32 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
+      <c r="Q18" t="s">
+        <v>283</v>
+      </c>
       <c r="S18" t="s">
+        <v>109</v>
+      </c>
+      <c r="T18" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="s">
+        <v>284</v>
+      </c>
+      <c r="W18" t="s">
         <v>202</v>
       </c>
-      <c r="T18" t="s">
-        <v>111</v>
-      </c>
-      <c r="U18" t="s">
-        <v>222</v>
-      </c>
-      <c r="V18" t="s">
-        <v>268</v>
-      </c>
-      <c r="W18" t="s">
-        <v>303</v>
-      </c>
       <c r="X18" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="Z18" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6418,28 +6422,22 @@
         <v>3</v>
       </c>
       <c r="AF18">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="AM18" t="s">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="AO18" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AQ18" t="s">
         <v>152</v>
@@ -6448,60 +6446,60 @@
         <v>118</v>
       </c>
       <c r="AT18" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="AU18" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="AV18" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="AW18" t="s">
         <v>98</v>
       </c>
       <c r="AX18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
         <v>294</v>
-      </c>
-      <c r="D19" t="s">
-        <v>295</v>
       </c>
       <c r="E19">
         <v>1996</v>
       </c>
       <c r="F19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" t="s">
         <v>296</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>297</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>298</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>299</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>300</v>
-      </c>
-      <c r="K19" t="s">
-        <v>301</v>
       </c>
       <c r="L19" t="s">
         <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N19" t="s">
         <v>66</v>
@@ -6510,28 +6508,28 @@
         <v>67</v>
       </c>
       <c r="S19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T19" t="s">
         <v>111</v>
       </c>
       <c r="U19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W19" t="s">
+        <v>302</v>
+      </c>
+      <c r="X19" t="s">
         <v>303</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>304</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>305</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>306</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6546,19 +6544,25 @@
         <v>4.3</v>
       </c>
       <c r="AG19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH19" t="s">
         <v>92</v>
       </c>
+      <c r="AI19" t="s">
+        <v>93</v>
+      </c>
       <c r="AK19" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>306</v>
       </c>
       <c r="AM19" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO19" t="s">
         <v>308</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>309</v>
       </c>
       <c r="AQ19" t="s">
         <v>152</v>
@@ -6567,60 +6571,60 @@
         <v>118</v>
       </c>
       <c r="AT19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU19" t="s">
         <v>310</v>
       </c>
-      <c r="AU19" t="s">
-        <v>314</v>
-      </c>
       <c r="AV19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AW19" t="s">
         <v>98</v>
       </c>
       <c r="AX19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E20">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="F20" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="G20" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="L20" t="s">
         <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
@@ -6629,25 +6633,28 @@
         <v>67</v>
       </c>
       <c r="S20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T20" t="s">
         <v>111</v>
       </c>
       <c r="U20" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="V20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W20" t="s">
+        <v>302</v>
+      </c>
+      <c r="X20" t="s">
         <v>303</v>
       </c>
-      <c r="X20" t="s">
-        <v>90</v>
+      <c r="Y20" t="s">
+        <v>304</v>
       </c>
       <c r="Z20" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6662,28 +6669,19 @@
         <v>4.3</v>
       </c>
       <c r="AG20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH20" t="s">
         <v>92</v>
       </c>
-      <c r="AI20" t="s">
-        <v>93</v>
-      </c>
       <c r="AK20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO20" t="s">
         <v>308</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>309</v>
       </c>
       <c r="AQ20" t="s">
         <v>152</v>
@@ -6692,93 +6690,87 @@
         <v>118</v>
       </c>
       <c r="AT20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AU20" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="AV20" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="AW20" t="s">
-        <v>328</v>
+        <v>98</v>
       </c>
       <c r="AX20" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E21">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="J21" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="K21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N21" t="s">
         <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>338</v>
-      </c>
-      <c r="P21" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="T21" t="s">
         <v>111</v>
       </c>
       <c r="U21" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="V21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W21" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X21" t="s">
         <v>90</v>
       </c>
-      <c r="Y21" t="s">
-        <v>340</v>
-      </c>
       <c r="Z21" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6793,7 +6785,7 @@
         <v>4.3</v>
       </c>
       <c r="AG21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH21" t="s">
         <v>92</v>
@@ -6802,19 +6794,19 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="AM21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN21" t="s">
         <v>117</v>
       </c>
       <c r="AO21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ21" t="s">
         <v>152</v>
@@ -6823,185 +6815,191 @@
         <v>118</v>
       </c>
       <c r="AT21" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="AU21" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="AV21" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="AW21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AX21" t="s">
         <v>328</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="I22" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="J22" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="K22" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="L22" t="s">
         <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>337</v>
       </c>
       <c r="P22" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="S22" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="U22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="V22" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>338</v>
       </c>
       <c r="X22" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Y22" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="Z22" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AA22">
         <v>2</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC22">
         <v>3</v>
       </c>
       <c r="AF22">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG22" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="AH22" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s">
-        <v>188</v>
+        <v>93</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>341</v>
       </c>
       <c r="AL22" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AM22" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AN22" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="AO22" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="AQ22" t="s">
         <v>152</v>
       </c>
+      <c r="AR22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>289</v>
+      </c>
       <c r="AU22" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="AV22" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="AW22" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="AX22" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" t="s">
         <v>346</v>
-      </c>
-      <c r="D23" t="s">
-        <v>347</v>
       </c>
       <c r="E23">
         <v>2002</v>
       </c>
       <c r="F23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" t="s">
         <v>348</v>
-      </c>
-      <c r="G23" t="s">
-        <v>349</v>
       </c>
       <c r="H23" t="s">
         <v>128</v>
       </c>
       <c r="I23" t="s">
+        <v>349</v>
+      </c>
+      <c r="J23" t="s">
         <v>350</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>351</v>
-      </c>
-      <c r="K23" t="s">
-        <v>352</v>
       </c>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N23" t="s">
         <v>66</v>
@@ -7034,10 +7032,10 @@
         <v>112</v>
       </c>
       <c r="Y23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z23" t="s">
         <v>354</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>355</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7061,72 +7059,72 @@
         <v>188</v>
       </c>
       <c r="AL23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM23" t="s">
         <v>116</v>
       </c>
       <c r="AN23" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AO23" t="s">
-        <v>84</v>
+        <v>606</v>
       </c>
       <c r="AQ23" t="s">
         <v>152</v>
       </c>
       <c r="AU23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV23" t="s">
         <v>357</v>
       </c>
-      <c r="AV23" t="s">
-        <v>358</v>
-      </c>
       <c r="AW23" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX23" t="s">
-        <v>98</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="G24" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="H24" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="J24" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="K24" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
@@ -7141,120 +7139,117 @@
         <v>69</v>
       </c>
       <c r="S24" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="T24" t="s">
         <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="V24" t="s">
         <v>168</v>
       </c>
       <c r="W24" t="s">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="X24" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="Y24" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="Z24" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="AA24">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF24">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG24" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="AI24" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AM24" t="s">
         <v>116</v>
       </c>
       <c r="AN24" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="AO24" t="s">
-        <v>309</v>
+        <v>606</v>
       </c>
       <c r="AQ24" t="s">
         <v>152</v>
       </c>
       <c r="AU24" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AV24" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="AW24" t="s">
         <v>98</v>
       </c>
       <c r="AX24" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>373</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" t="s">
         <v>360</v>
-      </c>
-      <c r="D25" t="s">
-        <v>361</v>
       </c>
       <c r="E25">
         <v>2004</v>
       </c>
       <c r="F25" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" t="s">
         <v>362</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25" t="s">
         <v>363</v>
       </c>
-      <c r="H25" t="s">
-        <v>298</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>364</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>365</v>
-      </c>
-      <c r="K25" t="s">
-        <v>366</v>
       </c>
       <c r="L25" t="s">
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -7275,22 +7270,22 @@
         <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V25" t="s">
         <v>168</v>
       </c>
       <c r="W25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X25" t="s">
         <v>144</v>
       </c>
       <c r="Y25" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z25" t="s">
         <v>369</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>370</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7305,16 +7300,16 @@
         <v>4.2</v>
       </c>
       <c r="AG25" t="s">
-        <v>605</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI25" t="s">
         <v>225</v>
       </c>
-      <c r="AI25" t="s">
-        <v>226</v>
-      </c>
       <c r="AL25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM25" t="s">
         <v>116</v>
@@ -7323,13 +7318,13 @@
         <v>190</v>
       </c>
       <c r="AO25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ25" t="s">
         <v>152</v>
       </c>
       <c r="AU25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AV25" t="s">
         <v>119</v>
@@ -7341,48 +7336,48 @@
         <v>98</v>
       </c>
       <c r="AY25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E26">
         <v>2004</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="I26" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="J26" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K26" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7391,34 +7386,34 @@
         <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="Q26" t="s">
         <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="U26" t="s">
-        <v>89</v>
+        <v>367</v>
       </c>
       <c r="V26" t="s">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="W26" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="X26" t="s">
-        <v>384</v>
+        <v>144</v>
       </c>
       <c r="Y26" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="Z26" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7427,93 +7422,90 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG26" t="s">
-        <v>271</v>
+        <v>604</v>
       </c>
       <c r="AH26" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="AI26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="AM26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO26" t="s">
         <v>308</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>309</v>
       </c>
       <c r="AQ26" t="s">
         <v>152</v>
       </c>
-      <c r="AR26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>290</v>
-      </c>
       <c r="AU26" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="AV26" t="s">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="AW26" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX26" t="s">
-        <v>388</v>
+        <v>98</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E27">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="I27" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="J27" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="K27" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7528,28 +7520,28 @@
         <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="T27" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="U27" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="V27" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>382</v>
       </c>
       <c r="X27" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="Y27" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="Z27" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7564,7 +7556,7 @@
         <v>4.3</v>
       </c>
       <c r="AG27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH27" t="s">
         <v>92</v>
@@ -7573,19 +7565,16 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL27" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AM27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO27" t="s">
         <v>308</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>309</v>
       </c>
       <c r="AQ27" t="s">
         <v>152</v>
@@ -7593,58 +7582,61 @@
       <c r="AR27" t="s">
         <v>118</v>
       </c>
+      <c r="AT27" t="s">
+        <v>289</v>
+      </c>
       <c r="AU27" t="s">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="AV27" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="AW27" t="s">
         <v>120</v>
       </c>
       <c r="AX27" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E28">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>391</v>
       </c>
       <c r="G28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I28" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="J28" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="K28" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
@@ -7652,29 +7644,35 @@
       <c r="O28" t="s">
         <v>67</v>
       </c>
+      <c r="P28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>69</v>
+      </c>
       <c r="S28" t="s">
         <v>167</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U28" t="s">
+        <v>186</v>
+      </c>
+      <c r="V28" t="s">
+        <v>111</v>
+      </c>
+      <c r="W28" t="s">
         <v>87</v>
       </c>
-      <c r="V28" t="s">
-        <v>168</v>
-      </c>
-      <c r="W28" t="s">
-        <v>339</v>
-      </c>
       <c r="X28" t="s">
-        <v>144</v>
+        <v>397</v>
       </c>
       <c r="Y28" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="Z28" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7689,7 +7687,7 @@
         <v>4.3</v>
       </c>
       <c r="AG28" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="AH28" t="s">
         <v>92</v>
@@ -7698,19 +7696,19 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="AL28" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AM28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO28" t="s">
         <v>308</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>309</v>
       </c>
       <c r="AQ28" t="s">
         <v>152</v>
@@ -7718,61 +7716,58 @@
       <c r="AR28" t="s">
         <v>118</v>
       </c>
-      <c r="AT28" t="s">
-        <v>310</v>
-      </c>
       <c r="AU28" t="s">
-        <v>311</v>
+        <v>402</v>
       </c>
       <c r="AV28" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="AW28" t="s">
         <v>120</v>
       </c>
       <c r="AX28" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E29">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="I29" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J29" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K29" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="L29" t="s">
         <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -7781,123 +7776,126 @@
         <v>67</v>
       </c>
       <c r="S29" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="T29" t="s">
         <v>86</v>
       </c>
       <c r="U29" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="W29" t="s">
-        <v>87</v>
+        <v>338</v>
       </c>
       <c r="X29" t="s">
-        <v>427</v>
+        <v>144</v>
       </c>
       <c r="Y29" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Z29" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="AA29">
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF29">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG29" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="AH29" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s">
-        <v>226</v>
+        <v>93</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>191</v>
       </c>
       <c r="AL29" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="AM29" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s">
         <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ29" t="s">
         <v>152</v>
       </c>
       <c r="AR29" t="s">
-        <v>243</v>
+        <v>118</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>309</v>
       </c>
       <c r="AU29" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="AV29" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="AW29" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AX29" t="s">
-        <v>431</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
+        <v>418</v>
+      </c>
+      <c r="D30" t="s">
         <v>419</v>
-      </c>
-      <c r="D30" t="s">
-        <v>420</v>
       </c>
       <c r="E30">
         <v>2010</v>
       </c>
       <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="G30" t="s">
         <v>421</v>
-      </c>
-      <c r="G30" t="s">
-        <v>422</v>
       </c>
       <c r="H30" t="s">
         <v>179</v>
       </c>
       <c r="I30" t="s">
+        <v>422</v>
+      </c>
+      <c r="J30" t="s">
         <v>423</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>424</v>
-      </c>
-      <c r="K30" t="s">
-        <v>425</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -7912,7 +7910,7 @@
         <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V30" t="s">
         <v>88</v>
@@ -7921,13 +7919,13 @@
         <v>87</v>
       </c>
       <c r="X30" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y30" t="s">
         <v>427</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>428</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>429</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7945,13 +7943,13 @@
         <v>91</v>
       </c>
       <c r="AH30" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI30" t="s">
         <v>225</v>
       </c>
-      <c r="AI30" t="s">
-        <v>226</v>
-      </c>
       <c r="AL30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM30" t="s">
         <v>116</v>
@@ -7960,69 +7958,69 @@
         <v>117</v>
       </c>
       <c r="AO30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ30" t="s">
         <v>152</v>
       </c>
       <c r="AR30" t="s">
-        <v>517</v>
+        <v>242</v>
       </c>
       <c r="AU30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AV30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW30" t="s">
         <v>98</v>
       </c>
       <c r="AX30" t="s">
+        <v>430</v>
+      </c>
+      <c r="AY30" t="s">
         <v>431</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D31" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>423</v>
       </c>
       <c r="K31" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8031,52 +8029,52 @@
         <v>67</v>
       </c>
       <c r="S31" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="T31" t="s">
         <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="V31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W31" t="s">
         <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>90</v>
+        <v>426</v>
       </c>
       <c r="Y31" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="Z31" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AA31">
         <v>2</v>
       </c>
       <c r="AB31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG31" t="s">
-        <v>442</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="AI31" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="AL31" t="s">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="AM31" t="s">
         <v>116</v>
@@ -8085,200 +8083,197 @@
         <v>117</v>
       </c>
       <c r="AO31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ31" t="s">
         <v>152</v>
       </c>
       <c r="AR31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
       <c r="AU31" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="AV31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW31" t="s">
         <v>98</v>
       </c>
       <c r="AX31" t="s">
+        <v>430</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" t="s">
+        <v>434</v>
+      </c>
+      <c r="E32">
+        <v>2010</v>
+      </c>
+      <c r="F32" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>436</v>
+      </c>
+      <c r="J32" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" t="s">
+        <v>437</v>
+      </c>
+      <c r="L32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" t="s">
+        <v>438</v>
+      </c>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="S32" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" t="s">
+        <v>86</v>
+      </c>
+      <c r="U32" t="s">
+        <v>110</v>
+      </c>
+      <c r="V32" t="s">
+        <v>86</v>
+      </c>
+      <c r="W32" t="s">
+        <v>87</v>
+      </c>
+      <c r="X32" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW32" t="s">
         <v>98</v>
       </c>
-      <c r="AY31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="E32" s="16">
-        <v>2012</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T32" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X32" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z32" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA32" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="16">
-        <v>2</v>
-      </c>
-      <c r="AF32" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG32" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH32" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI32" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL32" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="AM32" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN32" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO32" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AQ32" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR32" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT32" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU32" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV32" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="AW32" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX32" s="16" t="s">
+      <c r="AX32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY32" t="s">
         <v>431</v>
-      </c>
-      <c r="AY32" s="16" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E33" s="16">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>460</v>
+        <v>215</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>66</v>
@@ -8290,25 +8285,25 @@
         <v>85</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="V33" s="16" t="s">
         <v>111</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="X33" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>587</v>
+        <v>452</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="AA33" s="16">
         <v>2</v>
@@ -8326,84 +8321,87 @@
         <v>91</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="AL33" s="16" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="AM33" s="16" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AN33" s="16" t="s">
         <v>117</v>
       </c>
       <c r="AO33" s="16" t="s">
-        <v>582</v>
+        <v>308</v>
       </c>
       <c r="AQ33" s="16" t="s">
-        <v>495</v>
+        <v>152</v>
       </c>
       <c r="AR33" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="AS33" s="16" t="s">
-        <v>574</v>
+        <v>118</v>
+      </c>
+      <c r="AT33" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="AU33" s="16" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="AV33" s="16" t="s">
-        <v>488</v>
+        <v>311</v>
       </c>
       <c r="AW33" s="16" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="AX33" s="16" t="s">
-        <v>592</v>
+        <v>430</v>
+      </c>
+      <c r="AY33" s="16" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="E34" s="16">
         <v>2013</v>
       </c>
       <c r="F34" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>460</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>461</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>179</v>
       </c>
       <c r="I34" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="K34" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>464</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>66</v>
@@ -8424,16 +8422,16 @@
         <v>111</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X34" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA34" s="16">
         <v>2</v>
@@ -8454,10 +8452,10 @@
         <v>149</v>
       </c>
       <c r="AI34" s="16" t="s">
-        <v>188</v>
+        <v>543</v>
       </c>
       <c r="AL34" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AM34" s="16" t="s">
         <v>116</v>
@@ -8466,69 +8464,69 @@
         <v>117</v>
       </c>
       <c r="AO34" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ34" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AR34" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AS34" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AU34" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AV34" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AW34" s="16" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="AX34" s="16" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="E35" s="16">
         <v>2013</v>
       </c>
       <c r="F35" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>460</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>461</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>179</v>
       </c>
       <c r="I35" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J35" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="K35" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>464</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N35" s="16" t="s">
         <v>66</v>
@@ -8549,16 +8547,16 @@
         <v>111</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X35" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA35" s="16">
         <v>2</v>
@@ -8578,76 +8576,82 @@
       <c r="AH35" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="AI35" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL35" s="16" t="s">
+        <v>582</v>
+      </c>
       <c r="AM35" s="16" t="s">
         <v>116</v>
       </c>
       <c r="AN35" s="16" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="AO35" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ35" s="16" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
       <c r="AR35" s="16" t="s">
-        <v>243</v>
+        <v>516</v>
       </c>
       <c r="AS35" s="16" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AU35" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AV35" s="16" t="s">
-        <v>312</v>
+        <v>487</v>
       </c>
       <c r="AW35" s="16" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="AX35" s="16" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="E36" s="16">
         <v>2013</v>
       </c>
       <c r="F36" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>460</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>461</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>179</v>
       </c>
       <c r="I36" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J36" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>464</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N36" s="16" t="s">
         <v>66</v>
@@ -8668,16 +8672,16 @@
         <v>111</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X36" s="16" t="s">
         <v>90</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA36" s="16">
         <v>2</v>
@@ -8704,197 +8708,188 @@
         <v>151</v>
       </c>
       <c r="AO36" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ36" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AR36" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AS36" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AU36" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV36" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX36" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="AV36" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="AW36" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX36" s="16" t="s">
-        <v>591</v>
-      </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>468</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
-        <v>469</v>
-      </c>
-      <c r="D37" t="s">
-        <v>470</v>
-      </c>
-      <c r="E37">
-        <v>2015</v>
-      </c>
-      <c r="F37" t="s">
-        <v>471</v>
-      </c>
-      <c r="G37" t="s">
-        <v>472</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="C37" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="16">
+        <v>2013</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="L37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I37" t="s">
-        <v>473</v>
-      </c>
-      <c r="J37" t="s">
-        <v>474</v>
-      </c>
-      <c r="K37" t="s">
-        <v>475</v>
-      </c>
-      <c r="L37" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="N37" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="S37" t="s">
-        <v>109</v>
-      </c>
-      <c r="T37" t="s">
-        <v>86</v>
-      </c>
-      <c r="U37" t="s">
-        <v>222</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="S37" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="V37" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="W37" t="s">
-        <v>339</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="W37" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="X37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Y37" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA37">
+      <c r="Y37" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA37" s="16">
         <v>2</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="16">
         <v>1</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="16">
         <v>2</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG37" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AH37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>479</v>
-      </c>
-      <c r="AM37" t="s">
+      <c r="AH37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AN37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>309</v>
-      </c>
-      <c r="AQ37" t="s">
+      <c r="AN37" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO37" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="AQ37" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="AR37" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>312</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>432</v>
+      <c r="AR37" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS37" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="AU37" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="AV37" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="AW37" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX37" s="16" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
+        <v>468</v>
+      </c>
+      <c r="D38" t="s">
         <v>469</v>
-      </c>
-      <c r="D38" t="s">
-        <v>470</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
+        <v>470</v>
+      </c>
+      <c r="G38" t="s">
         <v>471</v>
-      </c>
-      <c r="G38" t="s">
-        <v>472</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
       </c>
       <c r="I38" t="s">
+        <v>472</v>
+      </c>
+      <c r="J38" t="s">
         <v>473</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>474</v>
-      </c>
-      <c r="K38" t="s">
-        <v>475</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -8909,22 +8904,22 @@
         <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V38" t="s">
         <v>111</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X38" t="s">
         <v>90</v>
       </c>
       <c r="Y38" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z38" t="s">
         <v>477</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>478</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -8945,10 +8940,10 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s">
-        <v>455</v>
+        <v>93</v>
       </c>
       <c r="AL38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM38" t="s">
         <v>116</v>
@@ -8957,7 +8952,7 @@
         <v>117</v>
       </c>
       <c r="AO38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ38" t="s">
         <v>152</v>
@@ -8966,13 +8961,13 @@
         <v>118</v>
       </c>
       <c r="AT38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AU38" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV38" t="s">
         <v>311</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>312</v>
       </c>
       <c r="AW38" t="s">
         <v>98</v>
@@ -8981,7 +8976,135 @@
         <v>98</v>
       </c>
       <c r="AY38" t="s">
-        <v>432</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39">
+        <v>2015</v>
+      </c>
+      <c r="F39" t="s">
+        <v>470</v>
+      </c>
+      <c r="G39" t="s">
+        <v>471</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>472</v>
+      </c>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+      <c r="K39" t="s">
+        <v>474</v>
+      </c>
+      <c r="L39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" t="s">
+        <v>475</v>
+      </c>
+      <c r="N39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="S39" t="s">
+        <v>109</v>
+      </c>
+      <c r="T39" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" t="s">
+        <v>221</v>
+      </c>
+      <c r="V39" t="s">
+        <v>111</v>
+      </c>
+      <c r="W39" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -9004,7 +9127,7 @@
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AG25</xm:sqref>
+          <xm:sqref>AG26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9253,22 +9376,22 @@
         <v>69</v>
       </c>
       <c r="R3" t="s">
+        <v>479</v>
+      </c>
+      <c r="S3" t="s">
         <v>480</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>481</v>
       </c>
-      <c r="T3" t="s">
-        <v>482</v>
-      </c>
       <c r="U3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X3" t="s">
         <v>112</v>
@@ -9284,48 +9407,48 @@
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AK3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AV3" t="s">
         <v>97</v>
       </c>
       <c r="AW3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S4" t="s">
         <v>167</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>169</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="X4" t="s">
         <v>90</v>
@@ -9341,13 +9464,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -9356,7 +9479,7 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AW4" t="s">
         <v>120</v>
@@ -9364,25 +9487,25 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
+        <v>488</v>
+      </c>
+      <c r="S5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="S5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>169</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="AA5">
@@ -9399,10 +9522,10 @@
         <v>148</v>
       </c>
       <c r="AH5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AM5" t="s">
         <v>116</v>
@@ -9411,10 +9534,10 @@
         <v>152</v>
       </c>
       <c r="AV5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AW5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AX5" s="8"/>
     </row>
@@ -9426,16 +9549,16 @@
         <v>109</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X6" t="s">
         <v>144</v>
@@ -9445,19 +9568,19 @@
         <v>91</v>
       </c>
       <c r="AH6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM6" t="s">
         <v>172</v>
       </c>
       <c r="AQ6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AW6" t="s">
         <v>98</v>
@@ -9465,35 +9588,35 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
+        <v>495</v>
+      </c>
+      <c r="S7" t="s">
         <v>496</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>497</v>
-      </c>
-      <c r="T7" t="s">
-        <v>498</v>
       </c>
       <c r="U7" t="s">
         <v>89</v>
       </c>
       <c r="V7" t="s">
+        <v>497</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="X7" t="s">
         <v>498</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="X7" t="s">
-        <v>499</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AH7" t="s">
         <v>149</v>
       </c>
       <c r="AK7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="s">
         <v>94</v>
@@ -9502,42 +9625,42 @@
         <v>96</v>
       </c>
       <c r="AV7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
+        <v>501</v>
+      </c>
+      <c r="S8" t="s">
         <v>502</v>
       </c>
-      <c r="S8" t="s">
-        <v>503</v>
-      </c>
       <c r="T8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W8" t="s">
         <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AH8" t="s">
         <v>114</v>
       </c>
       <c r="AM8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AV8" t="s">
         <v>154</v>
@@ -9548,69 +9671,69 @@
         <v>134</v>
       </c>
       <c r="S9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T9" t="s">
         <v>111</v>
       </c>
       <c r="U9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V9" t="s">
         <v>111</v>
       </c>
       <c r="W9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH9" t="s">
         <v>506</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AM9" t="s">
         <v>507</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AV9" t="s">
         <v>508</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T10" t="s">
         <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V10" t="s">
         <v>143</v>
       </c>
       <c r="W10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X10" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>604</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM10" t="s">
         <v>510</v>
       </c>
-      <c r="AG10" t="s">
-        <v>605</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AQ10" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="AV10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -9627,30 +9750,30 @@
         <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AH11" t="s">
         <v>92</v>
       </c>
       <c r="AM11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AQ11" s="6" t="s">
         <v>152</v>
       </c>
       <c r="AR11" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T12" t="s">
         <v>168</v>
@@ -9665,30 +9788,30 @@
         <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AQ12" t="s">
         <v>118</v>
       </c>
       <c r="AR12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AV12" t="s">
         <v>517</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V13" t="s">
         <v>86</v>
@@ -9697,19 +9820,19 @@
         <v>186</v>
       </c>
       <c r="X13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH13" t="s">
         <v>520</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AM13" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>521</v>
       </c>
-      <c r="AM13" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>522</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>523</v>
       </c>
       <c r="AV13" t="s">
         <v>173</v>
@@ -9720,28 +9843,28 @@
         <v>85</v>
       </c>
       <c r="U14" t="s">
+        <v>523</v>
+      </c>
+      <c r="W14" t="s">
+        <v>221</v>
+      </c>
+      <c r="X14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AH14" t="s">
         <v>524</v>
-      </c>
-      <c r="W14" t="s">
-        <v>222</v>
-      </c>
-      <c r="X14" t="s">
-        <v>398</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>525</v>
       </c>
       <c r="AM14" s="6" t="s">
         <v>116</v>
       </c>
       <c r="AQ14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AR14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AV14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -9752,45 +9875,45 @@
         <v>110</v>
       </c>
       <c r="W15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="X15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM15" t="s">
         <v>151</v>
       </c>
       <c r="AQ15" t="s">
+        <v>527</v>
+      </c>
+      <c r="AR15" t="s">
         <v>528</v>
       </c>
-      <c r="AR15" t="s">
-        <v>529</v>
-      </c>
       <c r="AV15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W16" t="s">
         <v>110</v>
       </c>
       <c r="X16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AM16" t="s">
         <v>117</v>
       </c>
       <c r="AQ16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AR16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="34:48" x14ac:dyDescent="0.35">
@@ -9798,106 +9921,106 @@
         <v>190</v>
       </c>
       <c r="AQ17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ23" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK23" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="AK23" s="6" t="s">
-        <v>533</v>
-      </c>
       <c r="AL23" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN23" s="6" t="s">
         <v>92</v>
       </c>
       <c r="AO23" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AR23" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ24" t="s">
         <v>171</v>
       </c>
       <c r="AK24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s">
         <v>93</v>
       </c>
       <c r="AO24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AP24" t="s">
+        <v>536</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>537</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AJ25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK25" t="s">
         <v>115</v>
       </c>
       <c r="AN25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AP25" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>540</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="26" spans="34:48" x14ac:dyDescent="0.35">
@@ -9908,163 +10031,163 @@
         <v>122</v>
       </c>
       <c r="AO26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AK27" t="s">
         <v>542</v>
       </c>
-      <c r="AK27" t="s">
-        <v>543</v>
-      </c>
       <c r="AO27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AO28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AQ30" s="6" t="s">
+      <c r="AR30" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AR30" s="6" t="s">
+      <c r="AS30" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV30" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="AS30" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI31" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS31" t="s">
         <v>549</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>290</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS31" t="s">
+      <c r="AT31" t="s">
         <v>550</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AU31" t="s">
         <v>551</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>552</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI32" t="s">
         <v>554</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AQ32" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR32" t="s">
         <v>555</v>
       </c>
-      <c r="AQ32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>556</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AT32" t="s">
         <v>557</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU32" t="s">
         <v>558</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" t="s">
         <v>559</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI33" t="s">
+        <v>560</v>
+      </c>
+      <c r="AS33" t="s">
         <v>561</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
         <v>562</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AU33" t="s">
         <v>563</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>564</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
+        <v>565</v>
+      </c>
+      <c r="AT34" t="s">
         <v>566</v>
       </c>
-      <c r="AT34" t="s">
+      <c r="AU34" t="s">
         <v>567</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AV34" t="s">
         <v>568</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>569</v>
       </c>
       <c r="AY34" s="7"/>
     </row>
     <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AT35" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU35" t="s">
         <v>570</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>571</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
+        <v>572</v>
+      </c>
+      <c r="AV36" t="s">
         <v>573</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="37" spans="34:51" x14ac:dyDescent="0.35">
@@ -10279,22 +10402,22 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" t="s">
         <v>480</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>481</v>
       </c>
-      <c r="C3" t="s">
-        <v>482</v>
-      </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
         <v>112</v>
@@ -10310,16 +10433,16 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q3" t="s">
+        <v>574</v>
+      </c>
+      <c r="R3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" t="s">
         <v>575</v>
-      </c>
-      <c r="R3" t="s">
-        <v>206</v>
-      </c>
-      <c r="S3" t="s">
-        <v>576</v>
       </c>
       <c r="V3" t="s">
         <v>116</v>
@@ -10331,36 +10454,36 @@
         <v>152</v>
       </c>
       <c r="AA3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AE3" t="s">
         <v>97</v>
       </c>
       <c r="AF3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
         <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
@@ -10376,19 +10499,19 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W4" t="s">
         <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF4" t="s">
         <v>120</v>
@@ -10396,25 +10519,25 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -10430,22 +10553,22 @@
         <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W5" t="s">
         <v>190</v>
       </c>
       <c r="AA5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AB5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AE5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -10456,16 +10579,16 @@
         <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -10475,16 +10598,16 @@
         <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V6" t="s">
         <v>172</v>
       </c>
       <c r="AB6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AE6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF6" t="s">
         <v>98</v>
@@ -10492,32 +10615,32 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" t="s">
         <v>496</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>497</v>
-      </c>
-      <c r="C7" t="s">
-        <v>498</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
       </c>
       <c r="E7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" t="s">
         <v>498</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G7" t="s">
-        <v>499</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R7" t="s">
         <v>171</v>
@@ -10526,48 +10649,48 @@
         <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" t="s">
         <v>502</v>
       </c>
-      <c r="B8" t="s">
-        <v>503</v>
-      </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AE8" t="s">
         <v>154</v>
@@ -10578,72 +10701,72 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
         <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R9" t="s">
         <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE9" t="s">
         <v>508</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>562</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
         <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" t="s">
+        <v>509</v>
+      </c>
+      <c r="R10" t="s">
+        <v>541</v>
+      </c>
+      <c r="V10" t="s">
         <v>510</v>
       </c>
-      <c r="R10" t="s">
-        <v>542</v>
-      </c>
-      <c r="V10" t="s">
-        <v>511</v>
-      </c>
       <c r="AA10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
@@ -10660,27 +10783,27 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
+        <v>512</v>
+      </c>
+      <c r="R11" t="s">
+        <v>543</v>
+      </c>
+      <c r="V11" t="s">
         <v>513</v>
       </c>
-      <c r="R11" t="s">
-        <v>544</v>
-      </c>
-      <c r="V11" t="s">
-        <v>514</v>
-      </c>
       <c r="AB11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AE11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C12" t="s">
         <v>168</v>
@@ -10695,30 +10818,30 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AE12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
@@ -10727,13 +10850,13 @@
         <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R13" t="s">
         <v>115</v>
       </c>
       <c r="AB13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE13" t="s">
         <v>173</v>
@@ -10744,22 +10867,22 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R14" t="s">
         <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
@@ -10770,50 +10893,50 @@
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AA15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AE15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
       </c>
       <c r="G16" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q16" t="s">
         <v>506</v>
       </c>
-      <c r="Q16" t="s">
-        <v>507</v>
-      </c>
       <c r="AB16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
+        <v>224</v>
+      </c>
+      <c r="R17" t="s">
         <v>225</v>
       </c>
-      <c r="R17" t="s">
-        <v>226</v>
-      </c>
       <c r="AB17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="17:28" x14ac:dyDescent="0.35">
@@ -10821,161 +10944,161 @@
         <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AB21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AB25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Z27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AA27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AB27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB29" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AB30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.35">
@@ -10985,7 +11108,7 @@
     </row>
     <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -11158,14 +11281,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAC359-40A3-4DF7-B945-8A67F26F8B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DEF62-4823-4262-BBA9-D17864CA15B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2863,9 +2863,6 @@
     <t>Potential revisit - Results of the stock assessments carried out in the last 10 years clearly show that the ongoing fishing pressure is determining a generalized overfishing status of commercial stocks, which appears more relevant for demersal fish. Multiple relationships</t>
   </si>
   <si>
-    <t>primary production required to sustain fisheries (PPR)_mean trophic level of the catch (mTLc)_the loss in secondary production index (L index)_the probability of the ecosystem to be sustainably exploited (psust).</t>
-  </si>
-  <si>
     <t>SW4_0510</t>
   </si>
   <si>
@@ -4215,6 +4212,9 @@
   </si>
   <si>
     <t>In total, out of 109 tons of total catch obtained in 132 sampling operations, 41 tons are classifies as bycatch (37%) in different fishing gears. All figures indicate that there is rather high impact of fishing gears on exploited stocks causing growth and recruitment overfishing.</t>
+  </si>
+  <si>
+    <t>primary production required to sustain fisheries (PPR) _ mean trophic level of the catch (mTLc) _ the loss in secondary production index (L index) _ the probability of the ecosystem to be sustainably exploited (psust)</t>
   </si>
 </sst>
 </file>
@@ -4340,7 +4340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4354,21 +4354,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4677,10 +4669,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1450" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="AA2" sqref="AA2"/>
-      <selection pane="bottomLeft" activeCell="AI12" sqref="AI12"/>
+      <selection activeCell="AB2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4700,70 +4692,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="23" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="21" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="24" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="18" t="s">
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="19" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
     </row>
     <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4917,1467 +4909,1460 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>2021</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>2020</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D5" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6">
         <v>2019</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="M6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" t="s">
         <v>69</v>
       </c>
       <c r="R6" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AF6" s="11" t="s">
+      <c r="AF6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>2019</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" t="s">
         <v>133</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" t="s">
         <v>134</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AF7" s="11" t="s">
+      <c r="AD7" s="4"/>
+      <c r="AF7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <v>2017</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" t="s">
         <v>141</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" t="s">
         <v>109</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" t="s">
         <v>86</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" t="s">
         <v>110</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" t="s">
         <v>143</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" t="s">
         <v>89</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z8" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD8" t="s">
         <v>146</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AF8" t="s">
         <v>147</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AG8" t="s">
         <v>148</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AH8" t="s">
         <v>149</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AL8" t="s">
         <v>150</v>
       </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AM8" t="s">
         <v>116</v>
       </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AN8" t="s">
         <v>151</v>
       </c>
-      <c r="AO8" s="11" t="s">
+      <c r="AO8" t="s">
         <v>95</v>
       </c>
-      <c r="AQ8" s="11" t="s">
+      <c r="AQ8" t="s">
         <v>152</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AR8" t="s">
         <v>153</v>
       </c>
-      <c r="AU8" s="11" t="s">
+      <c r="AU8" t="s">
         <v>119</v>
       </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AV8" t="s">
         <v>154</v>
       </c>
-      <c r="AW8" s="11" t="s">
+      <c r="AW8" t="s">
         <v>120</v>
       </c>
-      <c r="AX8" s="11" t="s">
+      <c r="AX8" t="s">
         <v>155</v>
       </c>
-      <c r="AY8" s="11" t="s">
+      <c r="AY8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <v>2017</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" t="s">
         <v>141</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" t="s">
         <v>142</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" t="s">
         <v>109</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" t="s">
         <v>110</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" t="s">
         <v>143</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" t="s">
         <v>89</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" t="s">
         <v>144</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" t="s">
         <v>145</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9">
         <v>2</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9">
         <v>2</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" t="s">
         <v>146</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" t="s">
         <v>147</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" t="s">
         <v>148</v>
       </c>
-      <c r="AH9" s="11" t="s">
+      <c r="AH9" t="s">
         <v>149</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AL9" t="s">
         <v>150</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AM9" t="s">
         <v>116</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>151</v>
       </c>
-      <c r="AO9" s="11" t="s">
+      <c r="AO9" t="s">
         <v>95</v>
       </c>
-      <c r="AQ9" s="11" t="s">
+      <c r="AQ9" t="s">
         <v>152</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AU9" t="s">
+        <v>607</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>157</v>
       </c>
-      <c r="AV9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW9" s="11" t="s">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <v>2017</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11">
+        <v>2017</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V11" t="s">
+        <v>167</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW11" t="s">
         <v>120</v>
       </c>
-      <c r="AX9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY9" s="11" t="s">
-        <v>156</v>
+      <c r="AX11" t="s">
+        <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12">
         <v>2017</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="F12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N12" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O12" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" t="s">
+        <v>185</v>
+      </c>
+      <c r="V12" t="s">
+        <v>167</v>
+      </c>
+      <c r="W12" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="I13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S13" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR13"/>
+      <c r="AU13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW13" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX13" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14">
+        <v>2016</v>
+      </c>
+      <c r="F14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" t="s">
+        <v>220</v>
+      </c>
+      <c r="V14" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" t="s">
+        <v>168</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15">
+        <v>2016</v>
+      </c>
+      <c r="F15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" t="s">
+        <v>236</v>
+      </c>
+      <c r="T15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16">
+        <v>2016</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" t="s">
         <v>70</v>
       </c>
-      <c r="AD10" s="13"/>
-      <c r="AF10" s="11" t="s">
+      <c r="AF16" t="s">
         <v>84</v>
       </c>
-      <c r="AX10"/>
     </row>
-    <row r="11" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2017</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17">
+        <v>2015</v>
+      </c>
+      <c r="F17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="M17" t="s">
+        <v>265</v>
+      </c>
+      <c r="N17" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="11" t="s">
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="T11" s="11" t="s">
+      <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="V11" s="11" t="s">
+      <c r="U17" t="s">
+        <v>201</v>
+      </c>
+      <c r="V17" t="s">
+        <v>266</v>
+      </c>
+      <c r="W17" t="s">
         <v>168</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA11" s="11">
+      <c r="X17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA17">
         <v>2</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB17">
         <v>2</v>
       </c>
-      <c r="AC11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="13"/>
-      <c r="AF11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF17">
+        <v>4.2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>152</v>
       </c>
-      <c r="AU11" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2017</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="13"/>
-      <c r="AF12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2017</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="15"/>
-      <c r="AF13" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI13" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ13" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN13" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO13" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ13" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR13" s="11"/>
-      <c r="AU13" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV13" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW13" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX13" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH14" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN14" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO14" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR14" s="11" t="s">
+      <c r="AR17" t="s">
         <v>118</v>
       </c>
-      <c r="AU14" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV14" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AY15" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD16" s="13"/>
-      <c r="AF16" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH17" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL17" s="11" t="s">
+      <c r="AU17" t="s">
+        <v>591</v>
+      </c>
+      <c r="AV17" t="s">
         <v>272</v>
       </c>
-      <c r="AM17" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU17" s="11" t="s">
+      <c r="AW17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX17" t="s">
         <v>592</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
         <v>275</v>
-      </c>
-      <c r="D18" t="s">
-        <v>276</v>
       </c>
       <c r="E18">
         <v>2010</v>
       </c>
       <c r="F18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" t="s">
         <v>277</v>
-      </c>
-      <c r="G18" t="s">
-        <v>278</v>
       </c>
       <c r="H18" t="s">
         <v>128</v>
       </c>
       <c r="I18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" t="s">
         <v>279</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>280</v>
-      </c>
-      <c r="K18" t="s">
-        <v>281</v>
       </c>
       <c r="L18" t="s">
         <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
@@ -6386,7 +6371,7 @@
         <v>67</v>
       </c>
       <c r="Q18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S18" t="s">
         <v>109</v>
@@ -6398,19 +6383,19 @@
         <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
         <v>90</v>
       </c>
       <c r="Y18" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z18" t="s">
         <v>285</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>286</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6425,19 +6410,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH18" t="s">
         <v>149</v>
       </c>
       <c r="AL18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM18" t="s">
         <v>116</v>
       </c>
       <c r="AO18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ18" t="s">
         <v>152</v>
@@ -6446,60 +6431,60 @@
         <v>118</v>
       </c>
       <c r="AT18" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU18" t="s">
         <v>289</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>290</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>291</v>
       </c>
       <c r="AW18" t="s">
         <v>98</v>
       </c>
       <c r="AX18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" t="s">
         <v>293</v>
-      </c>
-      <c r="D19" t="s">
-        <v>294</v>
       </c>
       <c r="E19">
         <v>1996</v>
       </c>
       <c r="F19" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" t="s">
         <v>295</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>296</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>298</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>299</v>
-      </c>
-      <c r="K19" t="s">
-        <v>300</v>
       </c>
       <c r="L19" t="s">
         <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N19" t="s">
         <v>66</v>
@@ -6508,28 +6493,28 @@
         <v>67</v>
       </c>
       <c r="S19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T19" t="s">
         <v>111</v>
       </c>
       <c r="U19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W19" t="s">
+        <v>301</v>
+      </c>
+      <c r="X19" t="s">
         <v>302</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>303</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>304</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>305</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6544,7 +6529,7 @@
         <v>4.3</v>
       </c>
       <c r="AG19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH19" t="s">
         <v>92</v>
@@ -6553,16 +6538,16 @@
         <v>93</v>
       </c>
       <c r="AK19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM19" t="s">
         <v>306</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AO19" t="s">
         <v>307</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>308</v>
       </c>
       <c r="AQ19" t="s">
         <v>152</v>
@@ -6571,60 +6556,60 @@
         <v>118</v>
       </c>
       <c r="AT19" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU19" t="s">
         <v>309</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>310</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>311</v>
       </c>
       <c r="AW19" t="s">
         <v>98</v>
       </c>
       <c r="AX19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" t="s">
         <v>293</v>
-      </c>
-      <c r="D20" t="s">
-        <v>294</v>
       </c>
       <c r="E20">
         <v>1996</v>
       </c>
       <c r="F20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" t="s">
         <v>295</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>296</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>297</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>299</v>
-      </c>
-      <c r="K20" t="s">
-        <v>300</v>
       </c>
       <c r="L20" t="s">
         <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
@@ -6633,28 +6618,28 @@
         <v>67</v>
       </c>
       <c r="S20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T20" t="s">
         <v>111</v>
       </c>
       <c r="U20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W20" t="s">
+        <v>301</v>
+      </c>
+      <c r="X20" t="s">
         <v>302</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>303</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>304</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>305</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6669,19 +6654,19 @@
         <v>4.3</v>
       </c>
       <c r="AG20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH20" t="s">
         <v>92</v>
       </c>
       <c r="AK20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO20" t="s">
         <v>307</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>308</v>
       </c>
       <c r="AQ20" t="s">
         <v>152</v>
@@ -6690,60 +6675,60 @@
         <v>118</v>
       </c>
       <c r="AT20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AU20" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV20" t="s">
         <v>313</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>314</v>
       </c>
       <c r="AW20" t="s">
         <v>98</v>
       </c>
       <c r="AX20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" t="s">
         <v>316</v>
-      </c>
-      <c r="D21" t="s">
-        <v>317</v>
       </c>
       <c r="E21">
         <v>1999</v>
       </c>
       <c r="F21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" t="s">
         <v>318</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" t="s">
         <v>319</v>
       </c>
-      <c r="H21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>320</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>321</v>
-      </c>
-      <c r="K21" t="s">
-        <v>322</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N21" t="s">
         <v>66</v>
@@ -6752,25 +6737,25 @@
         <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T21" t="s">
         <v>111</v>
       </c>
       <c r="U21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X21" t="s">
         <v>90</v>
       </c>
       <c r="Z21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6785,7 +6770,7 @@
         <v>4.3</v>
       </c>
       <c r="AG21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH21" t="s">
         <v>92</v>
@@ -6794,19 +6779,19 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AM21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN21" t="s">
         <v>117</v>
       </c>
       <c r="AO21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ21" t="s">
         <v>152</v>
@@ -6815,69 +6800,69 @@
         <v>118</v>
       </c>
       <c r="AT21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AU21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AV21" t="s">
         <v>97</v>
       </c>
       <c r="AW21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX21" t="s">
         <v>327</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" t="s">
         <v>330</v>
-      </c>
-      <c r="D22" t="s">
-        <v>331</v>
       </c>
       <c r="E22">
         <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" t="s">
         <v>332</v>
       </c>
-      <c r="H22" t="s">
-        <v>261</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>333</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>334</v>
-      </c>
-      <c r="K22" t="s">
-        <v>335</v>
       </c>
       <c r="L22" t="s">
         <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S22" t="s">
         <v>85</v>
@@ -6889,19 +6874,19 @@
         <v>89</v>
       </c>
       <c r="V22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X22" t="s">
         <v>90</v>
       </c>
       <c r="Y22" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z22" t="s">
         <v>339</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>340</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -6916,7 +6901,7 @@
         <v>4.3</v>
       </c>
       <c r="AG22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH22" t="s">
         <v>92</v>
@@ -6925,19 +6910,19 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL22" t="s">
         <v>341</v>
       </c>
-      <c r="AL22" t="s">
-        <v>342</v>
-      </c>
       <c r="AM22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN22" t="s">
         <v>117</v>
       </c>
       <c r="AO22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ22" t="s">
         <v>152</v>
@@ -6946,60 +6931,60 @@
         <v>118</v>
       </c>
       <c r="AT22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AU22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AV22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AW22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX22" t="s">
         <v>327</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" t="s">
         <v>345</v>
-      </c>
-      <c r="D23" t="s">
-        <v>346</v>
       </c>
       <c r="E23">
         <v>2002</v>
       </c>
       <c r="F23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G23" t="s">
         <v>347</v>
-      </c>
-      <c r="G23" t="s">
-        <v>348</v>
       </c>
       <c r="H23" t="s">
         <v>128</v>
       </c>
       <c r="I23" t="s">
+        <v>348</v>
+      </c>
+      <c r="J23" t="s">
         <v>349</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>350</v>
-      </c>
-      <c r="K23" t="s">
-        <v>351</v>
       </c>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N23" t="s">
         <v>66</v>
@@ -7014,7 +6999,7 @@
         <v>69</v>
       </c>
       <c r="S23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T23" t="s">
         <v>86</v>
@@ -7023,7 +7008,7 @@
         <v>110</v>
       </c>
       <c r="V23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W23" t="s">
         <v>87</v>
@@ -7032,10 +7017,10 @@
         <v>112</v>
       </c>
       <c r="Y23" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z23" t="s">
         <v>353</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>354</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7056,10 +7041,10 @@
         <v>149</v>
       </c>
       <c r="AI23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM23" t="s">
         <v>116</v>
@@ -7068,63 +7053,63 @@
         <v>151</v>
       </c>
       <c r="AO23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AQ23" t="s">
         <v>152</v>
       </c>
       <c r="AU23" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV23" t="s">
         <v>356</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>357</v>
       </c>
       <c r="AW23" t="s">
         <v>98</v>
       </c>
       <c r="AX23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" t="s">
         <v>345</v>
-      </c>
-      <c r="D24" t="s">
-        <v>346</v>
       </c>
       <c r="E24">
         <v>2002</v>
       </c>
       <c r="F24" t="s">
+        <v>346</v>
+      </c>
+      <c r="G24" t="s">
         <v>347</v>
-      </c>
-      <c r="G24" t="s">
-        <v>348</v>
       </c>
       <c r="H24" t="s">
         <v>128</v>
       </c>
       <c r="I24" t="s">
+        <v>348</v>
+      </c>
+      <c r="J24" t="s">
         <v>349</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>350</v>
-      </c>
-      <c r="K24" t="s">
-        <v>351</v>
       </c>
       <c r="L24" t="s">
         <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
@@ -7139,7 +7124,7 @@
         <v>69</v>
       </c>
       <c r="S24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T24" t="s">
         <v>86</v>
@@ -7148,7 +7133,7 @@
         <v>110</v>
       </c>
       <c r="V24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W24" t="s">
         <v>87</v>
@@ -7157,10 +7142,10 @@
         <v>112</v>
       </c>
       <c r="Y24" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z24" t="s">
         <v>353</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>354</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7181,10 +7166,10 @@
         <v>149</v>
       </c>
       <c r="AI24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM24" t="s">
         <v>116</v>
@@ -7193,63 +7178,63 @@
         <v>117</v>
       </c>
       <c r="AO24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AQ24" t="s">
         <v>152</v>
       </c>
       <c r="AU24" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV24" t="s">
         <v>356</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>357</v>
       </c>
       <c r="AW24" t="s">
         <v>98</v>
       </c>
       <c r="AX24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" t="s">
         <v>359</v>
-      </c>
-      <c r="D25" t="s">
-        <v>360</v>
       </c>
       <c r="E25">
         <v>2004</v>
       </c>
       <c r="F25" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" t="s">
         <v>361</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" t="s">
         <v>362</v>
       </c>
-      <c r="H25" t="s">
-        <v>297</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>363</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>364</v>
-      </c>
-      <c r="K25" t="s">
-        <v>365</v>
       </c>
       <c r="L25" t="s">
         <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -7270,22 +7255,22 @@
         <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X25" t="s">
         <v>144</v>
       </c>
       <c r="Y25" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z25" t="s">
         <v>368</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>369</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7303,28 +7288,28 @@
         <v>144</v>
       </c>
       <c r="AH25" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI25" t="s">
         <v>224</v>
       </c>
-      <c r="AI25" t="s">
-        <v>225</v>
-      </c>
       <c r="AL25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM25" t="s">
         <v>116</v>
       </c>
       <c r="AN25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ25" t="s">
         <v>152</v>
       </c>
       <c r="AU25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AV25" t="s">
         <v>119</v>
@@ -7336,48 +7321,48 @@
         <v>98</v>
       </c>
       <c r="AY25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" t="s">
         <v>359</v>
-      </c>
-      <c r="D26" t="s">
-        <v>360</v>
       </c>
       <c r="E26">
         <v>2004</v>
       </c>
       <c r="F26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" t="s">
         <v>361</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" t="s">
         <v>362</v>
       </c>
-      <c r="H26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>363</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>364</v>
-      </c>
-      <c r="K26" t="s">
-        <v>365</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7398,22 +7383,22 @@
         <v>86</v>
       </c>
       <c r="U26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X26" t="s">
         <v>144</v>
       </c>
       <c r="Y26" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z26" t="s">
         <v>368</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>369</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7428,31 +7413,31 @@
         <v>4.2</v>
       </c>
       <c r="AG26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AH26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI26" t="s">
         <v>224</v>
       </c>
-      <c r="AI26" t="s">
-        <v>225</v>
-      </c>
       <c r="AL26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM26" t="s">
         <v>116</v>
       </c>
       <c r="AN26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ26" t="s">
         <v>152</v>
       </c>
       <c r="AU26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AV26" t="s">
         <v>119</v>
@@ -7464,48 +7449,48 @@
         <v>98</v>
       </c>
       <c r="AY26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
         <v>374</v>
-      </c>
-      <c r="D27" t="s">
-        <v>375</v>
       </c>
       <c r="E27">
         <v>2004</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
+        <v>375</v>
+      </c>
+      <c r="H27" t="s">
         <v>376</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>377</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>378</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>379</v>
-      </c>
-      <c r="K27" t="s">
-        <v>380</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7514,7 +7499,7 @@
         <v>67</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q27" t="s">
         <v>69</v>
@@ -7529,19 +7514,19 @@
         <v>89</v>
       </c>
       <c r="V27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W27" t="s">
+        <v>381</v>
+      </c>
+      <c r="X27" t="s">
         <v>382</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>383</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>384</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>385</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7556,7 +7541,7 @@
         <v>4.3</v>
       </c>
       <c r="AG27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH27" t="s">
         <v>92</v>
@@ -7565,16 +7550,16 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM27" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO27" t="s">
         <v>307</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>308</v>
       </c>
       <c r="AQ27" t="s">
         <v>152</v>
@@ -7583,60 +7568,60 @@
         <v>118</v>
       </c>
       <c r="AT27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AU27" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV27" t="s">
         <v>310</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>311</v>
       </c>
       <c r="AW27" t="s">
         <v>120</v>
       </c>
       <c r="AX27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" t="s">
         <v>389</v>
-      </c>
-      <c r="D28" t="s">
-        <v>390</v>
       </c>
       <c r="E28">
         <v>2005</v>
       </c>
       <c r="F28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" t="s">
         <v>391</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" t="s">
         <v>392</v>
       </c>
-      <c r="H28" t="s">
-        <v>261</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>393</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>394</v>
-      </c>
-      <c r="K28" t="s">
-        <v>395</v>
       </c>
       <c r="L28" t="s">
         <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
@@ -7645,19 +7630,19 @@
         <v>67</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q28" t="s">
         <v>69</v>
       </c>
       <c r="S28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T28" t="s">
         <v>88</v>
       </c>
       <c r="U28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V28" t="s">
         <v>111</v>
@@ -7666,13 +7651,13 @@
         <v>87</v>
       </c>
       <c r="X28" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y28" t="s">
         <v>397</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>398</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>399</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7687,7 +7672,7 @@
         <v>4.3</v>
       </c>
       <c r="AG28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH28" t="s">
         <v>92</v>
@@ -7696,19 +7681,19 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL28" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN28" t="s">
         <v>400</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AO28" t="s">
         <v>307</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>308</v>
       </c>
       <c r="AQ28" t="s">
         <v>152</v>
@@ -7717,57 +7702,57 @@
         <v>118</v>
       </c>
       <c r="AU28" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV28" t="s">
         <v>402</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>403</v>
       </c>
       <c r="AW28" t="s">
         <v>120</v>
       </c>
       <c r="AX28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" t="s">
         <v>406</v>
-      </c>
-      <c r="D29" t="s">
-        <v>407</v>
       </c>
       <c r="E29">
         <v>2006</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
+        <v>407</v>
+      </c>
+      <c r="H29" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" t="s">
         <v>408</v>
       </c>
-      <c r="H29" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>409</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>410</v>
-      </c>
-      <c r="K29" t="s">
-        <v>411</v>
       </c>
       <c r="L29" t="s">
         <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -7776,7 +7761,7 @@
         <v>67</v>
       </c>
       <c r="S29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T29" t="s">
         <v>86</v>
@@ -7785,19 +7770,19 @@
         <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X29" t="s">
         <v>144</v>
       </c>
       <c r="Y29" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z29" t="s">
         <v>413</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>414</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7821,19 +7806,19 @@
         <v>93</v>
       </c>
       <c r="AK29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN29" t="s">
         <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ29" t="s">
         <v>152</v>
@@ -7842,60 +7827,60 @@
         <v>118</v>
       </c>
       <c r="AT29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU29" t="s">
         <v>309</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>310</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>311</v>
       </c>
       <c r="AW29" t="s">
         <v>120</v>
       </c>
       <c r="AX29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" t="s">
         <v>418</v>
-      </c>
-      <c r="D30" t="s">
-        <v>419</v>
       </c>
       <c r="E30">
         <v>2010</v>
       </c>
       <c r="F30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G30" t="s">
         <v>420</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" t="s">
         <v>421</v>
       </c>
-      <c r="H30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>422</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>423</v>
-      </c>
-      <c r="K30" t="s">
-        <v>424</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -7910,7 +7895,7 @@
         <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V30" t="s">
         <v>88</v>
@@ -7919,13 +7904,13 @@
         <v>87</v>
       </c>
       <c r="X30" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y30" t="s">
         <v>426</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>427</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>428</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7943,13 +7928,13 @@
         <v>91</v>
       </c>
       <c r="AH30" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI30" t="s">
         <v>224</v>
       </c>
-      <c r="AI30" t="s">
-        <v>225</v>
-      </c>
       <c r="AL30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM30" t="s">
         <v>116</v>
@@ -7958,69 +7943,69 @@
         <v>117</v>
       </c>
       <c r="AO30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ30" t="s">
         <v>152</v>
       </c>
       <c r="AR30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AU30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AV30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW30" t="s">
         <v>98</v>
       </c>
       <c r="AX30" t="s">
+        <v>429</v>
+      </c>
+      <c r="AY30" t="s">
         <v>430</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" t="s">
         <v>418</v>
-      </c>
-      <c r="D31" t="s">
-        <v>419</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" t="s">
         <v>420</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" t="s">
         <v>421</v>
       </c>
-      <c r="H31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>422</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>423</v>
-      </c>
-      <c r="K31" t="s">
-        <v>424</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8035,7 +8020,7 @@
         <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V31" t="s">
         <v>88</v>
@@ -8044,13 +8029,13 @@
         <v>87</v>
       </c>
       <c r="X31" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y31" t="s">
         <v>426</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>427</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>428</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8068,13 +8053,13 @@
         <v>91</v>
       </c>
       <c r="AH31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI31" t="s">
         <v>224</v>
       </c>
-      <c r="AI31" t="s">
-        <v>225</v>
-      </c>
       <c r="AL31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM31" t="s">
         <v>116</v>
@@ -8083,69 +8068,69 @@
         <v>117</v>
       </c>
       <c r="AO31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ31" t="s">
         <v>152</v>
       </c>
       <c r="AR31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AU31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AV31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW31" t="s">
         <v>98</v>
       </c>
       <c r="AX31" t="s">
+        <v>429</v>
+      </c>
+      <c r="AY31" t="s">
         <v>430</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" t="s">
         <v>433</v>
-      </c>
-      <c r="D32" t="s">
-        <v>434</v>
       </c>
       <c r="E32">
         <v>2010</v>
       </c>
       <c r="F32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H32" t="s">
         <v>63</v>
       </c>
       <c r="I32" t="s">
+        <v>435</v>
+      </c>
+      <c r="J32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" t="s">
         <v>436</v>
-      </c>
-      <c r="J32" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" t="s">
-        <v>437</v>
       </c>
       <c r="L32" t="s">
         <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
@@ -8154,7 +8139,7 @@
         <v>67</v>
       </c>
       <c r="S32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T32" t="s">
         <v>86</v>
@@ -8172,10 +8157,10 @@
         <v>90</v>
       </c>
       <c r="Y32" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z32" t="s">
         <v>439</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>440</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8190,16 +8175,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH32" t="s">
         <v>149</v>
       </c>
       <c r="AI32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM32" t="s">
         <v>116</v>
@@ -8208,7 +8193,7 @@
         <v>117</v>
       </c>
       <c r="AO32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ32" t="s">
         <v>152</v>
@@ -8217,13 +8202,13 @@
         <v>118</v>
       </c>
       <c r="AT32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AU32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AV32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW32" t="s">
         <v>98</v>
@@ -8232,664 +8217,664 @@
         <v>98</v>
       </c>
       <c r="AY32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="D33" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2012</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM33" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU33" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV33" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX33" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AY33" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="E33" s="16">
-        <v>2012</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="H33" s="16" t="s">
+      <c r="C34" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2013</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="M34" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI34" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="AM34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO34" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="AQ34" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR34" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU34" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV34" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="AW34" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX34" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2013</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="N33" s="16" t="s">
+      <c r="M35" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="N35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="O35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S33" s="16" t="s">
+      <c r="S35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T33" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="V33" s="16" t="s">
+      <c r="T35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V35" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="W33" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X33" s="16" t="s">
+      <c r="W35" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Y33" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA33" s="16">
+      <c r="Y35" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA35" s="11">
         <v>2</v>
       </c>
-      <c r="AB33" s="16">
+      <c r="AB35" s="11">
         <v>1</v>
       </c>
-      <c r="AC33" s="16">
+      <c r="AC35" s="11">
         <v>2</v>
       </c>
-      <c r="AF33" s="16">
+      <c r="AF35" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG33" s="16" t="s">
+      <c r="AG35" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AH33" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI33" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="AL33" s="16" t="s">
+      <c r="AH35" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL35" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="AM35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO35" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV35" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="AW35" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX35" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="AM33" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN33" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO33" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AQ33" s="16" t="s">
+      <c r="B36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2013</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG36" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="AQ36" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AR33" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT33" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU33" s="16" t="s">
+      <c r="AR36" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AU36" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AV36" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="AV33" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AW33" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX33" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AY33" s="16" t="s">
-        <v>431</v>
+      <c r="AW36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX36" s="11" t="s">
+        <v>588</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+    <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="D37" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="E37" s="11">
+        <v>2013</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E34" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F34" s="16" t="s">
+      <c r="G37" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="H37" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="16" t="s">
+      <c r="J37" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="K37" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="L37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" s="16" t="s">
+      <c r="N37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z37" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="N34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S34" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T34" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="U34" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V34" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W34" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="X34" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y34" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="Z34" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA34" s="16">
+      <c r="AA37" s="11">
         <v>2</v>
       </c>
-      <c r="AB34" s="16">
+      <c r="AB37" s="11">
         <v>1</v>
       </c>
-      <c r="AC34" s="16">
+      <c r="AC37" s="11">
         <v>2</v>
       </c>
-      <c r="AF34" s="16">
+      <c r="AF37" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG34" s="16" t="s">
+      <c r="AG37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AH34" s="16" t="s">
+      <c r="AH37" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AI34" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="AL34" s="16" t="s">
+      <c r="AM37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO37" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="AM34" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN34" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO34" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ34" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="AR34" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="AS34" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="AU34" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="AV34" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="AW34" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX34" s="16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="E35" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="Z35" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA35" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB35" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="16">
-        <v>2</v>
-      </c>
-      <c r="AF35" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG35" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH35" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI35" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL35" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="AM35" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN35" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO35" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ35" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="AR35" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="AS35" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="AU35" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="AV35" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="AW35" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="AX35" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="E36" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="X36" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y36" s="16" t="s">
+      <c r="AQ37" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR37" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS37" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AU37" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="Z36" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA36" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB36" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="16">
-        <v>2</v>
-      </c>
-      <c r="AF36" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG36" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH36" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM36" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN36" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO36" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ36" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR36" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS36" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="AU36" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="AV36" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AW36" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX36" s="16" t="s">
+      <c r="AV37" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW37" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX37" s="11" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="E37" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA37" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB37" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="16">
-        <v>2</v>
-      </c>
-      <c r="AF37" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG37" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH37" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM37" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN37" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO37" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ37" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR37" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS37" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="AU37" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="AV37" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="AW37" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX37" s="16" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" t="s">
         <v>468</v>
-      </c>
-      <c r="D38" t="s">
-        <v>469</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
+        <v>469</v>
+      </c>
+      <c r="G38" t="s">
         <v>470</v>
-      </c>
-      <c r="G38" t="s">
-        <v>471</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
       </c>
       <c r="I38" t="s">
+        <v>471</v>
+      </c>
+      <c r="J38" t="s">
         <v>472</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>473</v>
-      </c>
-      <c r="K38" t="s">
-        <v>474</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -8904,22 +8889,22 @@
         <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V38" t="s">
         <v>111</v>
       </c>
       <c r="W38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X38" t="s">
         <v>90</v>
       </c>
       <c r="Y38" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z38" t="s">
         <v>476</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>477</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -8943,7 +8928,7 @@
         <v>93</v>
       </c>
       <c r="AL38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AM38" t="s">
         <v>116</v>
@@ -8952,7 +8937,7 @@
         <v>117</v>
       </c>
       <c r="AO38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ38" t="s">
         <v>152</v>
@@ -8961,13 +8946,13 @@
         <v>118</v>
       </c>
       <c r="AT38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AU38" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV38" t="s">
         <v>310</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>311</v>
       </c>
       <c r="AW38" t="s">
         <v>98</v>
@@ -8976,48 +8961,48 @@
         <v>98</v>
       </c>
       <c r="AY38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
+        <v>467</v>
+      </c>
+      <c r="D39" t="s">
         <v>468</v>
-      </c>
-      <c r="D39" t="s">
-        <v>469</v>
       </c>
       <c r="E39">
         <v>2015</v>
       </c>
       <c r="F39" t="s">
+        <v>469</v>
+      </c>
+      <c r="G39" t="s">
         <v>470</v>
-      </c>
-      <c r="G39" t="s">
-        <v>471</v>
       </c>
       <c r="H39" t="s">
         <v>63</v>
       </c>
       <c r="I39" t="s">
+        <v>471</v>
+      </c>
+      <c r="J39" t="s">
         <v>472</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>473</v>
-      </c>
-      <c r="K39" t="s">
-        <v>474</v>
       </c>
       <c r="L39" t="s">
         <v>63</v>
       </c>
       <c r="M39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N39" t="s">
         <v>66</v>
@@ -9032,22 +9017,22 @@
         <v>86</v>
       </c>
       <c r="U39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V39" t="s">
         <v>111</v>
       </c>
       <c r="W39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X39" t="s">
         <v>90</v>
       </c>
       <c r="Y39" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z39" t="s">
         <v>476</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>477</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9068,10 +9053,10 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AM39" t="s">
         <v>116</v>
@@ -9080,7 +9065,7 @@
         <v>117</v>
       </c>
       <c r="AO39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ39" t="s">
         <v>152</v>
@@ -9089,13 +9074,13 @@
         <v>118</v>
       </c>
       <c r="AT39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AU39" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV39" t="s">
         <v>310</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>311</v>
       </c>
       <c r="AW39" t="s">
         <v>98</v>
@@ -9104,7 +9089,7 @@
         <v>98</v>
       </c>
       <c r="AY39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9137,7 +9122,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
@@ -9154,70 +9139,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="23" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="21" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="18" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -9376,22 +9361,22 @@
         <v>69</v>
       </c>
       <c r="R3" t="s">
+        <v>478</v>
+      </c>
+      <c r="S3" t="s">
         <v>479</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>480</v>
       </c>
-      <c r="T3" t="s">
-        <v>481</v>
-      </c>
       <c r="U3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X3" t="s">
         <v>112</v>
@@ -9407,48 +9392,48 @@
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AK3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AV3" t="s">
         <v>97</v>
       </c>
       <c r="AW3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R4" t="s">
+        <v>482</v>
+      </c>
+      <c r="S4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="S4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X4" t="s">
         <v>90</v>
@@ -9464,13 +9449,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -9479,7 +9464,7 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AW4" t="s">
         <v>120</v>
@@ -9487,25 +9472,25 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
+        <v>487</v>
+      </c>
+      <c r="S5" t="s">
+        <v>200</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="S5" t="s">
-        <v>201</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="AA5">
@@ -9522,10 +9507,10 @@
         <v>148</v>
       </c>
       <c r="AH5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM5" t="s">
         <v>116</v>
@@ -9534,12 +9519,12 @@
         <v>152</v>
       </c>
       <c r="AV5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AW5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AX5" s="8"/>
+        <v>326</v>
+      </c>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -9549,16 +9534,16 @@
         <v>109</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X6" t="s">
         <v>144</v>
@@ -9568,19 +9553,19 @@
         <v>91</v>
       </c>
       <c r="AH6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AV6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AW6" t="s">
         <v>98</v>
@@ -9588,35 +9573,35 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
+        <v>494</v>
+      </c>
+      <c r="S7" t="s">
         <v>495</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>496</v>
-      </c>
-      <c r="T7" t="s">
-        <v>497</v>
       </c>
       <c r="U7" t="s">
         <v>89</v>
       </c>
       <c r="V7" t="s">
+        <v>496</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="X7" t="s">
         <v>497</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="X7" t="s">
-        <v>498</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AH7" t="s">
         <v>149</v>
       </c>
       <c r="AK7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM7" t="s">
         <v>94</v>
@@ -9625,42 +9610,42 @@
         <v>96</v>
       </c>
       <c r="AV7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
+        <v>500</v>
+      </c>
+      <c r="S8" t="s">
         <v>501</v>
       </c>
-      <c r="S8" t="s">
-        <v>502</v>
-      </c>
       <c r="T8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W8" t="s">
         <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH8" t="s">
         <v>114</v>
       </c>
       <c r="AM8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AQ8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AV8" t="s">
         <v>154</v>
@@ -9671,69 +9656,69 @@
         <v>134</v>
       </c>
       <c r="S9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="T9" t="s">
         <v>111</v>
       </c>
       <c r="U9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V9" t="s">
         <v>111</v>
       </c>
       <c r="W9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH9" t="s">
         <v>505</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AM9" t="s">
         <v>506</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AV9" t="s">
         <v>507</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T10" t="s">
         <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V10" t="s">
         <v>143</v>
       </c>
       <c r="W10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X10" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>603</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM10" t="s">
         <v>509</v>
       </c>
-      <c r="AG10" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="AQ10" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="AV10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -9750,92 +9735,92 @@
         <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AH11" t="s">
         <v>92</v>
       </c>
       <c r="AM11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AQ11" s="6" t="s">
         <v>152</v>
       </c>
       <c r="AR11" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AV11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W12" t="s">
         <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AQ12" t="s">
         <v>118</v>
       </c>
       <c r="AR12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AV12" t="s">
         <v>516</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V13" t="s">
         <v>86</v>
       </c>
       <c r="W13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X13" t="s">
+        <v>518</v>
+      </c>
+      <c r="AH13" t="s">
         <v>519</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AM13" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>520</v>
       </c>
-      <c r="AM13" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>521</v>
       </c>
-      <c r="AR13" t="s">
-        <v>522</v>
-      </c>
       <c r="AV13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
@@ -9843,357 +9828,356 @@
         <v>85</v>
       </c>
       <c r="U14" t="s">
+        <v>522</v>
+      </c>
+      <c r="W14" t="s">
+        <v>220</v>
+      </c>
+      <c r="X14" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH14" t="s">
         <v>523</v>
-      </c>
-      <c r="W14" t="s">
-        <v>221</v>
-      </c>
-      <c r="X14" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>524</v>
       </c>
       <c r="AM14" s="6" t="s">
         <v>116</v>
       </c>
       <c r="AQ14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AR14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AV14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U15" t="s">
         <v>110</v>
       </c>
       <c r="W15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AH15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM15" t="s">
         <v>151</v>
       </c>
       <c r="AQ15" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR15" t="s">
         <v>527</v>
       </c>
-      <c r="AR15" t="s">
-        <v>528</v>
-      </c>
       <c r="AV15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W16" t="s">
         <v>110</v>
       </c>
       <c r="X16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AM16" t="s">
         <v>117</v>
       </c>
       <c r="AQ16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AR16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
-        <v>505</v>
+      <c r="AQ19" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ23" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="AK23" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="AK23" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="AL23" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN23" s="6" t="s">
         <v>92</v>
       </c>
       <c r="AO23" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AR23" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN24" t="s">
         <v>93</v>
       </c>
       <c r="AO24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AP24" t="s">
+        <v>535</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>536</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AJ25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK25" t="s">
         <v>115</v>
       </c>
       <c r="AN25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AP25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>539</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK26" t="s">
         <v>122</v>
       </c>
       <c r="AO26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK27" t="s">
         <v>541</v>
       </c>
-      <c r="AK27" t="s">
-        <v>542</v>
-      </c>
       <c r="AO27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AO28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AQ30" s="6" t="s">
+      <c r="AR30" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AR30" s="6" t="s">
+      <c r="AS30" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV30" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="AS30" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI31" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>288</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS31" t="s">
         <v>548</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>289</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>289</v>
-      </c>
-      <c r="AS31" t="s">
+      <c r="AT31" t="s">
         <v>549</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AU31" t="s">
         <v>550</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>551</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI32" t="s">
         <v>553</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AQ32" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR32" t="s">
         <v>554</v>
       </c>
-      <c r="AQ32" t="s">
-        <v>309</v>
-      </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>555</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AT32" t="s">
         <v>556</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU32" t="s">
         <v>557</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" t="s">
         <v>558</v>
       </c>
-      <c r="AV32" t="s">
+    </row>
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI33" t="s">
         <v>559</v>
       </c>
+      <c r="AS33" t="s">
+        <v>560</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>561</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>562</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
-      <c r="AH33" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>560</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>561</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>562</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>563</v>
-      </c>
-      <c r="AV33" t="s">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AI34" t="s">
         <v>564</v>
       </c>
+      <c r="AT34" t="s">
+        <v>565</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>566</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>567</v>
+      </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
-      <c r="AI34" t="s">
-        <v>565</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>566</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV34" t="s">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AI35" t="s">
+        <v>504</v>
+      </c>
+      <c r="AT35" t="s">
         <v>568</v>
       </c>
-      <c r="AY34" s="7"/>
+      <c r="AU35" t="s">
+        <v>569</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>570</v>
+      </c>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
-      <c r="AI35" t="s">
-        <v>505</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>569</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>570</v>
-      </c>
-      <c r="AV35" t="s">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AU36" t="s">
         <v>571</v>
       </c>
+      <c r="AV36" t="s">
+        <v>572</v>
+      </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
-      <c r="AU36" t="s">
-        <v>572</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10253,51 +10237,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="18" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -10402,22 +10386,22 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
         <v>479</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>480</v>
       </c>
-      <c r="C3" t="s">
-        <v>481</v>
-      </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
         <v>112</v>
@@ -10433,16 +10417,16 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q3" t="s">
+        <v>573</v>
+      </c>
+      <c r="R3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" t="s">
         <v>574</v>
-      </c>
-      <c r="R3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S3" t="s">
-        <v>575</v>
       </c>
       <c r="V3" t="s">
         <v>116</v>
@@ -10454,36 +10438,36 @@
         <v>152</v>
       </c>
       <c r="AA3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AB3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE3" t="s">
         <v>97</v>
       </c>
       <c r="AF3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
@@ -10499,19 +10483,19 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W4" t="s">
         <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF4" t="s">
         <v>120</v>
@@ -10519,25 +10503,25 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -10553,22 +10537,22 @@
         <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -10579,16 +10563,16 @@
         <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -10598,16 +10582,16 @@
         <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="s">
         <v>98</v>
@@ -10615,82 +10599,82 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" t="s">
         <v>495</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>496</v>
-      </c>
-      <c r="C7" t="s">
-        <v>497</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
       </c>
       <c r="E7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G7" t="s">
         <v>497</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" t="s">
-        <v>498</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V7" t="s">
         <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AE7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" t="s">
         <v>501</v>
       </c>
-      <c r="B8" t="s">
-        <v>502</v>
-      </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AE8" t="s">
         <v>154</v>
@@ -10701,72 +10685,72 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
         <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE9" t="s">
         <v>507</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>561</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
         <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
+        <v>508</v>
+      </c>
+      <c r="R10" t="s">
+        <v>540</v>
+      </c>
+      <c r="V10" t="s">
         <v>509</v>
       </c>
-      <c r="R10" t="s">
-        <v>541</v>
-      </c>
-      <c r="V10" t="s">
-        <v>510</v>
-      </c>
       <c r="AA10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
@@ -10783,83 +10767,83 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G11" t="s">
+        <v>511</v>
+      </c>
+      <c r="R11" t="s">
+        <v>542</v>
+      </c>
+      <c r="V11" t="s">
         <v>512</v>
       </c>
-      <c r="R11" t="s">
-        <v>543</v>
-      </c>
-      <c r="V11" t="s">
-        <v>513</v>
-      </c>
       <c r="AB11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AE11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>532</v>
+        <v>514</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>531</v>
       </c>
       <c r="R12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AE12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R13" t="s">
         <v>115</v>
       </c>
       <c r="AB13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AE13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
@@ -10867,76 +10851,76 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R14" t="s">
         <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AA15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
       </c>
       <c r="G16" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q16" t="s">
         <v>505</v>
       </c>
-      <c r="Q16" t="s">
-        <v>506</v>
-      </c>
       <c r="AB16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
+        <v>223</v>
+      </c>
+      <c r="R17" t="s">
         <v>224</v>
       </c>
-      <c r="R17" t="s">
-        <v>225</v>
-      </c>
       <c r="AB17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="17:28" x14ac:dyDescent="0.35">
@@ -10944,161 +10928,161 @@
         <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AA20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AB21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AB22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AB25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AB27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.35">
@@ -11108,7 +11092,7 @@
     </row>
     <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -11135,6 +11119,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -11248,12 +11238,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -11263,6 +11247,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A639B1-0D3D-41B3-BFF7-00E0F6972EBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11276,19 +11275,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DEF62-4823-4262-BBA9-D17864CA15B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE38DE-3321-432F-BCA3-7B6393424541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="609">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3638,9 +3638,6 @@
     <t>modelled benthic community</t>
   </si>
   <si>
-    <t>area closures in lightly fished areas, coupled with effort reduction, are expected to minimize the effects of fishing on benthic communities</t>
-  </si>
-  <si>
     <t>SW4_1185</t>
   </si>
   <si>
@@ -4215,6 +4212,12 @@
   </si>
   <si>
     <t>primary production required to sustain fisheries (PPR) _ mean trophic level of the catch (mTLc) _ the loss in secondary production index (L index) _ the probability of the ecosystem to be sustainably exploited (psust)</t>
+  </si>
+  <si>
+    <t>Our simulations demonstrated that closures of different sizes and in different locations could have positive or negative effects on benthic communities. Area closures in lightly fished areas, coupled with effort reduction, are expected to minimize the effects of fishing on benthic communities. In the absence of effort controls, closure of lightly fished areas had the strongest positive effect on benthic communities. Effort reduction also had a positive effect. Therefore, area closures in lightly fished areas, coupled with effort reduction, are expected to minimize the effects of fishing on benthic communities.</t>
+  </si>
+  <si>
+    <t>Area closures of different sizes and in different locations _ Effort reduction</t>
   </si>
 </sst>
 </file>
@@ -4340,7 +4343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4382,6 +4385,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4669,10 +4673,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1450" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="AB2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="AU9" sqref="AU9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="AI51" sqref="AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5029,43 +5033,43 @@
     </row>
     <row r="5" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>594</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>595</v>
       </c>
       <c r="E5" s="10">
         <v>2019</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>597</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>599</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>600</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>63</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>66</v>
@@ -5083,7 +5087,7 @@
         <v>70</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
@@ -5443,7 +5447,7 @@
         <v>152</v>
       </c>
       <c r="AU9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV9" t="s">
         <v>154</v>
@@ -5633,7 +5637,7 @@
         <v>120</v>
       </c>
       <c r="AX11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
@@ -5752,7 +5756,7 @@
         <v>120</v>
       </c>
       <c r="AX12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6312,7 +6316,7 @@
         <v>118</v>
       </c>
       <c r="AU17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AV17" t="s">
         <v>272</v>
@@ -6321,7 +6325,7 @@
         <v>98</v>
       </c>
       <c r="AX17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
@@ -7053,7 +7057,7 @@
         <v>151</v>
       </c>
       <c r="AO23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AQ23" t="s">
         <v>152</v>
@@ -7068,7 +7072,7 @@
         <v>98</v>
       </c>
       <c r="AX23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
@@ -7178,7 +7182,7 @@
         <v>117</v>
       </c>
       <c r="AO24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AQ24" t="s">
         <v>152</v>
@@ -7193,7 +7197,7 @@
         <v>98</v>
       </c>
       <c r="AX24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
@@ -7413,7 +7417,7 @@
         <v>4.2</v>
       </c>
       <c r="AG26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AH26" t="s">
         <v>223</v>
@@ -7796,8 +7800,8 @@
       <c r="AF29">
         <v>4.3</v>
       </c>
-      <c r="AG29" t="s">
-        <v>148</v>
+      <c r="AG29" s="19" t="s">
+        <v>497</v>
       </c>
       <c r="AH29" t="s">
         <v>92</v>
@@ -7818,7 +7822,7 @@
         <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>307</v>
+        <v>608</v>
       </c>
       <c r="AQ29" t="s">
         <v>152</v>
@@ -7836,51 +7840,51 @@
         <v>310</v>
       </c>
       <c r="AW29" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="AX29" t="s">
-        <v>415</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
         <v>417</v>
-      </c>
-      <c r="D30" t="s">
-        <v>418</v>
       </c>
       <c r="E30">
         <v>2010</v>
       </c>
       <c r="F30" t="s">
+        <v>418</v>
+      </c>
+      <c r="G30" t="s">
         <v>419</v>
-      </c>
-      <c r="G30" t="s">
-        <v>420</v>
       </c>
       <c r="H30" t="s">
         <v>178</v>
       </c>
       <c r="I30" t="s">
+        <v>420</v>
+      </c>
+      <c r="J30" t="s">
         <v>421</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>422</v>
-      </c>
-      <c r="K30" t="s">
-        <v>423</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -7904,13 +7908,13 @@
         <v>87</v>
       </c>
       <c r="X30" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y30" t="s">
         <v>425</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>426</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>427</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7952,7 +7956,7 @@
         <v>241</v>
       </c>
       <c r="AU30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AV30" t="s">
         <v>209</v>
@@ -7961,51 +7965,51 @@
         <v>98</v>
       </c>
       <c r="AX30" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY30" t="s">
         <v>429</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" t="s">
         <v>417</v>
-      </c>
-      <c r="D31" t="s">
-        <v>418</v>
       </c>
       <c r="E31">
         <v>2010</v>
       </c>
       <c r="F31" t="s">
+        <v>418</v>
+      </c>
+      <c r="G31" t="s">
         <v>419</v>
-      </c>
-      <c r="G31" t="s">
-        <v>420</v>
       </c>
       <c r="H31" t="s">
         <v>178</v>
       </c>
       <c r="I31" t="s">
+        <v>420</v>
+      </c>
+      <c r="J31" t="s">
         <v>421</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>422</v>
-      </c>
-      <c r="K31" t="s">
-        <v>423</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8029,13 +8033,13 @@
         <v>87</v>
       </c>
       <c r="X31" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y31" t="s">
         <v>425</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>426</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>427</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8074,10 +8078,10 @@
         <v>152</v>
       </c>
       <c r="AR31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AV31" t="s">
         <v>209</v>
@@ -8086,30 +8090,30 @@
         <v>98</v>
       </c>
       <c r="AX31" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY31" t="s">
         <v>429</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
+        <v>431</v>
+      </c>
+      <c r="D32" t="s">
         <v>432</v>
-      </c>
-      <c r="D32" t="s">
-        <v>433</v>
       </c>
       <c r="E32">
         <v>2010</v>
       </c>
       <c r="F32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G32" t="s">
         <v>277</v>
@@ -8118,19 +8122,19 @@
         <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J32" t="s">
         <v>161</v>
       </c>
       <c r="K32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L32" t="s">
         <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
@@ -8157,10 +8161,10 @@
         <v>90</v>
       </c>
       <c r="Y32" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z32" t="s">
         <v>438</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>439</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8175,7 +8179,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AH32" t="s">
         <v>149</v>
@@ -8184,7 +8188,7 @@
         <v>170</v>
       </c>
       <c r="AL32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM32" t="s">
         <v>116</v>
@@ -8202,7 +8206,7 @@
         <v>118</v>
       </c>
       <c r="AT32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU32" t="s">
         <v>370</v>
@@ -8217,21 +8221,21 @@
         <v>98</v>
       </c>
       <c r="AY32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>445</v>
       </c>
       <c r="E33" s="11">
         <v>2012</v>
@@ -8240,25 +8244,25 @@
         <v>214</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>449</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>66</v>
@@ -8285,10 +8289,10 @@
         <v>90</v>
       </c>
       <c r="Y33" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z33" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="AA33" s="11">
         <v>2</v>
@@ -8309,10 +8313,10 @@
         <v>92</v>
       </c>
       <c r="AI33" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AL33" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="AL33" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="AM33" s="11" t="s">
         <v>306</v>
@@ -8342,51 +8346,51 @@
         <v>120</v>
       </c>
       <c r="AX33" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY33" s="11" t="s">
         <v>429</v>
-      </c>
-      <c r="AY33" s="11" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="E34" s="11">
         <v>2013</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>66</v>
@@ -8413,10 +8417,10 @@
         <v>90</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA34" s="11">
         <v>2</v>
@@ -8437,10 +8441,10 @@
         <v>149</v>
       </c>
       <c r="AI34" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AL34" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>116</v>
@@ -8449,69 +8453,69 @@
         <v>117</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ34" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AR34" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AS34" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AU34" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AV34" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AW34" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AX34" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="E35" s="11">
         <v>2013</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I35" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>66</v>
@@ -8538,10 +8542,10 @@
         <v>90</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA35" s="11">
         <v>2</v>
@@ -8565,7 +8569,7 @@
         <v>187</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AM35" s="11" t="s">
         <v>116</v>
@@ -8574,69 +8578,69 @@
         <v>117</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ35" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AS35" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AU35" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AV35" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>326</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="E36" s="11">
         <v>2013</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I36" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="K36" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>66</v>
@@ -8663,10 +8667,10 @@
         <v>90</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA36" s="11">
         <v>2</v>
@@ -8693,7 +8697,7 @@
         <v>151</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>152</v>
@@ -8702,10 +8706,10 @@
         <v>241</v>
       </c>
       <c r="AS36" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AU36" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AV36" s="11" t="s">
         <v>310</v>
@@ -8714,48 +8718,48 @@
         <v>210</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="E37" s="11">
         <v>2013</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I37" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="K37" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>66</v>
@@ -8782,10 +8786,10 @@
         <v>90</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA37" s="11">
         <v>2</v>
@@ -8812,7 +8816,7 @@
         <v>151</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>152</v>
@@ -8821,60 +8825,60 @@
         <v>241</v>
       </c>
       <c r="AS37" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AV37" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AW37" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AX37" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D38" t="s">
         <v>467</v>
-      </c>
-      <c r="D38" t="s">
-        <v>468</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38" t="s">
+        <v>468</v>
+      </c>
+      <c r="G38" t="s">
         <v>469</v>
-      </c>
-      <c r="G38" t="s">
-        <v>470</v>
       </c>
       <c r="H38" t="s">
         <v>63</v>
       </c>
       <c r="I38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J38" t="s">
         <v>471</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>472</v>
-      </c>
-      <c r="K38" t="s">
-        <v>473</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -8901,10 +8905,10 @@
         <v>90</v>
       </c>
       <c r="Y38" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z38" t="s">
         <v>475</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>476</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -8928,7 +8932,7 @@
         <v>93</v>
       </c>
       <c r="AL38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM38" t="s">
         <v>116</v>
@@ -8961,48 +8965,48 @@
         <v>98</v>
       </c>
       <c r="AY38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D39" t="s">
         <v>467</v>
-      </c>
-      <c r="D39" t="s">
-        <v>468</v>
       </c>
       <c r="E39">
         <v>2015</v>
       </c>
       <c r="F39" t="s">
+        <v>468</v>
+      </c>
+      <c r="G39" t="s">
         <v>469</v>
-      </c>
-      <c r="G39" t="s">
-        <v>470</v>
       </c>
       <c r="H39" t="s">
         <v>63</v>
       </c>
       <c r="I39" t="s">
+        <v>470</v>
+      </c>
+      <c r="J39" t="s">
         <v>471</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>472</v>
-      </c>
-      <c r="K39" t="s">
-        <v>473</v>
       </c>
       <c r="L39" t="s">
         <v>63</v>
       </c>
       <c r="M39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N39" t="s">
         <v>66</v>
@@ -9029,10 +9033,10 @@
         <v>90</v>
       </c>
       <c r="Y39" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z39" t="s">
         <v>475</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>476</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9053,10 +9057,10 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM39" t="s">
         <v>116</v>
@@ -9089,7 +9093,7 @@
         <v>98</v>
       </c>
       <c r="AY39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9124,8 +9128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9361,19 +9365,19 @@
         <v>69</v>
       </c>
       <c r="R3" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" t="s">
         <v>478</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>479</v>
-      </c>
-      <c r="T3" t="s">
-        <v>480</v>
       </c>
       <c r="U3" t="s">
         <v>381</v>
       </c>
       <c r="V3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W3" t="s">
         <v>337</v>
@@ -9395,16 +9399,16 @@
         <v>269</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AK3" t="s">
         <v>340</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV3" t="s">
         <v>97</v>
@@ -9418,19 +9422,19 @@
         <v>282</v>
       </c>
       <c r="R4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S4" t="s">
         <v>166</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>168</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W4" t="s">
         <v>381</v>
@@ -9449,13 +9453,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -9464,7 +9468,7 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AW4" t="s">
         <v>120</v>
@@ -9472,7 +9476,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S5" t="s">
         <v>200</v>
@@ -9481,7 +9485,7 @@
         <v>266</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>266</v>
@@ -9510,7 +9514,7 @@
         <v>203</v>
       </c>
       <c r="AK5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM5" t="s">
         <v>116</v>
@@ -9519,7 +9523,7 @@
         <v>152</v>
       </c>
       <c r="AV5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AW5" t="s">
         <v>326</v>
@@ -9534,16 +9538,16 @@
         <v>109</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X6" t="s">
         <v>144</v>
@@ -9562,7 +9566,7 @@
         <v>171</v>
       </c>
       <c r="AQ6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV6" t="s">
         <v>290</v>
@@ -9573,35 +9577,35 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
+        <v>493</v>
+      </c>
+      <c r="S7" t="s">
         <v>494</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>495</v>
-      </c>
-      <c r="T7" t="s">
-        <v>496</v>
       </c>
       <c r="U7" t="s">
         <v>89</v>
       </c>
       <c r="V7" t="s">
+        <v>495</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="X7" t="s">
         <v>496</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="X7" t="s">
-        <v>497</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AH7" t="s">
         <v>149</v>
       </c>
       <c r="AK7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM7" t="s">
         <v>94</v>
@@ -9615,10 +9619,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
+        <v>499</v>
+      </c>
+      <c r="S8" t="s">
         <v>500</v>
-      </c>
-      <c r="S8" t="s">
-        <v>501</v>
       </c>
       <c r="T8" t="s">
         <v>283</v>
@@ -9636,7 +9640,7 @@
         <v>267</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AH8" t="s">
         <v>114</v>
@@ -9645,7 +9649,7 @@
         <v>306</v>
       </c>
       <c r="AQ8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV8" t="s">
         <v>154</v>
@@ -9656,7 +9660,7 @@
         <v>134</v>
       </c>
       <c r="S9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T9" t="s">
         <v>111</v>
@@ -9671,19 +9675,19 @@
         <v>366</v>
       </c>
       <c r="X9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH9" t="s">
         <v>504</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AM9" t="s">
         <v>505</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AV9" t="s">
         <v>506</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -9703,19 +9707,19 @@
         <v>201</v>
       </c>
       <c r="X10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AH10" t="s">
         <v>223</v>
       </c>
       <c r="AM10" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="AQ10" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="AV10" t="s">
         <v>310</v>
@@ -9738,19 +9742,19 @@
         <v>301</v>
       </c>
       <c r="X11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH11" t="s">
         <v>92</v>
       </c>
       <c r="AM11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AQ11" s="6" t="s">
         <v>152</v>
       </c>
       <c r="AR11" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV11" t="s">
         <v>272</v>
@@ -9758,7 +9762,7 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T12" t="s">
         <v>167</v>
@@ -9773,7 +9777,7 @@
         <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH12" t="s">
         <v>311</v>
@@ -9782,15 +9786,15 @@
         <v>118</v>
       </c>
       <c r="AR12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AV12" t="s">
         <v>515</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
@@ -9805,19 +9809,19 @@
         <v>185</v>
       </c>
       <c r="X13" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH13" t="s">
         <v>518</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AM13" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>519</v>
       </c>
-      <c r="AM13" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>520</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>521</v>
       </c>
       <c r="AV13" t="s">
         <v>172</v>
@@ -9828,7 +9832,7 @@
         <v>85</v>
       </c>
       <c r="U14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W14" t="s">
         <v>220</v>
@@ -9837,13 +9841,13 @@
         <v>396</v>
       </c>
       <c r="AH14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM14" s="6" t="s">
         <v>116</v>
       </c>
       <c r="AQ14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AR14" t="s">
         <v>241</v>
@@ -9860,36 +9864,36 @@
         <v>110</v>
       </c>
       <c r="W15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AH15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM15" t="s">
         <v>151</v>
       </c>
       <c r="AQ15" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR15" t="s">
         <v>526</v>
       </c>
-      <c r="AR15" t="s">
-        <v>527</v>
-      </c>
       <c r="AV15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W16" t="s">
         <v>110</v>
       </c>
       <c r="X16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AM16" t="s">
         <v>117</v>
@@ -9898,7 +9902,7 @@
         <v>241</v>
       </c>
       <c r="AR16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="34:48" x14ac:dyDescent="0.35">
@@ -9906,22 +9910,22 @@
         <v>189</v>
       </c>
       <c r="AQ17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="34:48" x14ac:dyDescent="0.35">
@@ -9932,13 +9936,13 @@
         <v>270</v>
       </c>
       <c r="AJ23" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="AK23" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="AK23" s="6" t="s">
-        <v>531</v>
-      </c>
       <c r="AL23" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>223</v>
@@ -9947,16 +9951,16 @@
         <v>92</v>
       </c>
       <c r="AO23" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR23" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="24" spans="34:48" x14ac:dyDescent="0.35">
@@ -9967,7 +9971,7 @@
         <v>170</v>
       </c>
       <c r="AK24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM24" t="s">
         <v>224</v>
@@ -9979,15 +9983,15 @@
         <v>340</v>
       </c>
       <c r="AP24" t="s">
+        <v>534</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>535</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AJ25" t="s">
         <v>254</v>
@@ -9996,16 +10000,16 @@
         <v>115</v>
       </c>
       <c r="AN25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AP25" t="s">
+        <v>537</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>538</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="26" spans="34:48" x14ac:dyDescent="0.35">
@@ -10016,15 +10020,15 @@
         <v>122</v>
       </c>
       <c r="AO26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK27" t="s">
         <v>540</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>541</v>
       </c>
       <c r="AO27" t="s">
         <v>190</v>
@@ -10032,38 +10036,38 @@
     </row>
     <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AO28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="AQ30" s="6" t="s">
+      <c r="AR30" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AR30" s="6" t="s">
-        <v>545</v>
-      </c>
       <c r="AS30" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AT30" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AU30" s="6" t="s">
         <v>241</v>
       </c>
       <c r="AV30" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="34:48" x14ac:dyDescent="0.35">
@@ -10071,7 +10075,7 @@
         <v>204</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AQ31" t="s">
         <v>288</v>
@@ -10080,42 +10084,42 @@
         <v>288</v>
       </c>
       <c r="AS31" t="s">
+        <v>547</v>
+      </c>
+      <c r="AT31" t="s">
         <v>548</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AU31" t="s">
         <v>549</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>550</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI32" t="s">
         <v>552</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>553</v>
       </c>
       <c r="AQ32" t="s">
         <v>308</v>
       </c>
       <c r="AR32" t="s">
+        <v>553</v>
+      </c>
+      <c r="AS32" t="s">
         <v>554</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AT32" t="s">
         <v>555</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU32" t="s">
         <v>556</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" t="s">
         <v>557</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="33" spans="34:48" x14ac:dyDescent="0.35">
@@ -10123,55 +10127,55 @@
         <v>205</v>
       </c>
       <c r="AI33" t="s">
+        <v>558</v>
+      </c>
+      <c r="AS33" t="s">
         <v>559</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
         <v>560</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AU33" t="s">
         <v>561</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>562</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
+        <v>563</v>
+      </c>
+      <c r="AT34" t="s">
         <v>564</v>
       </c>
-      <c r="AT34" t="s">
+      <c r="AU34" t="s">
         <v>565</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AV34" t="s">
         <v>566</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT35" t="s">
+        <v>567</v>
+      </c>
+      <c r="AU35" t="s">
         <v>568</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>569</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
+        <v>570</v>
+      </c>
+      <c r="AV36" t="s">
         <v>571</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="37" spans="34:48" x14ac:dyDescent="0.35">
@@ -10386,19 +10390,19 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" t="s">
         <v>478</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>479</v>
-      </c>
-      <c r="C3" t="s">
-        <v>480</v>
       </c>
       <c r="D3" t="s">
         <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>337</v>
@@ -10420,13 +10424,13 @@
         <v>269</v>
       </c>
       <c r="Q3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R3" t="s">
         <v>204</v>
       </c>
       <c r="S3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V3" t="s">
         <v>116</v>
@@ -10438,7 +10442,7 @@
         <v>152</v>
       </c>
       <c r="AA3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AB3" t="s">
         <v>288</v>
@@ -10452,19 +10456,19 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F4" t="s">
         <v>381</v>
@@ -10483,10 +10487,10 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W4" t="s">
         <v>117</v>
@@ -10495,7 +10499,7 @@
         <v>308</v>
       </c>
       <c r="AE4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF4" t="s">
         <v>120</v>
@@ -10503,7 +10507,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
         <v>200</v>
@@ -10512,7 +10516,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>266</v>
@@ -10537,19 +10541,19 @@
         <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W5" t="s">
         <v>189</v>
       </c>
       <c r="AA5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AB5" t="s">
         <v>288</v>
       </c>
       <c r="AE5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF5" t="s">
         <v>326</v>
@@ -10563,16 +10567,16 @@
         <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -10588,7 +10592,7 @@
         <v>171</v>
       </c>
       <c r="AB6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AE6" t="s">
         <v>290</v>
@@ -10599,32 +10603,32 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
         <v>494</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>495</v>
-      </c>
-      <c r="C7" t="s">
-        <v>496</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
       </c>
       <c r="E7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G7" t="s">
         <v>496</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G7" t="s">
-        <v>497</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R7" t="s">
         <v>170</v>
@@ -10633,10 +10637,10 @@
         <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AE7" t="s">
         <v>356</v>
@@ -10644,10 +10648,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" t="s">
         <v>500</v>
-      </c>
-      <c r="B8" t="s">
-        <v>501</v>
       </c>
       <c r="C8" t="s">
         <v>283</v>
@@ -10665,7 +10669,7 @@
         <v>267</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R8" t="s">
         <v>254</v>
@@ -10674,7 +10678,7 @@
         <v>306</v>
       </c>
       <c r="AB8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE8" t="s">
         <v>154</v>
@@ -10685,7 +10689,7 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -10700,22 +10704,22 @@
         <v>366</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R9" t="s">
         <v>187</v>
       </c>
       <c r="V9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE9" t="s">
         <v>506</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>560</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
@@ -10735,19 +10739,19 @@
         <v>201</v>
       </c>
       <c r="G10" t="s">
+        <v>507</v>
+      </c>
+      <c r="R10" t="s">
+        <v>539</v>
+      </c>
+      <c r="V10" t="s">
         <v>508</v>
       </c>
-      <c r="R10" t="s">
-        <v>540</v>
-      </c>
-      <c r="V10" t="s">
-        <v>509</v>
-      </c>
       <c r="AA10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AE10" t="s">
         <v>310</v>
@@ -10770,16 +10774,16 @@
         <v>301</v>
       </c>
       <c r="G11" t="s">
+        <v>510</v>
+      </c>
+      <c r="R11" t="s">
+        <v>541</v>
+      </c>
+      <c r="V11" t="s">
         <v>511</v>
       </c>
-      <c r="R11" t="s">
-        <v>542</v>
-      </c>
-      <c r="V11" t="s">
-        <v>512</v>
-      </c>
       <c r="AB11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AE11" t="s">
         <v>272</v>
@@ -10787,7 +10791,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
         <v>167</v>
@@ -10802,24 +10806,24 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AB12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AE12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -10834,13 +10838,13 @@
         <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R13" t="s">
         <v>115</v>
       </c>
       <c r="AB13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AE13" t="s">
         <v>172</v>
@@ -10851,7 +10855,7 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F14" t="s">
         <v>220</v>
@@ -10863,7 +10867,7 @@
         <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AE14" t="s">
         <v>209</v>
@@ -10877,39 +10881,39 @@
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA15" t="s">
         <v>241</v>
       </c>
       <c r="AB15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
       </c>
       <c r="G16" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q16" t="s">
         <v>504</v>
       </c>
-      <c r="Q16" t="s">
-        <v>505</v>
-      </c>
       <c r="AB16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="17:28" x14ac:dyDescent="0.35">
@@ -10920,7 +10924,7 @@
         <v>224</v>
       </c>
       <c r="AB17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="17:28" x14ac:dyDescent="0.35">
@@ -10928,90 +10932,90 @@
         <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T18" t="s">
         <v>340</v>
       </c>
       <c r="AB18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AB19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T21" t="s">
         <v>190</v>
       </c>
       <c r="AA21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="T22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R23" t="s">
         <v>340</v>
       </c>
       <c r="AB23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AB24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AB25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="17:28" x14ac:dyDescent="0.35">
@@ -11019,70 +11023,70 @@
         <v>190</v>
       </c>
       <c r="AA26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA29" t="s">
         <v>241</v>
       </c>
       <c r="AB29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.35">
@@ -11092,7 +11096,7 @@
     </row>
     <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -11119,12 +11123,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -11238,6 +11236,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -11247,21 +11251,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A639B1-0D3D-41B3-BFF7-00E0F6972EBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11275,4 +11264,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Uhlmann_Reid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE38DE-3321-432F-BCA3-7B6393424541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8369AE-41AC-4E6D-899B-2E4828E5E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="609">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -4343,7 +4343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4385,7 +4385,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4673,29 +4672,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1450" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="AI51" sqref="AI51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1455" activePane="bottomLeft"/>
+      <selection activeCell="X14" sqref="X14"/>
+      <selection pane="bottomLeft" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
-    <col min="24" max="25" width="32.54296875" customWidth="1"/>
-    <col min="34" max="35" width="17.54296875" customWidth="1"/>
-    <col min="36" max="36" width="18.54296875" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
-    <col min="38" max="38" width="17.54296875" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
-    <col min="47" max="47" width="18.54296875" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.5703125" customWidth="1"/>
+    <col min="34" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" customWidth="1"/>
+    <col min="40" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4760,7 @@
       <c r="AW1" s="13"/>
       <c r="AX1" s="13"/>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>592</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>191</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -5953,10 +5952,7 @@
         <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="Z14" t="s">
         <v>221</v>
@@ -6013,7 +6009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -6206,7 +6202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -6328,7 +6324,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -6575,7 +6571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -6694,7 +6690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>314</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>328</v>
       </c>
@@ -6950,7 +6946,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>343</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -7200,7 +7196,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>357</v>
       </c>
@@ -7328,7 +7324,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>357</v>
       </c>
@@ -7456,7 +7452,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -7587,7 +7583,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>387</v>
       </c>
@@ -7718,7 +7714,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>404</v>
       </c>
@@ -7800,7 +7796,7 @@
       <c r="AF29">
         <v>4.3</v>
       </c>
-      <c r="AG29" s="19" t="s">
+      <c r="AG29" t="s">
         <v>497</v>
       </c>
       <c r="AH29" t="s">
@@ -7846,7 +7842,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>415</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>415</v>
       </c>
@@ -8096,7 +8092,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>430</v>
       </c>
@@ -8224,7 +8220,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>442</v>
       </c>
@@ -8352,7 +8348,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>454</v>
       </c>
@@ -8477,7 +8473,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>454</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>454</v>
       </c>
@@ -8721,7 +8717,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>454</v>
       </c>
@@ -8840,7 +8836,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>465</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>465</v>
       </c>
@@ -9129,20 +9125,20 @@
   <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" customWidth="1"/>
-    <col min="33" max="33" width="26.453125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9208,7 +9204,7 @@
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>69</v>
       </c>
@@ -9417,7 +9413,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>282</v>
       </c>
@@ -9474,7 +9470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>486</v>
       </c>
@@ -9530,7 +9526,7 @@
       </c>
       <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>70</v>
       </c>
@@ -9575,7 +9571,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>493</v>
       </c>
@@ -9617,7 +9613,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>499</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>134</v>
       </c>
@@ -9690,7 +9686,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>236</v>
       </c>
@@ -9725,7 +9721,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>71</v>
       </c>
@@ -9760,7 +9756,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>512</v>
       </c>
@@ -9792,7 +9788,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>516</v>
       </c>
@@ -9827,7 +9823,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>85</v>
       </c>
@@ -9856,7 +9852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>184</v>
       </c>
@@ -9885,7 +9881,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>527</v>
       </c>
@@ -9905,7 +9901,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>189</v>
       </c>
@@ -9913,22 +9909,22 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>203</v>
       </c>
@@ -9963,7 +9959,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>204</v>
       </c>
@@ -9989,7 +9985,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>536</v>
       </c>
@@ -10012,7 +10008,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>187</v>
       </c>
@@ -10023,7 +10019,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>539</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>541</v>
       </c>
@@ -10042,12 +10038,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>542</v>
       </c>
@@ -10070,7 +10066,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>204</v>
       </c>
@@ -10096,7 +10092,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>551</v>
       </c>
@@ -10122,7 +10118,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>205</v>
       </c>
@@ -10142,7 +10138,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>563</v>
       </c>
@@ -10156,7 +10152,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>503</v>
       </c>
@@ -10170,7 +10166,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>570</v>
       </c>
@@ -10178,10 +10174,10 @@
         <v>571</v>
       </c>
     </row>
-    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10209,38 +10205,38 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="19.453125" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" customWidth="1"/>
-    <col min="22" max="22" width="18.54296875" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.1796875" customWidth="1"/>
-    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.81640625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -10287,7 +10283,7 @@
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -10388,7 +10384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>477</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>481</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>486</v>
       </c>
@@ -10559,7 +10555,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -10646,7 +10642,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -10684,7 +10680,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -10722,7 +10718,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>236</v>
       </c>
@@ -10757,7 +10753,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -10789,7 +10785,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>512</v>
       </c>
@@ -10821,7 +10817,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>516</v>
       </c>
@@ -10850,7 +10846,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>85</v>
       </c>
@@ -10873,7 +10869,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>184</v>
       </c>
@@ -10899,7 +10895,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>527</v>
       </c>
@@ -10916,7 +10912,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>223</v>
       </c>
@@ -10927,7 +10923,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>92</v>
       </c>
@@ -10941,7 +10937,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>546</v>
       </c>
@@ -10955,7 +10951,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>558</v>
       </c>
@@ -10966,7 +10962,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>576</v>
       </c>
@@ -10980,7 +10976,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>503</v>
       </c>
@@ -10991,7 +10987,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>531</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>484</v>
       </c>
@@ -11010,7 +11006,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>488</v>
       </c>
@@ -11018,7 +11014,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>190</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>498</v>
       </c>
@@ -11040,7 +11036,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>518</v>
       </c>
@@ -11051,7 +11047,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>537</v>
       </c>
@@ -11062,7 +11058,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>522</v>
       </c>
@@ -11073,7 +11069,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>538</v>
       </c>
@@ -11081,7 +11077,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>532</v>
       </c>
@@ -11089,12 +11085,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>498</v>
       </c>
@@ -11114,12 +11110,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11237,15 +11230,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11267,16 +11270,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>